--- a/PvPlantPlanner/Docs/UnitTestsExamples.xlsx
+++ b/PvPlantPlanner/Docs/UnitTestsExamples.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nikola.koprivica\Documents\0_MyDoc\PvPlantPlanner\Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nikola.koprivica\Documents\0_MyDoc\PvPlantPlanner\PvPlantPlanner\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{139FB1B4-4C39-4A54-891B-4515F460F1A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C197C6B9-0B29-4417-BFFC-C3A043DA3CA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{CC43E566-94BC-4A10-953F-51F79849A741}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15270" activeTab="1" xr2:uid="{CC43E566-94BC-4A10-953F-51F79849A741}"/>
   </bookViews>
   <sheets>
     <sheet name="Charging" sheetId="2" r:id="rId1"/>
+    <sheet name="EnergyTransfer" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="66">
   <si>
     <t>rated Power</t>
   </si>
@@ -127,12 +128,245 @@
   <si>
     <t>PartialCharge_DifferentModules_MostlyAlmostFullyCharged</t>
   </si>
+  <si>
+    <t>hour</t>
+  </si>
+  <si>
+    <t>hourly production [kWh]</t>
+  </si>
+  <si>
+    <t>self consuption [kWh]</t>
+  </si>
+  <si>
+    <t>useful energy [kWh]</t>
+  </si>
+  <si>
+    <t>Power Grid</t>
+  </si>
+  <si>
+    <t>Approved FeedIn Power</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>kW</t>
+  </si>
+  <si>
+    <t>EUR/kWh</t>
+  </si>
+  <si>
+    <t>Battery Storage</t>
+  </si>
+  <si>
+    <t>Rated Power</t>
+  </si>
+  <si>
+    <t>Rated Capacity</t>
+  </si>
+  <si>
+    <t>total energy to grid [kWh]</t>
+  </si>
+  <si>
+    <t>total revenue [EUR]</t>
+  </si>
+  <si>
+    <t>total energy from grid [kWh]</t>
+  </si>
+  <si>
+    <t>total cost [EUR]</t>
+  </si>
+  <si>
+    <t>storage delta [kWh]</t>
+  </si>
+  <si>
+    <t>rejected energy [kWh]</t>
+  </si>
+  <si>
+    <t>from battery [kWh]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">storage </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>state</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> [kWh]</t>
+    </r>
+  </si>
+  <si>
+    <t>2 x 50kW</t>
+  </si>
+  <si>
+    <t>2 x 100kWh</t>
+  </si>
+  <si>
+    <t>StandardProduction_TwoSmallModuleStorage_DynamicMarketPrice</t>
+  </si>
+  <si>
+    <t>feed-in price [EUR/kWh]</t>
+  </si>
+  <si>
+    <t>FeedIn Priority Price</t>
+  </si>
+  <si>
+    <t>Min Discharging Price</t>
+  </si>
+  <si>
+    <t>HighProduction_FiveSmallModuleStorage_DynamicMarketPrice</t>
+  </si>
+  <si>
+    <t>5 x 50kW</t>
+  </si>
+  <si>
+    <t>5 x 100kWh</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">-80 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>+ -20</t>
+    </r>
+  </si>
+  <si>
+    <t>Initial state</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">-150 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>+ -30</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>-90</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> + -30</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">-150 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>+ -10</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>-30</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> + -30</t>
+    </r>
+  </si>
+  <si>
+    <t>Export Price</t>
+  </si>
+  <si>
+    <t>SmallProduction_NotUsedStorage_StaticMarketPrice</t>
+  </si>
+  <si>
+    <t>StandardProduction_OneSmallModuleStorage_StaticMarketPrice</t>
+  </si>
+  <si>
+    <t>StandardProduction_TwoSmallModuleStorage_StaticMarketrice</t>
+  </si>
+  <si>
+    <t>DynamicHighProduction_FiveSmallModuleStorage_DynamicMarketPriceWithNegative</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">-70 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>+ -30</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>-150</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> + -30</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -161,8 +395,30 @@
       <name val="Courier New"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.34998626667073579"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="2" tint="-0.499984740745262"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -172,6 +428,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -249,7 +511,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -263,7 +525,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -284,6 +546,51 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -622,7 +929,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D7D14EE-63BD-4753-BDBC-E9A416B41BD2}">
   <dimension ref="A2:J168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A144" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M161" sqref="M161"/>
     </sheetView>
   </sheetViews>
@@ -2365,4 +2672,5885 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3004405F-278A-41B0-B16A-948CDB79AC5D}">
+  <dimension ref="A1:S202"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A172" workbookViewId="0">
+      <selection activeCell="R199" sqref="R199"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.140625" style="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" style="25" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" style="25" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="7"/>
+    <col min="5" max="5" width="10.42578125" style="7" customWidth="1"/>
+    <col min="6" max="7" width="9.140625" style="15"/>
+    <col min="8" max="8" width="11.42578125" style="15" customWidth="1"/>
+    <col min="9" max="12" width="9.140625" style="15"/>
+    <col min="13" max="16" width="9.140625" style="7"/>
+    <col min="17" max="17" width="9.5703125" style="7" customWidth="1"/>
+    <col min="19" max="19" width="9.140625" style="7"/>
+    <col min="20" max="16384" width="9.140625" style="15"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E1" s="26" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:18" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="M3" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="N3" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="O3" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="P3" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q3" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="R3" s="18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="25">
+        <v>0</v>
+      </c>
+      <c r="B4" s="25">
+        <v>0</v>
+      </c>
+      <c r="C4" s="25">
+        <v>30</v>
+      </c>
+      <c r="D4" s="7">
+        <f>B4-C4</f>
+        <v>-30</v>
+      </c>
+      <c r="M4" s="7">
+        <v>0</v>
+      </c>
+      <c r="N4" s="25">
+        <f t="shared" ref="N4:N27" si="0" xml:space="preserve"> M4*$J$8</f>
+        <v>0</v>
+      </c>
+      <c r="O4" s="7">
+        <v>30</v>
+      </c>
+      <c r="P4" s="25">
+        <f t="shared" ref="P4:P27" si="1">O4*$J$8</f>
+        <v>3</v>
+      </c>
+      <c r="R4" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="25">
+        <v>1</v>
+      </c>
+      <c r="B5" s="25">
+        <v>0</v>
+      </c>
+      <c r="C5" s="25">
+        <v>30</v>
+      </c>
+      <c r="D5" s="7">
+        <f t="shared" ref="D5:D27" si="2">B5-C5</f>
+        <v>-30</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="M5" s="7">
+        <v>0</v>
+      </c>
+      <c r="N5" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O5" s="7">
+        <v>30</v>
+      </c>
+      <c r="P5" s="25">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="R5" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="25">
+        <v>2</v>
+      </c>
+      <c r="B6" s="25">
+        <v>0</v>
+      </c>
+      <c r="C6" s="25">
+        <v>30</v>
+      </c>
+      <c r="D6" s="7">
+        <f t="shared" si="2"/>
+        <v>-30</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="J6" s="15">
+        <v>150</v>
+      </c>
+      <c r="K6" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="M6" s="7">
+        <v>0</v>
+      </c>
+      <c r="N6" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O6" s="7">
+        <v>30</v>
+      </c>
+      <c r="P6" s="25">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="R6" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="25">
+        <v>3</v>
+      </c>
+      <c r="B7" s="25">
+        <v>0</v>
+      </c>
+      <c r="C7" s="25">
+        <v>30</v>
+      </c>
+      <c r="D7" s="7">
+        <f t="shared" si="2"/>
+        <v>-30</v>
+      </c>
+      <c r="M7" s="7">
+        <v>0</v>
+      </c>
+      <c r="N7" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O7" s="7">
+        <v>30</v>
+      </c>
+      <c r="P7" s="25">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="R7" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="25">
+        <v>4</v>
+      </c>
+      <c r="B8" s="25">
+        <v>0</v>
+      </c>
+      <c r="C8" s="25">
+        <v>30</v>
+      </c>
+      <c r="D8" s="7">
+        <f t="shared" si="2"/>
+        <v>-30</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="J8" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="K8" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="M8" s="7">
+        <v>0</v>
+      </c>
+      <c r="N8" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O8" s="7">
+        <v>30</v>
+      </c>
+      <c r="P8" s="25">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="R8" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="25">
+        <v>5</v>
+      </c>
+      <c r="B9" s="25">
+        <v>0</v>
+      </c>
+      <c r="C9" s="25">
+        <v>30</v>
+      </c>
+      <c r="D9" s="7">
+        <f t="shared" si="2"/>
+        <v>-30</v>
+      </c>
+      <c r="M9" s="7">
+        <v>0</v>
+      </c>
+      <c r="N9" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O9" s="7">
+        <v>30</v>
+      </c>
+      <c r="P9" s="25">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="R9" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="25">
+        <v>6</v>
+      </c>
+      <c r="B10" s="25">
+        <v>0</v>
+      </c>
+      <c r="C10" s="25">
+        <v>30</v>
+      </c>
+      <c r="D10" s="7">
+        <f t="shared" si="2"/>
+        <v>-30</v>
+      </c>
+      <c r="M10" s="7">
+        <v>0</v>
+      </c>
+      <c r="N10" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O10" s="7">
+        <v>30</v>
+      </c>
+      <c r="P10" s="25">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="R10" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="25">
+        <v>7</v>
+      </c>
+      <c r="B11" s="25">
+        <v>10</v>
+      </c>
+      <c r="C11" s="25">
+        <v>30</v>
+      </c>
+      <c r="D11" s="7">
+        <f t="shared" si="2"/>
+        <v>-20</v>
+      </c>
+      <c r="M11" s="7">
+        <v>0</v>
+      </c>
+      <c r="N11" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O11" s="7">
+        <v>20</v>
+      </c>
+      <c r="P11" s="25">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="R11" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" s="25">
+        <v>8</v>
+      </c>
+      <c r="B12" s="25">
+        <v>50</v>
+      </c>
+      <c r="C12" s="25">
+        <v>30</v>
+      </c>
+      <c r="D12" s="7">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="M12" s="7">
+        <v>20</v>
+      </c>
+      <c r="N12" s="25">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="O12" s="7">
+        <v>0</v>
+      </c>
+      <c r="P12" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R12" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" s="25">
+        <v>9</v>
+      </c>
+      <c r="B13" s="25">
+        <v>60</v>
+      </c>
+      <c r="C13" s="25">
+        <v>30</v>
+      </c>
+      <c r="D13" s="7">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="M13" s="7">
+        <v>30</v>
+      </c>
+      <c r="N13" s="25">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="O13" s="7">
+        <v>0</v>
+      </c>
+      <c r="P13" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R13" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" s="25">
+        <v>10</v>
+      </c>
+      <c r="B14" s="25">
+        <v>70</v>
+      </c>
+      <c r="C14" s="25">
+        <v>30</v>
+      </c>
+      <c r="D14" s="7">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="G14" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="M14" s="7">
+        <v>40</v>
+      </c>
+      <c r="N14" s="25">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="O14" s="7">
+        <v>0</v>
+      </c>
+      <c r="P14" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R14" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" s="25">
+        <v>11</v>
+      </c>
+      <c r="B15" s="25">
+        <v>100</v>
+      </c>
+      <c r="C15" s="25">
+        <v>30</v>
+      </c>
+      <c r="D15" s="7">
+        <f t="shared" si="2"/>
+        <v>70</v>
+      </c>
+      <c r="G15" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="I15" s="15">
+        <v>50</v>
+      </c>
+      <c r="J15" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="M15" s="7">
+        <v>70</v>
+      </c>
+      <c r="N15" s="25">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="O15" s="7">
+        <v>0</v>
+      </c>
+      <c r="P15" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R15" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" s="25">
+        <v>12</v>
+      </c>
+      <c r="B16" s="25">
+        <v>70</v>
+      </c>
+      <c r="C16" s="25">
+        <v>30</v>
+      </c>
+      <c r="D16" s="7">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="G16" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="I16" s="15">
+        <v>100</v>
+      </c>
+      <c r="J16" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="M16" s="7">
+        <v>40</v>
+      </c>
+      <c r="N16" s="25">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="O16" s="7">
+        <v>0</v>
+      </c>
+      <c r="P16" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R16" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A17" s="25">
+        <v>13</v>
+      </c>
+      <c r="B17" s="25">
+        <v>70</v>
+      </c>
+      <c r="C17" s="25">
+        <v>30</v>
+      </c>
+      <c r="D17" s="7">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="G17" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="I17" s="15">
+        <v>0</v>
+      </c>
+      <c r="J17" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="M17" s="7">
+        <v>40</v>
+      </c>
+      <c r="N17" s="25">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="O17" s="7">
+        <v>0</v>
+      </c>
+      <c r="P17" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R17" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A18" s="25">
+        <v>14</v>
+      </c>
+      <c r="B18" s="25">
+        <v>50</v>
+      </c>
+      <c r="C18" s="25">
+        <v>30</v>
+      </c>
+      <c r="D18" s="7">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="M18" s="7">
+        <v>20</v>
+      </c>
+      <c r="N18" s="25">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="O18" s="7">
+        <v>0</v>
+      </c>
+      <c r="P18" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R18" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A19" s="25">
+        <v>15</v>
+      </c>
+      <c r="B19" s="25">
+        <v>50</v>
+      </c>
+      <c r="C19" s="25">
+        <v>30</v>
+      </c>
+      <c r="D19" s="7">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="M19" s="7">
+        <v>20</v>
+      </c>
+      <c r="N19" s="25">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="O19" s="7">
+        <v>0</v>
+      </c>
+      <c r="P19" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R19" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A20" s="25">
+        <v>16</v>
+      </c>
+      <c r="B20" s="25">
+        <v>20</v>
+      </c>
+      <c r="C20" s="25">
+        <v>30</v>
+      </c>
+      <c r="D20" s="7">
+        <f t="shared" si="2"/>
+        <v>-10</v>
+      </c>
+      <c r="M20" s="7">
+        <v>0</v>
+      </c>
+      <c r="N20" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O20" s="7">
+        <v>10</v>
+      </c>
+      <c r="P20" s="25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="R20" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A21" s="25">
+        <v>17</v>
+      </c>
+      <c r="B21" s="25">
+        <v>0</v>
+      </c>
+      <c r="C21" s="25">
+        <v>30</v>
+      </c>
+      <c r="D21" s="7">
+        <f t="shared" si="2"/>
+        <v>-30</v>
+      </c>
+      <c r="M21" s="7">
+        <v>0</v>
+      </c>
+      <c r="N21" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O21" s="7">
+        <v>30</v>
+      </c>
+      <c r="P21" s="25">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="R21" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A22" s="25">
+        <v>18</v>
+      </c>
+      <c r="B22" s="25">
+        <v>0</v>
+      </c>
+      <c r="C22" s="25">
+        <v>30</v>
+      </c>
+      <c r="D22" s="7">
+        <f t="shared" si="2"/>
+        <v>-30</v>
+      </c>
+      <c r="M22" s="7">
+        <v>0</v>
+      </c>
+      <c r="N22" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O22" s="7">
+        <v>30</v>
+      </c>
+      <c r="P22" s="25">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="R22" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A23" s="25">
+        <v>19</v>
+      </c>
+      <c r="B23" s="25">
+        <v>0</v>
+      </c>
+      <c r="C23" s="25">
+        <v>30</v>
+      </c>
+      <c r="D23" s="7">
+        <f t="shared" si="2"/>
+        <v>-30</v>
+      </c>
+      <c r="M23" s="7">
+        <v>0</v>
+      </c>
+      <c r="N23" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O23" s="7">
+        <v>30</v>
+      </c>
+      <c r="P23" s="25">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="R23" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A24" s="25">
+        <v>20</v>
+      </c>
+      <c r="B24" s="25">
+        <v>0</v>
+      </c>
+      <c r="C24" s="25">
+        <v>30</v>
+      </c>
+      <c r="D24" s="7">
+        <f t="shared" si="2"/>
+        <v>-30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>0</v>
+      </c>
+      <c r="N24" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O24" s="7">
+        <v>30</v>
+      </c>
+      <c r="P24" s="25">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="R24" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A25" s="25">
+        <v>21</v>
+      </c>
+      <c r="B25" s="25">
+        <v>0</v>
+      </c>
+      <c r="C25" s="25">
+        <v>30</v>
+      </c>
+      <c r="D25" s="7">
+        <f t="shared" si="2"/>
+        <v>-30</v>
+      </c>
+      <c r="M25" s="7">
+        <v>0</v>
+      </c>
+      <c r="N25" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O25" s="7">
+        <v>30</v>
+      </c>
+      <c r="P25" s="25">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="R25" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A26" s="25">
+        <v>22</v>
+      </c>
+      <c r="B26" s="25">
+        <v>0</v>
+      </c>
+      <c r="C26" s="25">
+        <v>30</v>
+      </c>
+      <c r="D26" s="7">
+        <f t="shared" si="2"/>
+        <v>-30</v>
+      </c>
+      <c r="M26" s="7">
+        <v>0</v>
+      </c>
+      <c r="N26" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O26" s="7">
+        <v>30</v>
+      </c>
+      <c r="P26" s="25">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="R26" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="25">
+        <v>23</v>
+      </c>
+      <c r="B27" s="25">
+        <v>0</v>
+      </c>
+      <c r="C27" s="25">
+        <v>30</v>
+      </c>
+      <c r="D27" s="7">
+        <f t="shared" si="2"/>
+        <v>-30</v>
+      </c>
+      <c r="M27" s="7">
+        <v>0</v>
+      </c>
+      <c r="N27" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O27" s="7">
+        <v>30</v>
+      </c>
+      <c r="P27" s="25">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="R27" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M28" s="20">
+        <f>SUM(M4:M27)</f>
+        <v>280</v>
+      </c>
+      <c r="N28" s="20">
+        <f t="shared" ref="N28:P28" si="3">SUM(N4:N27)</f>
+        <v>28</v>
+      </c>
+      <c r="O28" s="20">
+        <f t="shared" si="3"/>
+        <v>450</v>
+      </c>
+      <c r="P28" s="20">
+        <f t="shared" si="3"/>
+        <v>45</v>
+      </c>
+      <c r="Q28" s="17"/>
+      <c r="R28" s="17">
+        <f>SUM(R4:R27)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="E33" s="26" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="35" spans="1:19" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B35" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C35" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D35" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="M35" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="N35" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="O35" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="P35" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q35" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="R35" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="S35" s="22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A36" s="25">
+        <v>0</v>
+      </c>
+      <c r="B36" s="25">
+        <v>0</v>
+      </c>
+      <c r="C36" s="25">
+        <v>30</v>
+      </c>
+      <c r="D36" s="7">
+        <f>B36-C36</f>
+        <v>-30</v>
+      </c>
+      <c r="M36" s="7">
+        <v>0</v>
+      </c>
+      <c r="N36" s="25">
+        <f t="shared" ref="N36:N59" si="4">M36*$J$40</f>
+        <v>0</v>
+      </c>
+      <c r="O36" s="7">
+        <v>30</v>
+      </c>
+      <c r="P36" s="25">
+        <f t="shared" ref="P36:P59" si="5">O36*$J$40</f>
+        <v>3</v>
+      </c>
+      <c r="R36" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A37" s="25">
+        <v>1</v>
+      </c>
+      <c r="B37" s="25">
+        <v>0</v>
+      </c>
+      <c r="C37" s="25">
+        <v>30</v>
+      </c>
+      <c r="D37" s="7">
+        <f t="shared" ref="D37:D59" si="6">B37-C37</f>
+        <v>-30</v>
+      </c>
+      <c r="G37" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="M37" s="7">
+        <v>0</v>
+      </c>
+      <c r="N37" s="25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O37" s="7">
+        <v>30</v>
+      </c>
+      <c r="P37" s="25">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="R37" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A38" s="25">
+        <v>2</v>
+      </c>
+      <c r="B38" s="25">
+        <v>0</v>
+      </c>
+      <c r="C38" s="25">
+        <v>30</v>
+      </c>
+      <c r="D38" s="7">
+        <f t="shared" si="6"/>
+        <v>-30</v>
+      </c>
+      <c r="G38" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="J38" s="15">
+        <v>150</v>
+      </c>
+      <c r="K38" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="M38" s="7">
+        <v>0</v>
+      </c>
+      <c r="N38" s="25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O38" s="7">
+        <v>30</v>
+      </c>
+      <c r="P38" s="25">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="R38" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A39" s="25">
+        <v>3</v>
+      </c>
+      <c r="B39" s="25">
+        <v>0</v>
+      </c>
+      <c r="C39" s="25">
+        <v>30</v>
+      </c>
+      <c r="D39" s="7">
+        <f t="shared" si="6"/>
+        <v>-30</v>
+      </c>
+      <c r="M39" s="7">
+        <v>0</v>
+      </c>
+      <c r="N39" s="25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O39" s="7">
+        <v>30</v>
+      </c>
+      <c r="P39" s="25">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="R39" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A40" s="25">
+        <v>4</v>
+      </c>
+      <c r="B40" s="25">
+        <v>0</v>
+      </c>
+      <c r="C40" s="25">
+        <v>30</v>
+      </c>
+      <c r="D40" s="7">
+        <f t="shared" si="6"/>
+        <v>-30</v>
+      </c>
+      <c r="G40" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="J40" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="K40" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="M40" s="7">
+        <v>0</v>
+      </c>
+      <c r="N40" s="25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O40" s="7">
+        <v>30</v>
+      </c>
+      <c r="P40" s="25">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="R40" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A41" s="25">
+        <v>5</v>
+      </c>
+      <c r="B41" s="25">
+        <v>10</v>
+      </c>
+      <c r="C41" s="25">
+        <v>30</v>
+      </c>
+      <c r="D41" s="7">
+        <f t="shared" si="6"/>
+        <v>-20</v>
+      </c>
+      <c r="M41" s="7">
+        <v>0</v>
+      </c>
+      <c r="N41" s="25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O41" s="7">
+        <v>20</v>
+      </c>
+      <c r="P41" s="25">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="R41" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A42" s="25">
+        <v>6</v>
+      </c>
+      <c r="B42" s="25">
+        <v>40</v>
+      </c>
+      <c r="C42" s="25">
+        <v>30</v>
+      </c>
+      <c r="D42" s="7">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="M42" s="7">
+        <v>10</v>
+      </c>
+      <c r="N42" s="25">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="O42" s="7">
+        <v>0</v>
+      </c>
+      <c r="P42" s="25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R42" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A43" s="25">
+        <v>7</v>
+      </c>
+      <c r="B43" s="25">
+        <v>90</v>
+      </c>
+      <c r="C43" s="25">
+        <v>30</v>
+      </c>
+      <c r="D43" s="7">
+        <f t="shared" si="6"/>
+        <v>60</v>
+      </c>
+      <c r="M43" s="7">
+        <v>60</v>
+      </c>
+      <c r="N43" s="25">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="O43" s="7">
+        <v>0</v>
+      </c>
+      <c r="P43" s="25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R43" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A44" s="25">
+        <v>8</v>
+      </c>
+      <c r="B44" s="25">
+        <v>150</v>
+      </c>
+      <c r="C44" s="25">
+        <v>30</v>
+      </c>
+      <c r="D44" s="7">
+        <f t="shared" si="6"/>
+        <v>120</v>
+      </c>
+      <c r="M44" s="7">
+        <v>120</v>
+      </c>
+      <c r="N44" s="25">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="O44" s="7">
+        <v>0</v>
+      </c>
+      <c r="P44" s="25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R44" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A45" s="25">
+        <v>9</v>
+      </c>
+      <c r="B45" s="25">
+        <v>200</v>
+      </c>
+      <c r="C45" s="25">
+        <v>30</v>
+      </c>
+      <c r="D45" s="7">
+        <f t="shared" si="6"/>
+        <v>170</v>
+      </c>
+      <c r="M45" s="7">
+        <v>150</v>
+      </c>
+      <c r="N45" s="25">
+        <f t="shared" si="4"/>
+        <v>15</v>
+      </c>
+      <c r="O45" s="7">
+        <v>0</v>
+      </c>
+      <c r="P45" s="25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q45" s="7">
+        <v>20</v>
+      </c>
+      <c r="R45" s="7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A46" s="25">
+        <v>10</v>
+      </c>
+      <c r="B46" s="25">
+        <v>240</v>
+      </c>
+      <c r="C46" s="25">
+        <v>30</v>
+      </c>
+      <c r="D46" s="7">
+        <f t="shared" si="6"/>
+        <v>210</v>
+      </c>
+      <c r="G46" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="M46" s="7">
+        <v>150</v>
+      </c>
+      <c r="N46" s="25">
+        <f t="shared" si="4"/>
+        <v>15</v>
+      </c>
+      <c r="O46" s="7">
+        <v>0</v>
+      </c>
+      <c r="P46" s="25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q46" s="7">
+        <v>50</v>
+      </c>
+      <c r="R46" s="7">
+        <v>70</v>
+      </c>
+      <c r="S46" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A47" s="25">
+        <v>11</v>
+      </c>
+      <c r="B47" s="25">
+        <v>280</v>
+      </c>
+      <c r="C47" s="25">
+        <v>30</v>
+      </c>
+      <c r="D47" s="7">
+        <f t="shared" si="6"/>
+        <v>250</v>
+      </c>
+      <c r="G47" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="I47" s="15">
+        <v>50</v>
+      </c>
+      <c r="J47" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="M47" s="7">
+        <v>150</v>
+      </c>
+      <c r="N47" s="25">
+        <f t="shared" si="4"/>
+        <v>15</v>
+      </c>
+      <c r="O47" s="7">
+        <v>0</v>
+      </c>
+      <c r="P47" s="25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q47" s="7">
+        <v>30</v>
+      </c>
+      <c r="R47" s="7">
+        <v>100</v>
+      </c>
+      <c r="S47" s="7">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A48" s="25">
+        <v>12</v>
+      </c>
+      <c r="B48" s="25">
+        <v>240</v>
+      </c>
+      <c r="C48" s="25">
+        <v>30</v>
+      </c>
+      <c r="D48" s="7">
+        <f t="shared" si="6"/>
+        <v>210</v>
+      </c>
+      <c r="G48" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="I48" s="15">
+        <v>100</v>
+      </c>
+      <c r="J48" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="M48" s="7">
+        <v>150</v>
+      </c>
+      <c r="N48" s="25">
+        <f t="shared" si="4"/>
+        <v>15</v>
+      </c>
+      <c r="O48" s="7">
+        <v>0</v>
+      </c>
+      <c r="P48" s="25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R48" s="7">
+        <v>100</v>
+      </c>
+      <c r="S48" s="7">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A49" s="25">
+        <v>13</v>
+      </c>
+      <c r="B49" s="25">
+        <v>220</v>
+      </c>
+      <c r="C49" s="25">
+        <v>30</v>
+      </c>
+      <c r="D49" s="7">
+        <f t="shared" si="6"/>
+        <v>190</v>
+      </c>
+      <c r="G49" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="I49" s="15">
+        <v>0</v>
+      </c>
+      <c r="J49" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="M49" s="7">
+        <v>150</v>
+      </c>
+      <c r="N49" s="25">
+        <f t="shared" si="4"/>
+        <v>15</v>
+      </c>
+      <c r="O49" s="7">
+        <v>0</v>
+      </c>
+      <c r="P49" s="25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R49" s="7">
+        <v>100</v>
+      </c>
+      <c r="S49" s="7">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A50" s="25">
+        <v>14</v>
+      </c>
+      <c r="B50" s="25">
+        <v>200</v>
+      </c>
+      <c r="C50" s="25">
+        <v>30</v>
+      </c>
+      <c r="D50" s="7">
+        <f t="shared" si="6"/>
+        <v>170</v>
+      </c>
+      <c r="M50" s="7">
+        <v>150</v>
+      </c>
+      <c r="N50" s="25">
+        <f t="shared" si="4"/>
+        <v>15</v>
+      </c>
+      <c r="O50" s="7">
+        <v>0</v>
+      </c>
+      <c r="P50" s="25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R50" s="7">
+        <v>100</v>
+      </c>
+      <c r="S50" s="7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A51" s="25">
+        <v>15</v>
+      </c>
+      <c r="B51" s="25">
+        <v>150</v>
+      </c>
+      <c r="C51" s="25">
+        <v>30</v>
+      </c>
+      <c r="D51" s="7">
+        <f t="shared" si="6"/>
+        <v>120</v>
+      </c>
+      <c r="M51" s="7">
+        <v>150</v>
+      </c>
+      <c r="N51" s="25">
+        <f t="shared" si="4"/>
+        <v>15</v>
+      </c>
+      <c r="O51" s="7">
+        <v>0</v>
+      </c>
+      <c r="P51" s="25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q51" s="7">
+        <v>-30</v>
+      </c>
+      <c r="R51" s="7">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A52" s="25">
+        <v>16</v>
+      </c>
+      <c r="B52" s="25">
+        <v>80</v>
+      </c>
+      <c r="C52" s="25">
+        <v>30</v>
+      </c>
+      <c r="D52" s="7">
+        <f t="shared" si="6"/>
+        <v>50</v>
+      </c>
+      <c r="M52" s="7">
+        <v>100</v>
+      </c>
+      <c r="N52" s="25">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="O52" s="7">
+        <v>0</v>
+      </c>
+      <c r="P52" s="25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q52" s="7">
+        <v>-50</v>
+      </c>
+      <c r="R52" s="7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A53" s="25">
+        <v>17</v>
+      </c>
+      <c r="B53" s="25">
+        <v>30</v>
+      </c>
+      <c r="C53" s="25">
+        <v>30</v>
+      </c>
+      <c r="D53" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M53" s="7">
+        <v>20</v>
+      </c>
+      <c r="N53" s="25">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="O53" s="7">
+        <v>0</v>
+      </c>
+      <c r="P53" s="25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q53" s="7">
+        <v>-20</v>
+      </c>
+      <c r="R53" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A54" s="25">
+        <v>18</v>
+      </c>
+      <c r="B54" s="25">
+        <v>10</v>
+      </c>
+      <c r="C54" s="25">
+        <v>30</v>
+      </c>
+      <c r="D54" s="7">
+        <f t="shared" si="6"/>
+        <v>-20</v>
+      </c>
+      <c r="M54" s="7">
+        <v>0</v>
+      </c>
+      <c r="N54" s="25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O54" s="7">
+        <v>20</v>
+      </c>
+      <c r="P54" s="25">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="R54" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A55" s="25">
+        <v>19</v>
+      </c>
+      <c r="B55" s="25">
+        <v>5</v>
+      </c>
+      <c r="C55" s="25">
+        <v>30</v>
+      </c>
+      <c r="D55" s="7">
+        <f t="shared" si="6"/>
+        <v>-25</v>
+      </c>
+      <c r="M55" s="7">
+        <v>0</v>
+      </c>
+      <c r="N55" s="25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O55" s="7">
+        <v>25</v>
+      </c>
+      <c r="P55" s="25">
+        <f t="shared" si="5"/>
+        <v>2.5</v>
+      </c>
+      <c r="R55" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A56" s="25">
+        <v>20</v>
+      </c>
+      <c r="B56" s="25">
+        <v>0</v>
+      </c>
+      <c r="C56" s="25">
+        <v>30</v>
+      </c>
+      <c r="D56" s="7">
+        <f t="shared" si="6"/>
+        <v>-30</v>
+      </c>
+      <c r="M56" s="7">
+        <v>0</v>
+      </c>
+      <c r="N56" s="25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O56" s="7">
+        <v>30</v>
+      </c>
+      <c r="P56" s="25">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="R56" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A57" s="25">
+        <v>21</v>
+      </c>
+      <c r="B57" s="25">
+        <v>0</v>
+      </c>
+      <c r="C57" s="25">
+        <v>30</v>
+      </c>
+      <c r="D57" s="7">
+        <f t="shared" si="6"/>
+        <v>-30</v>
+      </c>
+      <c r="M57" s="7">
+        <v>0</v>
+      </c>
+      <c r="N57" s="25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O57" s="7">
+        <v>30</v>
+      </c>
+      <c r="P57" s="25">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="R57" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A58" s="25">
+        <v>22</v>
+      </c>
+      <c r="B58" s="25">
+        <v>0</v>
+      </c>
+      <c r="C58" s="25">
+        <v>30</v>
+      </c>
+      <c r="D58" s="7">
+        <f t="shared" si="6"/>
+        <v>-30</v>
+      </c>
+      <c r="M58" s="7">
+        <v>0</v>
+      </c>
+      <c r="N58" s="25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O58" s="7">
+        <v>30</v>
+      </c>
+      <c r="P58" s="25">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="R58" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="25">
+        <v>23</v>
+      </c>
+      <c r="B59" s="25">
+        <v>0</v>
+      </c>
+      <c r="C59" s="25">
+        <v>30</v>
+      </c>
+      <c r="D59" s="7">
+        <f t="shared" si="6"/>
+        <v>-30</v>
+      </c>
+      <c r="M59" s="7">
+        <v>0</v>
+      </c>
+      <c r="N59" s="25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O59" s="7">
+        <v>30</v>
+      </c>
+      <c r="P59" s="25">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="R59" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M60" s="20">
+        <f>SUM(M36:M59)</f>
+        <v>1360</v>
+      </c>
+      <c r="N60" s="20">
+        <f t="shared" ref="N60" si="7">SUM(N36:N59)</f>
+        <v>136</v>
+      </c>
+      <c r="O60" s="20">
+        <f t="shared" ref="O60" si="8">SUM(O36:O59)</f>
+        <v>335</v>
+      </c>
+      <c r="P60" s="20">
+        <f t="shared" ref="P60" si="9">SUM(P36:P59)</f>
+        <v>33.5</v>
+      </c>
+      <c r="Q60" s="21"/>
+      <c r="R60" s="17">
+        <v>0</v>
+      </c>
+      <c r="S60" s="23">
+        <f>SUM(S36:S59)</f>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Q61" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Q62" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="E68" s="26" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="70" spans="1:19" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B70" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C70" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D70" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="M70" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="N70" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="O70" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="P70" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q70" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="R70" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="S70" s="22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A71" s="25">
+        <v>0</v>
+      </c>
+      <c r="B71" s="25">
+        <v>0</v>
+      </c>
+      <c r="C71" s="25">
+        <v>30</v>
+      </c>
+      <c r="D71" s="7">
+        <f>B71-C71</f>
+        <v>-30</v>
+      </c>
+      <c r="M71" s="7">
+        <v>0</v>
+      </c>
+      <c r="N71" s="25">
+        <f t="shared" ref="N71:N94" si="10">M71*$J$40</f>
+        <v>0</v>
+      </c>
+      <c r="O71" s="7">
+        <v>30</v>
+      </c>
+      <c r="P71" s="25">
+        <f>O71*$J$75</f>
+        <v>3</v>
+      </c>
+      <c r="R71" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A72" s="25">
+        <v>1</v>
+      </c>
+      <c r="B72" s="25">
+        <v>0</v>
+      </c>
+      <c r="C72" s="25">
+        <v>30</v>
+      </c>
+      <c r="D72" s="7">
+        <f t="shared" ref="D72:D94" si="11">B72-C72</f>
+        <v>-30</v>
+      </c>
+      <c r="G72" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="M72" s="7">
+        <v>0</v>
+      </c>
+      <c r="N72" s="25">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="O72" s="7">
+        <v>30</v>
+      </c>
+      <c r="P72" s="25">
+        <f t="shared" ref="P72:P94" si="12">O72*$J$75</f>
+        <v>3</v>
+      </c>
+      <c r="R72" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A73" s="25">
+        <v>2</v>
+      </c>
+      <c r="B73" s="25">
+        <v>0</v>
+      </c>
+      <c r="C73" s="25">
+        <v>30</v>
+      </c>
+      <c r="D73" s="7">
+        <f t="shared" si="11"/>
+        <v>-30</v>
+      </c>
+      <c r="G73" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="J73" s="15">
+        <v>150</v>
+      </c>
+      <c r="K73" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="M73" s="7">
+        <v>0</v>
+      </c>
+      <c r="N73" s="25">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="O73" s="7">
+        <v>30</v>
+      </c>
+      <c r="P73" s="25">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="R73" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A74" s="25">
+        <v>3</v>
+      </c>
+      <c r="B74" s="25">
+        <v>0</v>
+      </c>
+      <c r="C74" s="25">
+        <v>30</v>
+      </c>
+      <c r="D74" s="7">
+        <f t="shared" si="11"/>
+        <v>-30</v>
+      </c>
+      <c r="M74" s="7">
+        <v>0</v>
+      </c>
+      <c r="N74" s="25">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="O74" s="7">
+        <v>30</v>
+      </c>
+      <c r="P74" s="25">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="R74" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A75" s="25">
+        <v>4</v>
+      </c>
+      <c r="B75" s="25">
+        <v>0</v>
+      </c>
+      <c r="C75" s="25">
+        <v>30</v>
+      </c>
+      <c r="D75" s="7">
+        <f t="shared" si="11"/>
+        <v>-30</v>
+      </c>
+      <c r="G75" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="J75" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="K75" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="M75" s="7">
+        <v>0</v>
+      </c>
+      <c r="N75" s="25">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="O75" s="7">
+        <v>30</v>
+      </c>
+      <c r="P75" s="25">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="R75" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A76" s="25">
+        <v>5</v>
+      </c>
+      <c r="B76" s="25">
+        <v>10</v>
+      </c>
+      <c r="C76" s="25">
+        <v>30</v>
+      </c>
+      <c r="D76" s="7">
+        <f t="shared" si="11"/>
+        <v>-20</v>
+      </c>
+      <c r="M76" s="7">
+        <v>0</v>
+      </c>
+      <c r="N76" s="25">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="O76" s="7">
+        <v>20</v>
+      </c>
+      <c r="P76" s="25">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="R76" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A77" s="25">
+        <v>6</v>
+      </c>
+      <c r="B77" s="25">
+        <v>40</v>
+      </c>
+      <c r="C77" s="25">
+        <v>30</v>
+      </c>
+      <c r="D77" s="7">
+        <f t="shared" si="11"/>
+        <v>10</v>
+      </c>
+      <c r="M77" s="7">
+        <v>10</v>
+      </c>
+      <c r="N77" s="25">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="O77" s="7">
+        <v>0</v>
+      </c>
+      <c r="P77" s="25">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="R77" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A78" s="25">
+        <v>7</v>
+      </c>
+      <c r="B78" s="25">
+        <v>90</v>
+      </c>
+      <c r="C78" s="25">
+        <v>30</v>
+      </c>
+      <c r="D78" s="7">
+        <f t="shared" si="11"/>
+        <v>60</v>
+      </c>
+      <c r="M78" s="7">
+        <v>60</v>
+      </c>
+      <c r="N78" s="25">
+        <f t="shared" si="10"/>
+        <v>6</v>
+      </c>
+      <c r="O78" s="7">
+        <v>0</v>
+      </c>
+      <c r="P78" s="25">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="R78" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A79" s="25">
+        <v>8</v>
+      </c>
+      <c r="B79" s="25">
+        <v>150</v>
+      </c>
+      <c r="C79" s="25">
+        <v>30</v>
+      </c>
+      <c r="D79" s="7">
+        <f t="shared" si="11"/>
+        <v>120</v>
+      </c>
+      <c r="M79" s="7">
+        <v>120</v>
+      </c>
+      <c r="N79" s="25">
+        <f t="shared" si="10"/>
+        <v>12</v>
+      </c>
+      <c r="O79" s="7">
+        <v>0</v>
+      </c>
+      <c r="P79" s="25">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="R79" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A80" s="25">
+        <v>9</v>
+      </c>
+      <c r="B80" s="25">
+        <v>200</v>
+      </c>
+      <c r="C80" s="25">
+        <v>30</v>
+      </c>
+      <c r="D80" s="7">
+        <f t="shared" si="11"/>
+        <v>170</v>
+      </c>
+      <c r="M80" s="7">
+        <v>150</v>
+      </c>
+      <c r="N80" s="25">
+        <f t="shared" si="10"/>
+        <v>15</v>
+      </c>
+      <c r="O80" s="7">
+        <v>0</v>
+      </c>
+      <c r="P80" s="25">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="Q80" s="7">
+        <v>20</v>
+      </c>
+      <c r="R80" s="7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A81" s="25">
+        <v>10</v>
+      </c>
+      <c r="B81" s="25">
+        <v>240</v>
+      </c>
+      <c r="C81" s="25">
+        <v>30</v>
+      </c>
+      <c r="D81" s="7">
+        <f t="shared" si="11"/>
+        <v>210</v>
+      </c>
+      <c r="G81" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="M81" s="7">
+        <v>150</v>
+      </c>
+      <c r="N81" s="25">
+        <f t="shared" si="10"/>
+        <v>15</v>
+      </c>
+      <c r="O81" s="7">
+        <v>0</v>
+      </c>
+      <c r="P81" s="25">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="Q81" s="7">
+        <v>60</v>
+      </c>
+      <c r="R81" s="7">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A82" s="25">
+        <v>11</v>
+      </c>
+      <c r="B82" s="25">
+        <v>280</v>
+      </c>
+      <c r="C82" s="25">
+        <v>30</v>
+      </c>
+      <c r="D82" s="7">
+        <f t="shared" si="11"/>
+        <v>250</v>
+      </c>
+      <c r="G82" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="I82" s="15">
+        <v>100</v>
+      </c>
+      <c r="J82" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="K82" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="M82" s="7">
+        <v>150</v>
+      </c>
+      <c r="N82" s="25">
+        <f t="shared" si="10"/>
+        <v>15</v>
+      </c>
+      <c r="O82" s="7">
+        <v>0</v>
+      </c>
+      <c r="P82" s="25">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="Q82" s="7">
+        <v>100</v>
+      </c>
+      <c r="R82" s="7">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A83" s="25">
+        <v>12</v>
+      </c>
+      <c r="B83" s="25">
+        <v>240</v>
+      </c>
+      <c r="C83" s="25">
+        <v>30</v>
+      </c>
+      <c r="D83" s="7">
+        <f t="shared" si="11"/>
+        <v>210</v>
+      </c>
+      <c r="G83" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="I83" s="15">
+        <v>200</v>
+      </c>
+      <c r="J83" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="K83" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="M83" s="7">
+        <v>150</v>
+      </c>
+      <c r="N83" s="25">
+        <f t="shared" si="10"/>
+        <v>15</v>
+      </c>
+      <c r="O83" s="7">
+        <v>0</v>
+      </c>
+      <c r="P83" s="25">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="Q83" s="7">
+        <v>20</v>
+      </c>
+      <c r="R83" s="7">
+        <v>200</v>
+      </c>
+      <c r="S83" s="7">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A84" s="25">
+        <v>13</v>
+      </c>
+      <c r="B84" s="25">
+        <v>220</v>
+      </c>
+      <c r="C84" s="25">
+        <v>30</v>
+      </c>
+      <c r="D84" s="7">
+        <f t="shared" si="11"/>
+        <v>190</v>
+      </c>
+      <c r="G84" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="I84" s="15">
+        <v>0</v>
+      </c>
+      <c r="J84" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="M84" s="7">
+        <v>150</v>
+      </c>
+      <c r="N84" s="25">
+        <f t="shared" si="10"/>
+        <v>15</v>
+      </c>
+      <c r="O84" s="7">
+        <v>0</v>
+      </c>
+      <c r="P84" s="25">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="R84" s="7">
+        <v>200</v>
+      </c>
+      <c r="S84" s="7">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A85" s="25">
+        <v>14</v>
+      </c>
+      <c r="B85" s="25">
+        <v>200</v>
+      </c>
+      <c r="C85" s="25">
+        <v>30</v>
+      </c>
+      <c r="D85" s="7">
+        <f t="shared" si="11"/>
+        <v>170</v>
+      </c>
+      <c r="M85" s="7">
+        <v>150</v>
+      </c>
+      <c r="N85" s="25">
+        <f t="shared" si="10"/>
+        <v>15</v>
+      </c>
+      <c r="O85" s="7">
+        <v>0</v>
+      </c>
+      <c r="P85" s="25">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="R85" s="7">
+        <v>200</v>
+      </c>
+      <c r="S85" s="7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A86" s="25">
+        <v>15</v>
+      </c>
+      <c r="B86" s="25">
+        <v>150</v>
+      </c>
+      <c r="C86" s="25">
+        <v>30</v>
+      </c>
+      <c r="D86" s="7">
+        <f t="shared" si="11"/>
+        <v>120</v>
+      </c>
+      <c r="M86" s="7">
+        <v>150</v>
+      </c>
+      <c r="N86" s="25">
+        <f t="shared" si="10"/>
+        <v>15</v>
+      </c>
+      <c r="O86" s="7">
+        <v>0</v>
+      </c>
+      <c r="P86" s="25">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="Q86" s="7">
+        <v>-30</v>
+      </c>
+      <c r="R86" s="7">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A87" s="25">
+        <v>16</v>
+      </c>
+      <c r="B87" s="25">
+        <v>80</v>
+      </c>
+      <c r="C87" s="25">
+        <v>30</v>
+      </c>
+      <c r="D87" s="7">
+        <f t="shared" si="11"/>
+        <v>50</v>
+      </c>
+      <c r="M87" s="7">
+        <v>150</v>
+      </c>
+      <c r="N87" s="25">
+        <f t="shared" si="10"/>
+        <v>15</v>
+      </c>
+      <c r="O87" s="7">
+        <v>0</v>
+      </c>
+      <c r="P87" s="25">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="Q87" s="7">
+        <v>-100</v>
+      </c>
+      <c r="R87" s="7">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A88" s="25">
+        <v>17</v>
+      </c>
+      <c r="B88" s="25">
+        <v>30</v>
+      </c>
+      <c r="C88" s="25">
+        <v>30</v>
+      </c>
+      <c r="D88" s="7">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="M88" s="7">
+        <v>70</v>
+      </c>
+      <c r="N88" s="25">
+        <f t="shared" si="10"/>
+        <v>7</v>
+      </c>
+      <c r="O88" s="7">
+        <v>0</v>
+      </c>
+      <c r="P88" s="25">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="Q88" s="7">
+        <v>-70</v>
+      </c>
+      <c r="R88" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A89" s="25">
+        <v>18</v>
+      </c>
+      <c r="B89" s="25">
+        <v>10</v>
+      </c>
+      <c r="C89" s="25">
+        <v>30</v>
+      </c>
+      <c r="D89" s="7">
+        <f t="shared" si="11"/>
+        <v>-20</v>
+      </c>
+      <c r="M89" s="7">
+        <v>0</v>
+      </c>
+      <c r="N89" s="25">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="O89" s="7">
+        <v>20</v>
+      </c>
+      <c r="P89" s="25">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="R89" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A90" s="25">
+        <v>19</v>
+      </c>
+      <c r="B90" s="25">
+        <v>5</v>
+      </c>
+      <c r="C90" s="25">
+        <v>30</v>
+      </c>
+      <c r="D90" s="7">
+        <f t="shared" si="11"/>
+        <v>-25</v>
+      </c>
+      <c r="M90" s="7">
+        <v>0</v>
+      </c>
+      <c r="N90" s="25">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="O90" s="7">
+        <v>25</v>
+      </c>
+      <c r="P90" s="25">
+        <f t="shared" si="12"/>
+        <v>2.5</v>
+      </c>
+      <c r="R90" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A91" s="25">
+        <v>20</v>
+      </c>
+      <c r="B91" s="25">
+        <v>0</v>
+      </c>
+      <c r="C91" s="25">
+        <v>30</v>
+      </c>
+      <c r="D91" s="7">
+        <f t="shared" si="11"/>
+        <v>-30</v>
+      </c>
+      <c r="M91" s="7">
+        <v>0</v>
+      </c>
+      <c r="N91" s="25">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="O91" s="7">
+        <v>30</v>
+      </c>
+      <c r="P91" s="25">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="R91" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A92" s="25">
+        <v>21</v>
+      </c>
+      <c r="B92" s="25">
+        <v>0</v>
+      </c>
+      <c r="C92" s="25">
+        <v>30</v>
+      </c>
+      <c r="D92" s="7">
+        <f t="shared" si="11"/>
+        <v>-30</v>
+      </c>
+      <c r="M92" s="7">
+        <v>0</v>
+      </c>
+      <c r="N92" s="25">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="O92" s="7">
+        <v>30</v>
+      </c>
+      <c r="P92" s="25">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="R92" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A93" s="25">
+        <v>22</v>
+      </c>
+      <c r="B93" s="25">
+        <v>0</v>
+      </c>
+      <c r="C93" s="25">
+        <v>30</v>
+      </c>
+      <c r="D93" s="7">
+        <f t="shared" si="11"/>
+        <v>-30</v>
+      </c>
+      <c r="M93" s="7">
+        <v>0</v>
+      </c>
+      <c r="N93" s="25">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="O93" s="7">
+        <v>30</v>
+      </c>
+      <c r="P93" s="25">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="R93" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="25">
+        <v>23</v>
+      </c>
+      <c r="B94" s="25">
+        <v>0</v>
+      </c>
+      <c r="C94" s="25">
+        <v>30</v>
+      </c>
+      <c r="D94" s="7">
+        <f t="shared" si="11"/>
+        <v>-30</v>
+      </c>
+      <c r="M94" s="7">
+        <v>0</v>
+      </c>
+      <c r="N94" s="25">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="O94" s="7">
+        <v>30</v>
+      </c>
+      <c r="P94" s="25">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="R94" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M95" s="20">
+        <f>SUM(M71:M94)</f>
+        <v>1460</v>
+      </c>
+      <c r="N95" s="20">
+        <f t="shared" ref="N95:P95" si="13">SUM(N71:N94)</f>
+        <v>146</v>
+      </c>
+      <c r="O95" s="20">
+        <f t="shared" si="13"/>
+        <v>335</v>
+      </c>
+      <c r="P95" s="20">
+        <f t="shared" si="13"/>
+        <v>33.5</v>
+      </c>
+      <c r="Q95" s="21"/>
+      <c r="R95" s="17">
+        <v>0</v>
+      </c>
+      <c r="S95" s="23">
+        <f>SUM(S71:S94)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Q96" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Q97" s="7">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="103" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="E103" s="26" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="104" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="105" spans="1:19" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B105" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C105" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D105" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E105" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="M105" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="N105" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="O105" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="P105" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q105" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="R105" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="S105" s="22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="106" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A106" s="25">
+        <v>0</v>
+      </c>
+      <c r="B106" s="25">
+        <v>0</v>
+      </c>
+      <c r="C106" s="25">
+        <v>30</v>
+      </c>
+      <c r="D106" s="7">
+        <f>B106-C106</f>
+        <v>-30</v>
+      </c>
+      <c r="E106" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="M106" s="7">
+        <v>0</v>
+      </c>
+      <c r="N106" s="25">
+        <f xml:space="preserve"> M106*E106</f>
+        <v>0</v>
+      </c>
+      <c r="O106" s="7">
+        <v>30</v>
+      </c>
+      <c r="P106" s="25">
+        <f>O106*$J$110</f>
+        <v>3</v>
+      </c>
+      <c r="R106" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A107" s="25">
+        <v>1</v>
+      </c>
+      <c r="B107" s="25">
+        <v>0</v>
+      </c>
+      <c r="C107" s="25">
+        <v>30</v>
+      </c>
+      <c r="D107" s="7">
+        <f t="shared" ref="D107:D129" si="14">B107-C107</f>
+        <v>-30</v>
+      </c>
+      <c r="E107" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="G107" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="M107" s="7">
+        <v>0</v>
+      </c>
+      <c r="N107" s="25">
+        <f t="shared" ref="N107:N129" si="15" xml:space="preserve"> M107*E107</f>
+        <v>0</v>
+      </c>
+      <c r="O107" s="7">
+        <v>30</v>
+      </c>
+      <c r="P107" s="25">
+        <f t="shared" ref="P107:P129" si="16">O107*$J$110</f>
+        <v>3</v>
+      </c>
+      <c r="R107" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A108" s="25">
+        <v>2</v>
+      </c>
+      <c r="B108" s="25">
+        <v>0</v>
+      </c>
+      <c r="C108" s="25">
+        <v>30</v>
+      </c>
+      <c r="D108" s="7">
+        <f t="shared" si="14"/>
+        <v>-30</v>
+      </c>
+      <c r="E108" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="G108" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="J108" s="15">
+        <v>150</v>
+      </c>
+      <c r="K108" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="M108" s="7">
+        <v>0</v>
+      </c>
+      <c r="N108" s="25">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="O108" s="7">
+        <v>30</v>
+      </c>
+      <c r="P108" s="25">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="R108" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A109" s="25">
+        <v>3</v>
+      </c>
+      <c r="B109" s="25">
+        <v>0</v>
+      </c>
+      <c r="C109" s="25">
+        <v>30</v>
+      </c>
+      <c r="D109" s="7">
+        <f t="shared" si="14"/>
+        <v>-30</v>
+      </c>
+      <c r="E109" s="7">
+        <v>0.11</v>
+      </c>
+      <c r="M109" s="7">
+        <v>0</v>
+      </c>
+      <c r="N109" s="25">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="O109" s="7">
+        <v>30</v>
+      </c>
+      <c r="P109" s="25">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="R109" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A110" s="25">
+        <v>4</v>
+      </c>
+      <c r="B110" s="25">
+        <v>0</v>
+      </c>
+      <c r="C110" s="25">
+        <v>30</v>
+      </c>
+      <c r="D110" s="7">
+        <f t="shared" si="14"/>
+        <v>-30</v>
+      </c>
+      <c r="E110" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="G110" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="J110" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="K110" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="M110" s="7">
+        <v>0</v>
+      </c>
+      <c r="N110" s="25">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="O110" s="7">
+        <v>30</v>
+      </c>
+      <c r="P110" s="25">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="R110" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A111" s="25">
+        <v>5</v>
+      </c>
+      <c r="B111" s="25">
+        <v>10</v>
+      </c>
+      <c r="C111" s="25">
+        <v>30</v>
+      </c>
+      <c r="D111" s="7">
+        <f t="shared" si="14"/>
+        <v>-20</v>
+      </c>
+      <c r="E111" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="M111" s="7">
+        <v>0</v>
+      </c>
+      <c r="N111" s="25">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="O111" s="7">
+        <v>20</v>
+      </c>
+      <c r="P111" s="25">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="R111" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A112" s="25">
+        <v>6</v>
+      </c>
+      <c r="B112" s="25">
+        <v>40</v>
+      </c>
+      <c r="C112" s="25">
+        <v>30</v>
+      </c>
+      <c r="D112" s="7">
+        <f t="shared" si="14"/>
+        <v>10</v>
+      </c>
+      <c r="E112" s="7">
+        <v>0.09</v>
+      </c>
+      <c r="M112" s="7">
+        <v>10</v>
+      </c>
+      <c r="N112" s="25">
+        <f t="shared" si="15"/>
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="O112" s="7">
+        <v>0</v>
+      </c>
+      <c r="P112" s="25">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="R112" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A113" s="25">
+        <v>7</v>
+      </c>
+      <c r="B113" s="25">
+        <v>90</v>
+      </c>
+      <c r="C113" s="25">
+        <v>30</v>
+      </c>
+      <c r="D113" s="7">
+        <f t="shared" si="14"/>
+        <v>60</v>
+      </c>
+      <c r="E113" s="7">
+        <v>0.08</v>
+      </c>
+      <c r="M113" s="7">
+        <v>60</v>
+      </c>
+      <c r="N113" s="25">
+        <f t="shared" si="15"/>
+        <v>4.8</v>
+      </c>
+      <c r="O113" s="7">
+        <v>0</v>
+      </c>
+      <c r="P113" s="25">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="R113" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A114" s="25">
+        <v>8</v>
+      </c>
+      <c r="B114" s="25">
+        <v>150</v>
+      </c>
+      <c r="C114" s="25">
+        <v>30</v>
+      </c>
+      <c r="D114" s="7">
+        <f t="shared" si="14"/>
+        <v>120</v>
+      </c>
+      <c r="E114" s="7">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M114" s="7">
+        <v>120</v>
+      </c>
+      <c r="N114" s="25">
+        <f t="shared" si="15"/>
+        <v>8.4</v>
+      </c>
+      <c r="O114" s="7">
+        <v>0</v>
+      </c>
+      <c r="P114" s="25">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="R114" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A115" s="25">
+        <v>9</v>
+      </c>
+      <c r="B115" s="25">
+        <v>200</v>
+      </c>
+      <c r="C115" s="25">
+        <v>30</v>
+      </c>
+      <c r="D115" s="7">
+        <f t="shared" si="14"/>
+        <v>170</v>
+      </c>
+      <c r="E115" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="M115" s="7">
+        <v>150</v>
+      </c>
+      <c r="N115" s="25">
+        <f t="shared" si="15"/>
+        <v>7.5</v>
+      </c>
+      <c r="O115" s="7">
+        <v>0</v>
+      </c>
+      <c r="P115" s="25">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="Q115" s="7">
+        <v>20</v>
+      </c>
+      <c r="R115" s="7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="116" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A116" s="25">
+        <v>10</v>
+      </c>
+      <c r="B116" s="25">
+        <v>240</v>
+      </c>
+      <c r="C116" s="25">
+        <v>30</v>
+      </c>
+      <c r="D116" s="7">
+        <f t="shared" si="14"/>
+        <v>210</v>
+      </c>
+      <c r="E116" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="G116" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="M116" s="7">
+        <v>110</v>
+      </c>
+      <c r="N116" s="25">
+        <f t="shared" si="15"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="O116" s="7">
+        <v>0</v>
+      </c>
+      <c r="P116" s="25">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="Q116" s="7">
+        <v>100</v>
+      </c>
+      <c r="R116" s="7">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="117" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A117" s="25">
+        <v>11</v>
+      </c>
+      <c r="B117" s="25">
+        <v>280</v>
+      </c>
+      <c r="C117" s="25">
+        <v>30</v>
+      </c>
+      <c r="D117" s="7">
+        <f t="shared" si="14"/>
+        <v>250</v>
+      </c>
+      <c r="E117" s="7">
+        <v>0</v>
+      </c>
+      <c r="G117" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="I117" s="15">
+        <v>100</v>
+      </c>
+      <c r="J117" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="K117" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="M117" s="7">
+        <v>150</v>
+      </c>
+      <c r="N117" s="25">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="O117" s="7">
+        <v>0</v>
+      </c>
+      <c r="P117" s="25">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="Q117" s="7">
+        <v>80</v>
+      </c>
+      <c r="R117" s="7">
+        <v>200</v>
+      </c>
+      <c r="S117" s="7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="118" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A118" s="25">
+        <v>12</v>
+      </c>
+      <c r="B118" s="25">
+        <v>240</v>
+      </c>
+      <c r="C118" s="25">
+        <v>30</v>
+      </c>
+      <c r="D118" s="7">
+        <f t="shared" si="14"/>
+        <v>210</v>
+      </c>
+      <c r="E118" s="7">
+        <v>0</v>
+      </c>
+      <c r="G118" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="I118" s="15">
+        <v>200</v>
+      </c>
+      <c r="J118" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="K118" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="M118" s="7">
+        <v>150</v>
+      </c>
+      <c r="N118" s="25">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="O118" s="7">
+        <v>0</v>
+      </c>
+      <c r="P118" s="25">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="R118" s="7">
+        <v>200</v>
+      </c>
+      <c r="S118" s="7">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="119" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A119" s="25">
+        <v>13</v>
+      </c>
+      <c r="B119" s="25">
+        <v>220</v>
+      </c>
+      <c r="C119" s="25">
+        <v>30</v>
+      </c>
+      <c r="D119" s="7">
+        <f t="shared" si="14"/>
+        <v>190</v>
+      </c>
+      <c r="E119" s="7">
+        <v>0</v>
+      </c>
+      <c r="G119" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="I119" s="15">
+        <v>0</v>
+      </c>
+      <c r="J119" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="M119" s="7">
+        <v>150</v>
+      </c>
+      <c r="N119" s="25">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="O119" s="7">
+        <v>0</v>
+      </c>
+      <c r="P119" s="25">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="R119" s="7">
+        <v>200</v>
+      </c>
+      <c r="S119" s="7">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="120" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A120" s="25">
+        <v>14</v>
+      </c>
+      <c r="B120" s="25">
+        <v>200</v>
+      </c>
+      <c r="C120" s="25">
+        <v>30</v>
+      </c>
+      <c r="D120" s="7">
+        <f t="shared" si="14"/>
+        <v>170</v>
+      </c>
+      <c r="E120" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="M120" s="7">
+        <v>150</v>
+      </c>
+      <c r="N120" s="25">
+        <f t="shared" si="15"/>
+        <v>1.5</v>
+      </c>
+      <c r="O120" s="7">
+        <v>0</v>
+      </c>
+      <c r="P120" s="25">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="R120" s="7">
+        <v>200</v>
+      </c>
+      <c r="S120" s="7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="121" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A121" s="25">
+        <v>15</v>
+      </c>
+      <c r="B121" s="25">
+        <v>150</v>
+      </c>
+      <c r="C121" s="25">
+        <v>30</v>
+      </c>
+      <c r="D121" s="7">
+        <f t="shared" si="14"/>
+        <v>120</v>
+      </c>
+      <c r="E121" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="M121" s="7">
+        <v>120</v>
+      </c>
+      <c r="N121" s="25">
+        <f t="shared" si="15"/>
+        <v>2.4</v>
+      </c>
+      <c r="O121" s="7">
+        <v>0</v>
+      </c>
+      <c r="P121" s="25">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="R121" s="7">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="122" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A122" s="25">
+        <v>16</v>
+      </c>
+      <c r="B122" s="25">
+        <v>80</v>
+      </c>
+      <c r="C122" s="25">
+        <v>30</v>
+      </c>
+      <c r="D122" s="7">
+        <f t="shared" si="14"/>
+        <v>50</v>
+      </c>
+      <c r="E122" s="7">
+        <v>0.08</v>
+      </c>
+      <c r="G122" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="I122" s="15">
+        <v>0.05</v>
+      </c>
+      <c r="J122" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="M122" s="7">
+        <v>50</v>
+      </c>
+      <c r="N122" s="25">
+        <f t="shared" si="15"/>
+        <v>4</v>
+      </c>
+      <c r="O122" s="7">
+        <v>0</v>
+      </c>
+      <c r="P122" s="25">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="R122" s="7">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="123" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A123" s="25">
+        <v>17</v>
+      </c>
+      <c r="B123" s="25">
+        <v>30</v>
+      </c>
+      <c r="C123" s="25">
+        <v>30</v>
+      </c>
+      <c r="D123" s="7">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="E123" s="7">
+        <v>0.11</v>
+      </c>
+      <c r="G123" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="I123" s="15">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="J123" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="M123" s="7">
+        <v>100</v>
+      </c>
+      <c r="N123" s="25">
+        <f t="shared" si="15"/>
+        <v>11</v>
+      </c>
+      <c r="O123" s="7">
+        <v>0</v>
+      </c>
+      <c r="P123" s="25">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="Q123" s="7">
+        <v>-100</v>
+      </c>
+      <c r="R123" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="124" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A124" s="25">
+        <v>18</v>
+      </c>
+      <c r="B124" s="25">
+        <v>10</v>
+      </c>
+      <c r="C124" s="25">
+        <v>30</v>
+      </c>
+      <c r="D124" s="7">
+        <f t="shared" si="14"/>
+        <v>-20</v>
+      </c>
+      <c r="E124" s="7">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="M124" s="7">
+        <v>80</v>
+      </c>
+      <c r="N124" s="25">
+        <f t="shared" si="15"/>
+        <v>11.200000000000001</v>
+      </c>
+      <c r="O124" s="7">
+        <v>0</v>
+      </c>
+      <c r="P124" s="25">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="Q124" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="R124" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A125" s="25">
+        <v>19</v>
+      </c>
+      <c r="B125" s="25">
+        <v>5</v>
+      </c>
+      <c r="C125" s="25">
+        <v>30</v>
+      </c>
+      <c r="D125" s="7">
+        <f t="shared" si="14"/>
+        <v>-25</v>
+      </c>
+      <c r="E125" s="7">
+        <v>0.15</v>
+      </c>
+      <c r="M125" s="7">
+        <v>0</v>
+      </c>
+      <c r="N125" s="25">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="O125" s="7">
+        <v>25</v>
+      </c>
+      <c r="P125" s="25">
+        <f t="shared" si="16"/>
+        <v>2.5</v>
+      </c>
+      <c r="R125" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A126" s="25">
+        <v>20</v>
+      </c>
+      <c r="B126" s="25">
+        <v>0</v>
+      </c>
+      <c r="C126" s="25">
+        <v>30</v>
+      </c>
+      <c r="D126" s="7">
+        <f t="shared" si="14"/>
+        <v>-30</v>
+      </c>
+      <c r="E126" s="7">
+        <v>0.17</v>
+      </c>
+      <c r="M126" s="7">
+        <v>0</v>
+      </c>
+      <c r="N126" s="25">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="O126" s="7">
+        <v>30</v>
+      </c>
+      <c r="P126" s="25">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="R126" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A127" s="25">
+        <v>21</v>
+      </c>
+      <c r="B127" s="25">
+        <v>0</v>
+      </c>
+      <c r="C127" s="25">
+        <v>30</v>
+      </c>
+      <c r="D127" s="7">
+        <f t="shared" si="14"/>
+        <v>-30</v>
+      </c>
+      <c r="E127" s="7">
+        <v>0.16</v>
+      </c>
+      <c r="M127" s="7">
+        <v>0</v>
+      </c>
+      <c r="N127" s="25">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="O127" s="7">
+        <v>30</v>
+      </c>
+      <c r="P127" s="25">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="R127" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A128" s="25">
+        <v>22</v>
+      </c>
+      <c r="B128" s="25">
+        <v>0</v>
+      </c>
+      <c r="C128" s="25">
+        <v>30</v>
+      </c>
+      <c r="D128" s="7">
+        <f t="shared" si="14"/>
+        <v>-30</v>
+      </c>
+      <c r="E128" s="7">
+        <v>0.15</v>
+      </c>
+      <c r="M128" s="7">
+        <v>0</v>
+      </c>
+      <c r="N128" s="25">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="O128" s="7">
+        <v>30</v>
+      </c>
+      <c r="P128" s="25">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="R128" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A129" s="25">
+        <v>23</v>
+      </c>
+      <c r="B129" s="25">
+        <v>0</v>
+      </c>
+      <c r="C129" s="25">
+        <v>30</v>
+      </c>
+      <c r="D129" s="7">
+        <f t="shared" si="14"/>
+        <v>-30</v>
+      </c>
+      <c r="E129" s="7">
+        <v>0.13</v>
+      </c>
+      <c r="M129" s="7">
+        <v>0</v>
+      </c>
+      <c r="N129" s="25">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="O129" s="7">
+        <v>30</v>
+      </c>
+      <c r="P129" s="25">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="R129" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M130" s="20">
+        <f>SUM(M106:M129)</f>
+        <v>1400</v>
+      </c>
+      <c r="N130" s="20">
+        <f t="shared" ref="N130:P130" si="17">SUM(N106:N129)</f>
+        <v>52.800000000000004</v>
+      </c>
+      <c r="O130" s="20">
+        <f t="shared" si="17"/>
+        <v>315</v>
+      </c>
+      <c r="P130" s="20">
+        <f t="shared" si="17"/>
+        <v>31.5</v>
+      </c>
+      <c r="Q130" s="21"/>
+      <c r="R130" s="17">
+        <v>0</v>
+      </c>
+      <c r="S130" s="23">
+        <f>SUM(S106:S129)</f>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="131" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Q131" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="132" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Q132" s="7">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="138" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="E138" s="26" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="139" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="140" spans="1:19" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A140" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B140" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C140" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D140" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E140" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="M140" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="N140" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="O140" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="P140" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q140" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="R140" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="S140" s="22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="141" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A141" s="25">
+        <v>0</v>
+      </c>
+      <c r="B141" s="25">
+        <v>0</v>
+      </c>
+      <c r="C141" s="25">
+        <v>30</v>
+      </c>
+      <c r="D141" s="7">
+        <f>B141-C141</f>
+        <v>-30</v>
+      </c>
+      <c r="E141" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="M141" s="7">
+        <v>150</v>
+      </c>
+      <c r="N141" s="25">
+        <f xml:space="preserve"> M141*E141</f>
+        <v>18</v>
+      </c>
+      <c r="O141" s="7">
+        <v>0</v>
+      </c>
+      <c r="P141" s="25">
+        <f>O141*$J$145</f>
+        <v>0</v>
+      </c>
+      <c r="Q141" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="R141" s="7">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="142" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A142" s="25">
+        <v>1</v>
+      </c>
+      <c r="B142" s="25">
+        <v>0</v>
+      </c>
+      <c r="C142" s="25">
+        <v>30</v>
+      </c>
+      <c r="D142" s="7">
+        <f t="shared" ref="D142:D164" si="18">B142-C142</f>
+        <v>-30</v>
+      </c>
+      <c r="E142" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="G142" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="M142" s="7">
+        <v>90</v>
+      </c>
+      <c r="N142" s="25">
+        <f t="shared" ref="N142:N164" si="19" xml:space="preserve"> M142*E142</f>
+        <v>9</v>
+      </c>
+      <c r="O142" s="7">
+        <v>0</v>
+      </c>
+      <c r="P142" s="25">
+        <f t="shared" ref="P142:P164" si="20">O142*$J$145</f>
+        <v>0</v>
+      </c>
+      <c r="Q142" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="R142" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A143" s="25">
+        <v>2</v>
+      </c>
+      <c r="B143" s="25">
+        <v>0</v>
+      </c>
+      <c r="C143" s="25">
+        <v>30</v>
+      </c>
+      <c r="D143" s="7">
+        <f t="shared" si="18"/>
+        <v>-30</v>
+      </c>
+      <c r="E143" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="G143" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="J143" s="15">
+        <v>150</v>
+      </c>
+      <c r="K143" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="M143" s="7">
+        <v>0</v>
+      </c>
+      <c r="N143" s="25">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="O143" s="7">
+        <v>30</v>
+      </c>
+      <c r="P143" s="25">
+        <f t="shared" si="20"/>
+        <v>3</v>
+      </c>
+      <c r="R143" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A144" s="25">
+        <v>3</v>
+      </c>
+      <c r="B144" s="25">
+        <v>0</v>
+      </c>
+      <c r="C144" s="25">
+        <v>30</v>
+      </c>
+      <c r="D144" s="7">
+        <f t="shared" si="18"/>
+        <v>-30</v>
+      </c>
+      <c r="E144" s="7">
+        <v>0.11</v>
+      </c>
+      <c r="M144" s="7">
+        <v>0</v>
+      </c>
+      <c r="N144" s="25">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="O144" s="7">
+        <v>30</v>
+      </c>
+      <c r="P144" s="25">
+        <f t="shared" si="20"/>
+        <v>3</v>
+      </c>
+      <c r="R144" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A145" s="25">
+        <v>4</v>
+      </c>
+      <c r="B145" s="25">
+        <v>5</v>
+      </c>
+      <c r="C145" s="25">
+        <v>30</v>
+      </c>
+      <c r="D145" s="7">
+        <f t="shared" si="18"/>
+        <v>-25</v>
+      </c>
+      <c r="E145" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="G145" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="J145" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="K145" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="M145" s="7">
+        <v>0</v>
+      </c>
+      <c r="N145" s="25">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="O145" s="7">
+        <v>25</v>
+      </c>
+      <c r="P145" s="25">
+        <f t="shared" si="20"/>
+        <v>2.5</v>
+      </c>
+      <c r="R145" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A146" s="25">
+        <v>5</v>
+      </c>
+      <c r="B146" s="25">
+        <v>40</v>
+      </c>
+      <c r="C146" s="25">
+        <v>30</v>
+      </c>
+      <c r="D146" s="7">
+        <f t="shared" si="18"/>
+        <v>10</v>
+      </c>
+      <c r="E146" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="M146" s="7">
+        <v>10</v>
+      </c>
+      <c r="N146" s="25">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="O146" s="7">
+        <v>0</v>
+      </c>
+      <c r="P146" s="25">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="R146" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A147" s="25">
+        <v>6</v>
+      </c>
+      <c r="B147" s="25">
+        <v>120</v>
+      </c>
+      <c r="C147" s="25">
+        <v>30</v>
+      </c>
+      <c r="D147" s="7">
+        <f t="shared" si="18"/>
+        <v>90</v>
+      </c>
+      <c r="E147" s="7">
+        <v>0.09</v>
+      </c>
+      <c r="M147" s="7">
+        <v>90</v>
+      </c>
+      <c r="N147" s="25">
+        <f t="shared" si="19"/>
+        <v>8.1</v>
+      </c>
+      <c r="O147" s="7">
+        <v>0</v>
+      </c>
+      <c r="P147" s="25">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="R147" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A148" s="25">
+        <v>7</v>
+      </c>
+      <c r="B148" s="25">
+        <v>220</v>
+      </c>
+      <c r="C148" s="25">
+        <v>30</v>
+      </c>
+      <c r="D148" s="7">
+        <f t="shared" si="18"/>
+        <v>190</v>
+      </c>
+      <c r="E148" s="7">
+        <v>0.08</v>
+      </c>
+      <c r="M148" s="7">
+        <v>150</v>
+      </c>
+      <c r="N148" s="25">
+        <f t="shared" si="19"/>
+        <v>12</v>
+      </c>
+      <c r="O148" s="7">
+        <v>0</v>
+      </c>
+      <c r="P148" s="25">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="Q148" s="7">
+        <v>40</v>
+      </c>
+      <c r="R148" s="7">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="149" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A149" s="25">
+        <v>8</v>
+      </c>
+      <c r="B149" s="25">
+        <v>400</v>
+      </c>
+      <c r="C149" s="25">
+        <v>30</v>
+      </c>
+      <c r="D149" s="7">
+        <f t="shared" si="18"/>
+        <v>370</v>
+      </c>
+      <c r="E149" s="7">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M149" s="7">
+        <v>150</v>
+      </c>
+      <c r="N149" s="25">
+        <f t="shared" si="19"/>
+        <v>10.500000000000002</v>
+      </c>
+      <c r="O149" s="7">
+        <v>0</v>
+      </c>
+      <c r="P149" s="25">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="Q149" s="7">
+        <v>220</v>
+      </c>
+      <c r="R149" s="7">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="150" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A150" s="25">
+        <v>9</v>
+      </c>
+      <c r="B150" s="25">
+        <v>480</v>
+      </c>
+      <c r="C150" s="25">
+        <v>30</v>
+      </c>
+      <c r="D150" s="7">
+        <f t="shared" si="18"/>
+        <v>450</v>
+      </c>
+      <c r="E150" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="M150" s="7">
+        <v>150</v>
+      </c>
+      <c r="N150" s="25">
+        <f t="shared" si="19"/>
+        <v>7.5</v>
+      </c>
+      <c r="O150" s="7">
+        <v>0</v>
+      </c>
+      <c r="P150" s="25">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="Q150" s="7">
+        <v>240</v>
+      </c>
+      <c r="R150" s="7">
+        <v>500</v>
+      </c>
+      <c r="S150" s="7">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="151" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A151" s="25">
+        <v>10</v>
+      </c>
+      <c r="B151" s="25">
+        <v>500</v>
+      </c>
+      <c r="C151" s="25">
+        <v>30</v>
+      </c>
+      <c r="D151" s="7">
+        <f t="shared" si="18"/>
+        <v>470</v>
+      </c>
+      <c r="E151" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="G151" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="M151" s="7">
+        <v>150</v>
+      </c>
+      <c r="N151" s="25">
+        <f t="shared" si="19"/>
+        <v>1.5</v>
+      </c>
+      <c r="O151" s="7">
+        <v>0</v>
+      </c>
+      <c r="P151" s="25">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="R151" s="7">
+        <v>500</v>
+      </c>
+      <c r="S151" s="7">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="152" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A152" s="25">
+        <v>11</v>
+      </c>
+      <c r="B152" s="25">
+        <v>500</v>
+      </c>
+      <c r="C152" s="25">
+        <v>30</v>
+      </c>
+      <c r="D152" s="7">
+        <f t="shared" si="18"/>
+        <v>470</v>
+      </c>
+      <c r="E152" s="7">
+        <v>0</v>
+      </c>
+      <c r="G152" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="I152" s="15">
+        <v>250</v>
+      </c>
+      <c r="J152" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="K152" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="M152" s="7">
+        <v>150</v>
+      </c>
+      <c r="N152" s="25">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="O152" s="7">
+        <v>0</v>
+      </c>
+      <c r="P152" s="25">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="R152" s="7">
+        <v>500</v>
+      </c>
+      <c r="S152" s="7">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="153" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A153" s="25">
+        <v>12</v>
+      </c>
+      <c r="B153" s="25">
+        <v>160</v>
+      </c>
+      <c r="C153" s="25">
+        <v>30</v>
+      </c>
+      <c r="D153" s="7">
+        <f t="shared" si="18"/>
+        <v>130</v>
+      </c>
+      <c r="E153" s="7">
+        <v>0</v>
+      </c>
+      <c r="G153" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="I153" s="15">
+        <v>500</v>
+      </c>
+      <c r="J153" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="K153" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="M153" s="7">
+        <v>130</v>
+      </c>
+      <c r="N153" s="25">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="O153" s="7">
+        <v>0</v>
+      </c>
+      <c r="P153" s="25">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="R153" s="7">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="154" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A154" s="25">
+        <v>13</v>
+      </c>
+      <c r="B154" s="25">
+        <v>500</v>
+      </c>
+      <c r="C154" s="25">
+        <v>30</v>
+      </c>
+      <c r="D154" s="7">
+        <f t="shared" si="18"/>
+        <v>470</v>
+      </c>
+      <c r="E154" s="7">
+        <v>0</v>
+      </c>
+      <c r="G154" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="I154" s="15">
+        <v>300</v>
+      </c>
+      <c r="J154" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="M154" s="7">
+        <v>150</v>
+      </c>
+      <c r="N154" s="25">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="O154" s="7">
+        <v>0</v>
+      </c>
+      <c r="P154" s="25">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="R154" s="7">
+        <v>500</v>
+      </c>
+      <c r="S154" s="7">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="155" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A155" s="25">
+        <v>14</v>
+      </c>
+      <c r="B155" s="25">
+        <v>480</v>
+      </c>
+      <c r="C155" s="25">
+        <v>30</v>
+      </c>
+      <c r="D155" s="7">
+        <f t="shared" si="18"/>
+        <v>450</v>
+      </c>
+      <c r="E155" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="M155" s="7">
+        <v>150</v>
+      </c>
+      <c r="N155" s="25">
+        <f t="shared" si="19"/>
+        <v>1.5</v>
+      </c>
+      <c r="O155" s="7">
+        <v>0</v>
+      </c>
+      <c r="P155" s="25">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="R155" s="7">
+        <v>500</v>
+      </c>
+      <c r="S155" s="7">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="156" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A156" s="25">
+        <v>15</v>
+      </c>
+      <c r="B156" s="25">
+        <v>400</v>
+      </c>
+      <c r="C156" s="25">
+        <v>30</v>
+      </c>
+      <c r="D156" s="7">
+        <f t="shared" si="18"/>
+        <v>370</v>
+      </c>
+      <c r="E156" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="M156" s="7">
+        <v>150</v>
+      </c>
+      <c r="N156" s="25">
+        <f t="shared" si="19"/>
+        <v>3</v>
+      </c>
+      <c r="O156" s="7">
+        <v>0</v>
+      </c>
+      <c r="P156" s="25">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="R156" s="7">
+        <v>500</v>
+      </c>
+      <c r="S156" s="7">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="157" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A157" s="25">
+        <v>16</v>
+      </c>
+      <c r="B157" s="25">
+        <v>300</v>
+      </c>
+      <c r="C157" s="25">
+        <v>30</v>
+      </c>
+      <c r="D157" s="7">
+        <f t="shared" si="18"/>
+        <v>270</v>
+      </c>
+      <c r="E157" s="7">
+        <v>0.08</v>
+      </c>
+      <c r="G157" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="I157" s="15">
+        <v>0.05</v>
+      </c>
+      <c r="J157" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="M157" s="7">
+        <v>150</v>
+      </c>
+      <c r="N157" s="25">
+        <f t="shared" si="19"/>
+        <v>12</v>
+      </c>
+      <c r="O157" s="7">
+        <v>0</v>
+      </c>
+      <c r="P157" s="25">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="R157" s="7">
+        <v>500</v>
+      </c>
+      <c r="S157" s="7">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="158" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A158" s="25">
+        <v>17</v>
+      </c>
+      <c r="B158" s="25">
+        <v>180</v>
+      </c>
+      <c r="C158" s="25">
+        <v>30</v>
+      </c>
+      <c r="D158" s="7">
+        <f t="shared" si="18"/>
+        <v>150</v>
+      </c>
+      <c r="E158" s="7">
+        <v>0.11</v>
+      </c>
+      <c r="G158" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="I158" s="15">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="J158" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="M158" s="7">
+        <v>150</v>
+      </c>
+      <c r="N158" s="25">
+        <f t="shared" si="19"/>
+        <v>16.5</v>
+      </c>
+      <c r="O158" s="7">
+        <v>0</v>
+      </c>
+      <c r="P158" s="25">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="R158" s="7">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="159" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A159" s="25">
+        <v>18</v>
+      </c>
+      <c r="B159" s="25">
+        <v>80</v>
+      </c>
+      <c r="C159" s="25">
+        <v>30</v>
+      </c>
+      <c r="D159" s="7">
+        <f t="shared" si="18"/>
+        <v>50</v>
+      </c>
+      <c r="E159" s="7">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="M159" s="7">
+        <v>150</v>
+      </c>
+      <c r="N159" s="25">
+        <f t="shared" si="19"/>
+        <v>21.000000000000004</v>
+      </c>
+      <c r="O159" s="7">
+        <v>0</v>
+      </c>
+      <c r="P159" s="25">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="Q159" s="7">
+        <v>-100</v>
+      </c>
+      <c r="R159" s="7">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="160" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A160" s="25">
+        <v>19</v>
+      </c>
+      <c r="B160" s="25">
+        <v>20</v>
+      </c>
+      <c r="C160" s="25">
+        <v>30</v>
+      </c>
+      <c r="D160" s="7">
+        <f t="shared" si="18"/>
+        <v>-10</v>
+      </c>
+      <c r="E160" s="7">
+        <v>0.15</v>
+      </c>
+      <c r="M160" s="7">
+        <v>150</v>
+      </c>
+      <c r="N160" s="25">
+        <f t="shared" si="19"/>
+        <v>22.5</v>
+      </c>
+      <c r="O160" s="7">
+        <v>0</v>
+      </c>
+      <c r="P160" s="25">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="Q160" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="R160" s="7">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="161" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A161" s="25">
+        <v>20</v>
+      </c>
+      <c r="B161" s="25">
+        <v>0</v>
+      </c>
+      <c r="C161" s="25">
+        <v>30</v>
+      </c>
+      <c r="D161" s="7">
+        <f t="shared" si="18"/>
+        <v>-30</v>
+      </c>
+      <c r="E161" s="7">
+        <v>0.17</v>
+      </c>
+      <c r="M161" s="7">
+        <v>150</v>
+      </c>
+      <c r="N161" s="25">
+        <f t="shared" si="19"/>
+        <v>25.500000000000004</v>
+      </c>
+      <c r="O161" s="7">
+        <v>0</v>
+      </c>
+      <c r="P161" s="25">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="Q161" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="R161" s="7">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="162" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A162" s="25">
+        <v>21</v>
+      </c>
+      <c r="B162" s="25">
+        <v>0</v>
+      </c>
+      <c r="C162" s="25">
+        <v>30</v>
+      </c>
+      <c r="D162" s="7">
+        <f t="shared" si="18"/>
+        <v>-30</v>
+      </c>
+      <c r="E162" s="7">
+        <v>0.16</v>
+      </c>
+      <c r="M162" s="7">
+        <v>30</v>
+      </c>
+      <c r="N162" s="25">
+        <f t="shared" si="19"/>
+        <v>4.8</v>
+      </c>
+      <c r="O162" s="7">
+        <v>0</v>
+      </c>
+      <c r="P162" s="25">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="Q162" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="R162" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A163" s="25">
+        <v>22</v>
+      </c>
+      <c r="B163" s="25">
+        <v>0</v>
+      </c>
+      <c r="C163" s="25">
+        <v>30</v>
+      </c>
+      <c r="D163" s="7">
+        <f t="shared" si="18"/>
+        <v>-30</v>
+      </c>
+      <c r="E163" s="7">
+        <v>0.15</v>
+      </c>
+      <c r="M163" s="7">
+        <v>0</v>
+      </c>
+      <c r="N163" s="25">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="O163" s="7">
+        <v>30</v>
+      </c>
+      <c r="P163" s="25">
+        <f t="shared" si="20"/>
+        <v>3</v>
+      </c>
+      <c r="R163" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A164" s="25">
+        <v>23</v>
+      </c>
+      <c r="B164" s="25">
+        <v>0</v>
+      </c>
+      <c r="C164" s="25">
+        <v>30</v>
+      </c>
+      <c r="D164" s="7">
+        <f t="shared" si="18"/>
+        <v>-30</v>
+      </c>
+      <c r="E164" s="7">
+        <v>0.13</v>
+      </c>
+      <c r="M164" s="7">
+        <v>0</v>
+      </c>
+      <c r="N164" s="25">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="O164" s="7">
+        <v>30</v>
+      </c>
+      <c r="P164" s="25">
+        <f t="shared" si="20"/>
+        <v>3</v>
+      </c>
+      <c r="R164" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M165" s="20">
+        <f>SUM(M141:M164)</f>
+        <v>2450</v>
+      </c>
+      <c r="N165" s="20">
+        <f t="shared" ref="N165:P165" si="21">SUM(N141:N164)</f>
+        <v>174.4</v>
+      </c>
+      <c r="O165" s="20">
+        <f t="shared" si="21"/>
+        <v>145</v>
+      </c>
+      <c r="P165" s="20">
+        <f t="shared" si="21"/>
+        <v>14.5</v>
+      </c>
+      <c r="Q165" s="21"/>
+      <c r="R165" s="17">
+        <v>0</v>
+      </c>
+      <c r="S165" s="23">
+        <f>SUM(S141:S164)</f>
+        <v>1660</v>
+      </c>
+    </row>
+    <row r="166" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Q166" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="167" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Q167" s="7">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="173" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="E173" s="26" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="174" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="175" spans="1:19" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A175" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B175" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C175" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D175" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E175" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="M175" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="N175" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="O175" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="P175" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q175" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="R175" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="S175" s="22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="176" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A176" s="25">
+        <v>0</v>
+      </c>
+      <c r="B176" s="25">
+        <v>0</v>
+      </c>
+      <c r="C176" s="25">
+        <v>30</v>
+      </c>
+      <c r="D176" s="7">
+        <f>B176-C176</f>
+        <v>-30</v>
+      </c>
+      <c r="E176" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="M176" s="7">
+        <v>70</v>
+      </c>
+      <c r="N176" s="25">
+        <f xml:space="preserve"> M176*E176</f>
+        <v>8.4</v>
+      </c>
+      <c r="O176" s="7">
+        <v>0</v>
+      </c>
+      <c r="P176" s="25">
+        <f>O176*$J$145</f>
+        <v>0</v>
+      </c>
+      <c r="Q176" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="R176" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A177" s="25">
+        <v>1</v>
+      </c>
+      <c r="B177" s="25">
+        <v>0</v>
+      </c>
+      <c r="C177" s="25">
+        <v>30</v>
+      </c>
+      <c r="D177" s="7">
+        <f t="shared" ref="D177:D199" si="22">B177-C177</f>
+        <v>-30</v>
+      </c>
+      <c r="E177" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="G177" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="M177" s="7">
+        <v>0</v>
+      </c>
+      <c r="N177" s="25">
+        <f t="shared" ref="N177:N199" si="23" xml:space="preserve"> M177*E177</f>
+        <v>0</v>
+      </c>
+      <c r="O177" s="7">
+        <v>30</v>
+      </c>
+      <c r="P177" s="25">
+        <f t="shared" ref="P177:P199" si="24">O177*$J$145</f>
+        <v>3</v>
+      </c>
+      <c r="Q177" s="24"/>
+      <c r="R177" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A178" s="25">
+        <v>2</v>
+      </c>
+      <c r="B178" s="25">
+        <v>0</v>
+      </c>
+      <c r="C178" s="25">
+        <v>30</v>
+      </c>
+      <c r="D178" s="7">
+        <f t="shared" si="22"/>
+        <v>-30</v>
+      </c>
+      <c r="E178" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="G178" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="J178" s="15">
+        <v>150</v>
+      </c>
+      <c r="K178" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="M178" s="7">
+        <v>0</v>
+      </c>
+      <c r="N178" s="25">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="O178" s="7">
+        <v>30</v>
+      </c>
+      <c r="P178" s="25">
+        <f t="shared" si="24"/>
+        <v>3</v>
+      </c>
+      <c r="R178" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A179" s="25">
+        <v>3</v>
+      </c>
+      <c r="B179" s="25">
+        <v>0</v>
+      </c>
+      <c r="C179" s="25">
+        <v>30</v>
+      </c>
+      <c r="D179" s="7">
+        <f t="shared" si="22"/>
+        <v>-30</v>
+      </c>
+      <c r="E179" s="7">
+        <v>0.11</v>
+      </c>
+      <c r="M179" s="7">
+        <v>0</v>
+      </c>
+      <c r="N179" s="25">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="O179" s="7">
+        <v>30</v>
+      </c>
+      <c r="P179" s="25">
+        <f t="shared" si="24"/>
+        <v>3</v>
+      </c>
+      <c r="R179" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A180" s="25">
+        <v>4</v>
+      </c>
+      <c r="B180" s="25">
+        <v>5</v>
+      </c>
+      <c r="C180" s="25">
+        <v>30</v>
+      </c>
+      <c r="D180" s="7">
+        <f t="shared" si="22"/>
+        <v>-25</v>
+      </c>
+      <c r="E180" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="G180" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="J180" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="K180" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="M180" s="7">
+        <v>0</v>
+      </c>
+      <c r="N180" s="25">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="O180" s="7">
+        <v>25</v>
+      </c>
+      <c r="P180" s="25">
+        <f t="shared" si="24"/>
+        <v>2.5</v>
+      </c>
+      <c r="R180" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A181" s="25">
+        <v>5</v>
+      </c>
+      <c r="B181" s="25">
+        <v>40</v>
+      </c>
+      <c r="C181" s="25">
+        <v>30</v>
+      </c>
+      <c r="D181" s="7">
+        <f t="shared" si="22"/>
+        <v>10</v>
+      </c>
+      <c r="E181" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="M181" s="7">
+        <v>10</v>
+      </c>
+      <c r="N181" s="25">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="O181" s="7">
+        <v>0</v>
+      </c>
+      <c r="P181" s="25">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="R181" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A182" s="25">
+        <v>6</v>
+      </c>
+      <c r="B182" s="25">
+        <v>120</v>
+      </c>
+      <c r="C182" s="25">
+        <v>30</v>
+      </c>
+      <c r="D182" s="7">
+        <f t="shared" si="22"/>
+        <v>90</v>
+      </c>
+      <c r="E182" s="7">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="M182" s="7">
+        <v>0</v>
+      </c>
+      <c r="N182" s="25">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="O182" s="7">
+        <v>0</v>
+      </c>
+      <c r="P182" s="25">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="Q182" s="7">
+        <v>90</v>
+      </c>
+      <c r="R182" s="7">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="183" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A183" s="25">
+        <v>7</v>
+      </c>
+      <c r="B183" s="25">
+        <v>220</v>
+      </c>
+      <c r="C183" s="25">
+        <v>30</v>
+      </c>
+      <c r="D183" s="7">
+        <f t="shared" si="22"/>
+        <v>190</v>
+      </c>
+      <c r="E183" s="7">
+        <v>0.08</v>
+      </c>
+      <c r="M183" s="7">
+        <v>150</v>
+      </c>
+      <c r="N183" s="25">
+        <f t="shared" si="23"/>
+        <v>12</v>
+      </c>
+      <c r="O183" s="7">
+        <v>0</v>
+      </c>
+      <c r="P183" s="25">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="Q183" s="7">
+        <v>40</v>
+      </c>
+      <c r="R183" s="7">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="184" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A184" s="25">
+        <v>8</v>
+      </c>
+      <c r="B184" s="25">
+        <v>200</v>
+      </c>
+      <c r="C184" s="25">
+        <v>30</v>
+      </c>
+      <c r="D184" s="7">
+        <f t="shared" si="22"/>
+        <v>170</v>
+      </c>
+      <c r="E184" s="7">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M184" s="7">
+        <v>150</v>
+      </c>
+      <c r="N184" s="25">
+        <f t="shared" si="23"/>
+        <v>10.500000000000002</v>
+      </c>
+      <c r="O184" s="7">
+        <v>0</v>
+      </c>
+      <c r="P184" s="25">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="Q184" s="7">
+        <v>20</v>
+      </c>
+      <c r="R184" s="7">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="185" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A185" s="25">
+        <v>9</v>
+      </c>
+      <c r="B185" s="25">
+        <v>480</v>
+      </c>
+      <c r="C185" s="25">
+        <v>30</v>
+      </c>
+      <c r="D185" s="7">
+        <f t="shared" si="22"/>
+        <v>450</v>
+      </c>
+      <c r="E185" s="7">
+        <v>0.03</v>
+      </c>
+      <c r="M185" s="7">
+        <v>150</v>
+      </c>
+      <c r="N185" s="25">
+        <f t="shared" si="23"/>
+        <v>4.5</v>
+      </c>
+      <c r="O185" s="7">
+        <v>0</v>
+      </c>
+      <c r="P185" s="25">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="Q185" s="7">
+        <v>250</v>
+      </c>
+      <c r="R185" s="7">
+        <v>400</v>
+      </c>
+      <c r="S185" s="7">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="186" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A186" s="25">
+        <v>10</v>
+      </c>
+      <c r="B186" s="25">
+        <v>500</v>
+      </c>
+      <c r="C186" s="25">
+        <v>30</v>
+      </c>
+      <c r="D186" s="7">
+        <f t="shared" si="22"/>
+        <v>470</v>
+      </c>
+      <c r="E186" s="7">
+        <v>-0.01</v>
+      </c>
+      <c r="G186" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="M186" s="7">
+        <v>0</v>
+      </c>
+      <c r="N186" s="25">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="O186" s="7">
+        <v>0</v>
+      </c>
+      <c r="P186" s="25">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="Q186" s="7">
+        <v>100</v>
+      </c>
+      <c r="R186" s="7">
+        <v>500</v>
+      </c>
+      <c r="S186" s="7">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="187" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A187" s="25">
+        <v>11</v>
+      </c>
+      <c r="B187" s="25">
+        <v>500</v>
+      </c>
+      <c r="C187" s="25">
+        <v>30</v>
+      </c>
+      <c r="D187" s="7">
+        <f t="shared" si="22"/>
+        <v>470</v>
+      </c>
+      <c r="E187" s="7">
+        <v>-0.02</v>
+      </c>
+      <c r="G187" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="I187" s="15">
+        <v>250</v>
+      </c>
+      <c r="J187" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="K187" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="M187" s="7">
+        <v>0</v>
+      </c>
+      <c r="N187" s="25">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="O187" s="7">
+        <v>0</v>
+      </c>
+      <c r="P187" s="25">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="R187" s="7">
+        <v>500</v>
+      </c>
+      <c r="S187" s="7">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="188" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A188" s="25">
+        <v>12</v>
+      </c>
+      <c r="B188" s="25">
+        <v>160</v>
+      </c>
+      <c r="C188" s="25">
+        <v>30</v>
+      </c>
+      <c r="D188" s="7">
+        <f t="shared" si="22"/>
+        <v>130</v>
+      </c>
+      <c r="E188" s="7">
+        <v>0</v>
+      </c>
+      <c r="G188" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="I188" s="15">
+        <v>500</v>
+      </c>
+      <c r="J188" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="K188" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="M188" s="7">
+        <v>130</v>
+      </c>
+      <c r="N188" s="25">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="O188" s="7">
+        <v>0</v>
+      </c>
+      <c r="P188" s="25">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="R188" s="7">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="189" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A189" s="25">
+        <v>13</v>
+      </c>
+      <c r="B189" s="25">
+        <v>500</v>
+      </c>
+      <c r="C189" s="25">
+        <v>30</v>
+      </c>
+      <c r="D189" s="7">
+        <f t="shared" si="22"/>
+        <v>470</v>
+      </c>
+      <c r="E189" s="7">
+        <v>0</v>
+      </c>
+      <c r="G189" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="I189" s="15">
+        <v>100</v>
+      </c>
+      <c r="J189" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="M189" s="7">
+        <v>150</v>
+      </c>
+      <c r="N189" s="25">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="O189" s="7">
+        <v>0</v>
+      </c>
+      <c r="P189" s="25">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="R189" s="7">
+        <v>500</v>
+      </c>
+      <c r="S189" s="7">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="190" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A190" s="25">
+        <v>14</v>
+      </c>
+      <c r="B190" s="25">
+        <v>480</v>
+      </c>
+      <c r="C190" s="25">
+        <v>30</v>
+      </c>
+      <c r="D190" s="7">
+        <f t="shared" si="22"/>
+        <v>450</v>
+      </c>
+      <c r="E190" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="M190" s="7">
+        <v>150</v>
+      </c>
+      <c r="N190" s="25">
+        <f t="shared" si="23"/>
+        <v>1.5</v>
+      </c>
+      <c r="O190" s="7">
+        <v>0</v>
+      </c>
+      <c r="P190" s="25">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="R190" s="7">
+        <v>500</v>
+      </c>
+      <c r="S190" s="7">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="191" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A191" s="25">
+        <v>15</v>
+      </c>
+      <c r="B191" s="25">
+        <v>150</v>
+      </c>
+      <c r="C191" s="25">
+        <v>30</v>
+      </c>
+      <c r="D191" s="7">
+        <f t="shared" si="22"/>
+        <v>120</v>
+      </c>
+      <c r="E191" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="M191" s="7">
+        <v>120</v>
+      </c>
+      <c r="N191" s="25">
+        <f t="shared" si="23"/>
+        <v>2.4</v>
+      </c>
+      <c r="O191" s="7">
+        <v>0</v>
+      </c>
+      <c r="P191" s="25">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="R191" s="7">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="192" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A192" s="25">
+        <v>16</v>
+      </c>
+      <c r="B192" s="25">
+        <v>140</v>
+      </c>
+      <c r="C192" s="25">
+        <v>30</v>
+      </c>
+      <c r="D192" s="7">
+        <f t="shared" si="22"/>
+        <v>110</v>
+      </c>
+      <c r="E192" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="G192" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="I192" s="15">
+        <v>0.05</v>
+      </c>
+      <c r="J192" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="M192" s="7">
+        <v>150</v>
+      </c>
+      <c r="N192" s="25">
+        <f t="shared" si="23"/>
+        <v>15</v>
+      </c>
+      <c r="O192" s="7">
+        <v>0</v>
+      </c>
+      <c r="P192" s="25">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="Q192" s="7">
+        <v>-40</v>
+      </c>
+      <c r="R192" s="7">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="193" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A193" s="25">
+        <v>17</v>
+      </c>
+      <c r="B193" s="25">
+        <v>190</v>
+      </c>
+      <c r="C193" s="25">
+        <v>30</v>
+      </c>
+      <c r="D193" s="7">
+        <f t="shared" si="22"/>
+        <v>160</v>
+      </c>
+      <c r="E193" s="7">
+        <v>0.11</v>
+      </c>
+      <c r="G193" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="I193" s="15">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="J193" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="M193" s="7">
+        <v>150</v>
+      </c>
+      <c r="N193" s="25">
+        <f t="shared" si="23"/>
+        <v>16.5</v>
+      </c>
+      <c r="O193" s="7">
+        <v>0</v>
+      </c>
+      <c r="P193" s="25">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="Q193" s="7">
+        <v>10</v>
+      </c>
+      <c r="R193" s="7">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="194" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A194" s="25">
+        <v>18</v>
+      </c>
+      <c r="B194" s="25">
+        <v>80</v>
+      </c>
+      <c r="C194" s="25">
+        <v>30</v>
+      </c>
+      <c r="D194" s="7">
+        <f t="shared" si="22"/>
+        <v>50</v>
+      </c>
+      <c r="E194" s="7">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="M194" s="7">
+        <v>150</v>
+      </c>
+      <c r="N194" s="25">
+        <f t="shared" si="23"/>
+        <v>21.000000000000004</v>
+      </c>
+      <c r="O194" s="7">
+        <v>0</v>
+      </c>
+      <c r="P194" s="25">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="Q194" s="7">
+        <v>-100</v>
+      </c>
+      <c r="R194" s="7">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="195" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A195" s="25">
+        <v>19</v>
+      </c>
+      <c r="B195" s="25">
+        <v>20</v>
+      </c>
+      <c r="C195" s="25">
+        <v>30</v>
+      </c>
+      <c r="D195" s="7">
+        <f t="shared" si="22"/>
+        <v>-10</v>
+      </c>
+      <c r="E195" s="7">
+        <v>0.15</v>
+      </c>
+      <c r="M195" s="7">
+        <v>150</v>
+      </c>
+      <c r="N195" s="25">
+        <f t="shared" si="23"/>
+        <v>22.5</v>
+      </c>
+      <c r="O195" s="7">
+        <v>0</v>
+      </c>
+      <c r="P195" s="25">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="Q195" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="R195" s="7">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="196" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A196" s="25">
+        <v>20</v>
+      </c>
+      <c r="B196" s="25">
+        <v>0</v>
+      </c>
+      <c r="C196" s="25">
+        <v>30</v>
+      </c>
+      <c r="D196" s="7">
+        <f t="shared" si="22"/>
+        <v>-30</v>
+      </c>
+      <c r="E196" s="7">
+        <v>0.09</v>
+      </c>
+      <c r="M196" s="7">
+        <v>0</v>
+      </c>
+      <c r="N196" s="25">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="O196" s="7">
+        <v>30</v>
+      </c>
+      <c r="P196" s="25">
+        <f t="shared" si="24"/>
+        <v>3</v>
+      </c>
+      <c r="Q196" s="24"/>
+      <c r="R196" s="7">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="197" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A197" s="25">
+        <v>21</v>
+      </c>
+      <c r="B197" s="25">
+        <v>0</v>
+      </c>
+      <c r="C197" s="25">
+        <v>30</v>
+      </c>
+      <c r="D197" s="7">
+        <f t="shared" si="22"/>
+        <v>-30</v>
+      </c>
+      <c r="E197" s="7">
+        <v>0.16</v>
+      </c>
+      <c r="M197" s="7">
+        <v>150</v>
+      </c>
+      <c r="N197" s="25">
+        <f t="shared" si="23"/>
+        <v>24</v>
+      </c>
+      <c r="O197" s="7">
+        <v>0</v>
+      </c>
+      <c r="P197" s="25">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="Q197" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="R197" s="7">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="198" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A198" s="25">
+        <v>22</v>
+      </c>
+      <c r="B198" s="25">
+        <v>0</v>
+      </c>
+      <c r="C198" s="25">
+        <v>30</v>
+      </c>
+      <c r="D198" s="7">
+        <f t="shared" si="22"/>
+        <v>-30</v>
+      </c>
+      <c r="E198" s="7">
+        <v>0.15</v>
+      </c>
+      <c r="M198" s="7">
+        <v>0</v>
+      </c>
+      <c r="N198" s="25">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="O198" s="7">
+        <v>30</v>
+      </c>
+      <c r="P198" s="25">
+        <f t="shared" si="24"/>
+        <v>3</v>
+      </c>
+      <c r="Q198" s="28"/>
+      <c r="R198" s="7">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="199" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A199" s="25">
+        <v>23</v>
+      </c>
+      <c r="B199" s="25">
+        <v>0</v>
+      </c>
+      <c r="C199" s="25">
+        <v>30</v>
+      </c>
+      <c r="D199" s="7">
+        <f t="shared" si="22"/>
+        <v>-30</v>
+      </c>
+      <c r="E199" s="7">
+        <v>0.13</v>
+      </c>
+      <c r="M199" s="7">
+        <v>0</v>
+      </c>
+      <c r="N199" s="25">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="O199" s="7">
+        <v>30</v>
+      </c>
+      <c r="P199" s="25">
+        <f t="shared" si="24"/>
+        <v>3</v>
+      </c>
+      <c r="R199" s="7">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="200" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M200" s="20">
+        <f>SUM(M176:M199)</f>
+        <v>1830</v>
+      </c>
+      <c r="N200" s="20">
+        <f t="shared" ref="N200:P200" si="25">SUM(N176:N199)</f>
+        <v>139.30000000000001</v>
+      </c>
+      <c r="O200" s="20">
+        <f t="shared" si="25"/>
+        <v>205</v>
+      </c>
+      <c r="P200" s="20">
+        <f t="shared" si="25"/>
+        <v>20.5</v>
+      </c>
+      <c r="Q200" s="21"/>
+      <c r="R200" s="17">
+        <v>0</v>
+      </c>
+      <c r="S200" s="23">
+        <f>SUM(S176:S199)</f>
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="201" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Q201" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="202" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Q202" s="7">
+        <v>510</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/PvPlantPlanner/Docs/UnitTestsExamples.xlsx
+++ b/PvPlantPlanner/Docs/UnitTestsExamples.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nikola.koprivica\Documents\0_MyDoc\PvPlantPlanner\PvPlantPlanner\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C197C6B9-0B29-4417-BFFC-C3A043DA3CA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76B8A639-A7DD-4CA3-84D3-759CA5584ECB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15270" activeTab="1" xr2:uid="{CC43E566-94BC-4A10-953F-51F79849A741}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="69">
   <si>
     <t>rated Power</t>
   </si>
@@ -361,6 +361,15 @@
       <t xml:space="preserve"> + -30</t>
     </r>
   </si>
+  <si>
+    <t>SellingAlways_DynamicHighProduction_WithoutStorage_DynamicMarketPriceWithNegative</t>
+  </si>
+  <si>
+    <t>- Inf</t>
+  </si>
+  <si>
+    <t>SellingWhenNoNegative_DynamicHighProduction_WithoutStorage_DynamicMarketPriceWithNegative</t>
+  </si>
 </sst>
 </file>
 
@@ -511,7 +520,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -592,6 +601,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2676,10 +2688,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3004405F-278A-41B0-B16A-948CDB79AC5D}">
-  <dimension ref="A1:S202"/>
+  <dimension ref="A1:S272"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A172" workbookViewId="0">
-      <selection activeCell="R199" sqref="R199"/>
+    <sheetView tabSelected="1" topLeftCell="A240" workbookViewId="0">
+      <selection activeCell="M257" sqref="M257"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8550,6 +8562,1968 @@
         <v>510</v>
       </c>
     </row>
+    <row r="208" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="F208" s="26" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="209" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="210" spans="1:19" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A210" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B210" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C210" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D210" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E210" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="M210" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="N210" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="O210" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="P210" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q210" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="R210" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="S210" s="22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="211" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A211" s="25">
+        <v>0</v>
+      </c>
+      <c r="B211" s="25">
+        <v>0</v>
+      </c>
+      <c r="C211" s="25">
+        <v>30</v>
+      </c>
+      <c r="D211" s="7">
+        <f>B211-C211</f>
+        <v>-30</v>
+      </c>
+      <c r="E211" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="M211" s="7">
+        <v>0</v>
+      </c>
+      <c r="N211" s="25">
+        <f xml:space="preserve"> M211*E211</f>
+        <v>0</v>
+      </c>
+      <c r="O211" s="7">
+        <v>30</v>
+      </c>
+      <c r="P211" s="25">
+        <f>O211*$J$145</f>
+        <v>3</v>
+      </c>
+      <c r="Q211" s="24"/>
+      <c r="R211" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A212" s="25">
+        <v>1</v>
+      </c>
+      <c r="B212" s="25">
+        <v>0</v>
+      </c>
+      <c r="C212" s="25">
+        <v>30</v>
+      </c>
+      <c r="D212" s="7">
+        <f t="shared" ref="D212:D234" si="26">B212-C212</f>
+        <v>-30</v>
+      </c>
+      <c r="E212" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="G212" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="M212" s="7">
+        <v>0</v>
+      </c>
+      <c r="N212" s="25">
+        <f t="shared" ref="N212:N234" si="27" xml:space="preserve"> M212*E212</f>
+        <v>0</v>
+      </c>
+      <c r="O212" s="7">
+        <v>30</v>
+      </c>
+      <c r="P212" s="25">
+        <f t="shared" ref="P212:P234" si="28">O212*$J$145</f>
+        <v>3</v>
+      </c>
+      <c r="Q212" s="24"/>
+      <c r="R212" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A213" s="25">
+        <v>2</v>
+      </c>
+      <c r="B213" s="25">
+        <v>0</v>
+      </c>
+      <c r="C213" s="25">
+        <v>30</v>
+      </c>
+      <c r="D213" s="7">
+        <f t="shared" si="26"/>
+        <v>-30</v>
+      </c>
+      <c r="E213" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="G213" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="J213" s="15">
+        <v>150</v>
+      </c>
+      <c r="K213" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="M213" s="7">
+        <v>0</v>
+      </c>
+      <c r="N213" s="25">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="O213" s="7">
+        <v>30</v>
+      </c>
+      <c r="P213" s="25">
+        <f t="shared" si="28"/>
+        <v>3</v>
+      </c>
+      <c r="R213" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A214" s="25">
+        <v>3</v>
+      </c>
+      <c r="B214" s="25">
+        <v>0</v>
+      </c>
+      <c r="C214" s="25">
+        <v>30</v>
+      </c>
+      <c r="D214" s="7">
+        <f t="shared" si="26"/>
+        <v>-30</v>
+      </c>
+      <c r="E214" s="7">
+        <v>0.11</v>
+      </c>
+      <c r="M214" s="7">
+        <v>0</v>
+      </c>
+      <c r="N214" s="25">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="O214" s="7">
+        <v>30</v>
+      </c>
+      <c r="P214" s="25">
+        <f t="shared" si="28"/>
+        <v>3</v>
+      </c>
+      <c r="R214" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A215" s="25">
+        <v>4</v>
+      </c>
+      <c r="B215" s="25">
+        <v>5</v>
+      </c>
+      <c r="C215" s="25">
+        <v>30</v>
+      </c>
+      <c r="D215" s="7">
+        <f t="shared" si="26"/>
+        <v>-25</v>
+      </c>
+      <c r="E215" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="G215" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="J215" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="K215" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="M215" s="7">
+        <v>0</v>
+      </c>
+      <c r="N215" s="25">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="O215" s="7">
+        <v>25</v>
+      </c>
+      <c r="P215" s="25">
+        <f t="shared" si="28"/>
+        <v>2.5</v>
+      </c>
+      <c r="R215" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A216" s="25">
+        <v>5</v>
+      </c>
+      <c r="B216" s="25">
+        <v>40</v>
+      </c>
+      <c r="C216" s="25">
+        <v>30</v>
+      </c>
+      <c r="D216" s="7">
+        <f t="shared" si="26"/>
+        <v>10</v>
+      </c>
+      <c r="E216" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="M216" s="7">
+        <v>10</v>
+      </c>
+      <c r="N216" s="25">
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+      <c r="O216" s="7">
+        <v>0</v>
+      </c>
+      <c r="P216" s="25">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="R216" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A217" s="25">
+        <v>6</v>
+      </c>
+      <c r="B217" s="25">
+        <v>120</v>
+      </c>
+      <c r="C217" s="25">
+        <v>30</v>
+      </c>
+      <c r="D217" s="7">
+        <f t="shared" si="26"/>
+        <v>90</v>
+      </c>
+      <c r="E217" s="7">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="M217" s="7">
+        <v>90</v>
+      </c>
+      <c r="N217" s="25">
+        <f t="shared" si="27"/>
+        <v>4.05</v>
+      </c>
+      <c r="O217" s="7">
+        <v>0</v>
+      </c>
+      <c r="P217" s="25">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="R217" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A218" s="25">
+        <v>7</v>
+      </c>
+      <c r="B218" s="25">
+        <v>220</v>
+      </c>
+      <c r="C218" s="25">
+        <v>30</v>
+      </c>
+      <c r="D218" s="7">
+        <f t="shared" si="26"/>
+        <v>190</v>
+      </c>
+      <c r="E218" s="7">
+        <v>0.08</v>
+      </c>
+      <c r="M218" s="7">
+        <v>150</v>
+      </c>
+      <c r="N218" s="25">
+        <f t="shared" si="27"/>
+        <v>12</v>
+      </c>
+      <c r="O218" s="7">
+        <v>0</v>
+      </c>
+      <c r="P218" s="25">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="R218" s="7">
+        <v>0</v>
+      </c>
+      <c r="S218" s="7">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="219" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A219" s="25">
+        <v>8</v>
+      </c>
+      <c r="B219" s="25">
+        <v>200</v>
+      </c>
+      <c r="C219" s="25">
+        <v>30</v>
+      </c>
+      <c r="D219" s="7">
+        <f t="shared" si="26"/>
+        <v>170</v>
+      </c>
+      <c r="E219" s="7">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M219" s="7">
+        <v>150</v>
+      </c>
+      <c r="N219" s="25">
+        <f t="shared" si="27"/>
+        <v>10.500000000000002</v>
+      </c>
+      <c r="O219" s="7">
+        <v>0</v>
+      </c>
+      <c r="P219" s="25">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="R219" s="7">
+        <v>0</v>
+      </c>
+      <c r="S219" s="7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="220" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A220" s="25">
+        <v>9</v>
+      </c>
+      <c r="B220" s="25">
+        <v>480</v>
+      </c>
+      <c r="C220" s="25">
+        <v>30</v>
+      </c>
+      <c r="D220" s="7">
+        <f t="shared" si="26"/>
+        <v>450</v>
+      </c>
+      <c r="E220" s="7">
+        <v>0.03</v>
+      </c>
+      <c r="M220" s="7">
+        <v>150</v>
+      </c>
+      <c r="N220" s="25">
+        <f t="shared" si="27"/>
+        <v>4.5</v>
+      </c>
+      <c r="O220" s="7">
+        <v>0</v>
+      </c>
+      <c r="P220" s="25">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="R220" s="7">
+        <v>0</v>
+      </c>
+      <c r="S220" s="7">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="221" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A221" s="25">
+        <v>10</v>
+      </c>
+      <c r="B221" s="25">
+        <v>500</v>
+      </c>
+      <c r="C221" s="25">
+        <v>30</v>
+      </c>
+      <c r="D221" s="7">
+        <f t="shared" si="26"/>
+        <v>470</v>
+      </c>
+      <c r="E221" s="7">
+        <v>-0.01</v>
+      </c>
+      <c r="G221" s="16"/>
+      <c r="M221" s="7">
+        <v>150</v>
+      </c>
+      <c r="N221" s="25">
+        <f t="shared" si="27"/>
+        <v>-1.5</v>
+      </c>
+      <c r="O221" s="7">
+        <v>0</v>
+      </c>
+      <c r="P221" s="25">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="R221" s="7">
+        <v>0</v>
+      </c>
+      <c r="S221" s="7">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="222" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A222" s="25">
+        <v>11</v>
+      </c>
+      <c r="B222" s="25">
+        <v>500</v>
+      </c>
+      <c r="C222" s="25">
+        <v>30</v>
+      </c>
+      <c r="D222" s="7">
+        <f t="shared" si="26"/>
+        <v>470</v>
+      </c>
+      <c r="E222" s="7">
+        <v>-0.02</v>
+      </c>
+      <c r="M222" s="7">
+        <v>150</v>
+      </c>
+      <c r="N222" s="25">
+        <f t="shared" si="27"/>
+        <v>-3</v>
+      </c>
+      <c r="O222" s="7">
+        <v>0</v>
+      </c>
+      <c r="P222" s="25">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="R222" s="7">
+        <v>0</v>
+      </c>
+      <c r="S222" s="7">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="223" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A223" s="25">
+        <v>12</v>
+      </c>
+      <c r="B223" s="25">
+        <v>160</v>
+      </c>
+      <c r="C223" s="25">
+        <v>30</v>
+      </c>
+      <c r="D223" s="7">
+        <f t="shared" si="26"/>
+        <v>130</v>
+      </c>
+      <c r="E223" s="7">
+        <v>0</v>
+      </c>
+      <c r="M223" s="7">
+        <v>130</v>
+      </c>
+      <c r="N223" s="25">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="O223" s="7">
+        <v>0</v>
+      </c>
+      <c r="P223" s="25">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="R223" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A224" s="25">
+        <v>13</v>
+      </c>
+      <c r="B224" s="25">
+        <v>500</v>
+      </c>
+      <c r="C224" s="25">
+        <v>30</v>
+      </c>
+      <c r="D224" s="7">
+        <f t="shared" si="26"/>
+        <v>470</v>
+      </c>
+      <c r="E224" s="7">
+        <v>0</v>
+      </c>
+      <c r="M224" s="7">
+        <v>150</v>
+      </c>
+      <c r="N224" s="25">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="O224" s="7">
+        <v>0</v>
+      </c>
+      <c r="P224" s="25">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="R224" s="7">
+        <v>0</v>
+      </c>
+      <c r="S224" s="7">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="225" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A225" s="25">
+        <v>14</v>
+      </c>
+      <c r="B225" s="25">
+        <v>480</v>
+      </c>
+      <c r="C225" s="25">
+        <v>30</v>
+      </c>
+      <c r="D225" s="7">
+        <f t="shared" si="26"/>
+        <v>450</v>
+      </c>
+      <c r="E225" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="M225" s="7">
+        <v>150</v>
+      </c>
+      <c r="N225" s="25">
+        <f t="shared" si="27"/>
+        <v>1.5</v>
+      </c>
+      <c r="O225" s="7">
+        <v>0</v>
+      </c>
+      <c r="P225" s="25">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="R225" s="7">
+        <v>0</v>
+      </c>
+      <c r="S225" s="7">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="226" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A226" s="25">
+        <v>15</v>
+      </c>
+      <c r="B226" s="25">
+        <v>150</v>
+      </c>
+      <c r="C226" s="25">
+        <v>30</v>
+      </c>
+      <c r="D226" s="7">
+        <f t="shared" si="26"/>
+        <v>120</v>
+      </c>
+      <c r="E226" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="M226" s="7">
+        <v>120</v>
+      </c>
+      <c r="N226" s="25">
+        <f t="shared" si="27"/>
+        <v>2.4</v>
+      </c>
+      <c r="O226" s="7">
+        <v>0</v>
+      </c>
+      <c r="P226" s="25">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="R226" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A227" s="25">
+        <v>16</v>
+      </c>
+      <c r="B227" s="25">
+        <v>140</v>
+      </c>
+      <c r="C227" s="25">
+        <v>30</v>
+      </c>
+      <c r="D227" s="7">
+        <f t="shared" si="26"/>
+        <v>110</v>
+      </c>
+      <c r="E227" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="G227" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="I227" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="J227" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="M227" s="7">
+        <v>110</v>
+      </c>
+      <c r="N227" s="25">
+        <f t="shared" si="27"/>
+        <v>11</v>
+      </c>
+      <c r="O227" s="7">
+        <v>0</v>
+      </c>
+      <c r="P227" s="25">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="R227" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A228" s="25">
+        <v>17</v>
+      </c>
+      <c r="B228" s="25">
+        <v>190</v>
+      </c>
+      <c r="C228" s="25">
+        <v>30</v>
+      </c>
+      <c r="D228" s="7">
+        <f t="shared" si="26"/>
+        <v>160</v>
+      </c>
+      <c r="E228" s="7">
+        <v>0.11</v>
+      </c>
+      <c r="M228" s="7">
+        <v>150</v>
+      </c>
+      <c r="N228" s="25">
+        <f t="shared" si="27"/>
+        <v>16.5</v>
+      </c>
+      <c r="O228" s="7">
+        <v>0</v>
+      </c>
+      <c r="P228" s="25">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="R228" s="7">
+        <v>0</v>
+      </c>
+      <c r="S228" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="229" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A229" s="25">
+        <v>18</v>
+      </c>
+      <c r="B229" s="25">
+        <v>80</v>
+      </c>
+      <c r="C229" s="25">
+        <v>30</v>
+      </c>
+      <c r="D229" s="7">
+        <f t="shared" si="26"/>
+        <v>50</v>
+      </c>
+      <c r="E229" s="7">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="M229" s="7">
+        <v>50</v>
+      </c>
+      <c r="N229" s="25">
+        <f t="shared" si="27"/>
+        <v>7.0000000000000009</v>
+      </c>
+      <c r="O229" s="7">
+        <v>0</v>
+      </c>
+      <c r="P229" s="25">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="R229" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A230" s="25">
+        <v>19</v>
+      </c>
+      <c r="B230" s="25">
+        <v>20</v>
+      </c>
+      <c r="C230" s="25">
+        <v>30</v>
+      </c>
+      <c r="D230" s="7">
+        <f t="shared" si="26"/>
+        <v>-10</v>
+      </c>
+      <c r="E230" s="7">
+        <v>0.15</v>
+      </c>
+      <c r="M230" s="7">
+        <v>0</v>
+      </c>
+      <c r="N230" s="25">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="O230" s="7">
+        <v>10</v>
+      </c>
+      <c r="P230" s="25">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="Q230" s="24"/>
+      <c r="R230" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A231" s="25">
+        <v>20</v>
+      </c>
+      <c r="B231" s="25">
+        <v>0</v>
+      </c>
+      <c r="C231" s="25">
+        <v>30</v>
+      </c>
+      <c r="D231" s="7">
+        <f t="shared" si="26"/>
+        <v>-30</v>
+      </c>
+      <c r="E231" s="7">
+        <v>0.09</v>
+      </c>
+      <c r="M231" s="7">
+        <v>0</v>
+      </c>
+      <c r="N231" s="25">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="O231" s="7">
+        <v>30</v>
+      </c>
+      <c r="P231" s="25">
+        <f t="shared" si="28"/>
+        <v>3</v>
+      </c>
+      <c r="Q231" s="24"/>
+      <c r="R231" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A232" s="25">
+        <v>21</v>
+      </c>
+      <c r="B232" s="25">
+        <v>0</v>
+      </c>
+      <c r="C232" s="25">
+        <v>30</v>
+      </c>
+      <c r="D232" s="7">
+        <f t="shared" si="26"/>
+        <v>-30</v>
+      </c>
+      <c r="E232" s="7">
+        <v>0.16</v>
+      </c>
+      <c r="M232" s="7">
+        <v>0</v>
+      </c>
+      <c r="N232" s="25">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="O232" s="7">
+        <v>30</v>
+      </c>
+      <c r="P232" s="25">
+        <f t="shared" si="28"/>
+        <v>3</v>
+      </c>
+      <c r="Q232" s="24"/>
+      <c r="R232" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A233" s="25">
+        <v>22</v>
+      </c>
+      <c r="B233" s="25">
+        <v>0</v>
+      </c>
+      <c r="C233" s="25">
+        <v>30</v>
+      </c>
+      <c r="D233" s="7">
+        <f t="shared" si="26"/>
+        <v>-30</v>
+      </c>
+      <c r="E233" s="7">
+        <v>0.15</v>
+      </c>
+      <c r="M233" s="7">
+        <v>0</v>
+      </c>
+      <c r="N233" s="25">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="O233" s="7">
+        <v>30</v>
+      </c>
+      <c r="P233" s="25">
+        <f t="shared" si="28"/>
+        <v>3</v>
+      </c>
+      <c r="Q233" s="28"/>
+      <c r="R233" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A234" s="25">
+        <v>23</v>
+      </c>
+      <c r="B234" s="25">
+        <v>0</v>
+      </c>
+      <c r="C234" s="25">
+        <v>30</v>
+      </c>
+      <c r="D234" s="7">
+        <f t="shared" si="26"/>
+        <v>-30</v>
+      </c>
+      <c r="E234" s="7">
+        <v>0.13</v>
+      </c>
+      <c r="M234" s="7">
+        <v>0</v>
+      </c>
+      <c r="N234" s="25">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="O234" s="7">
+        <v>30</v>
+      </c>
+      <c r="P234" s="25">
+        <f t="shared" si="28"/>
+        <v>3</v>
+      </c>
+      <c r="R234" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M235" s="20">
+        <f>SUM(M211:M234)</f>
+        <v>1710</v>
+      </c>
+      <c r="N235" s="20">
+        <f t="shared" ref="N235:P235" si="29">SUM(N211:N234)</f>
+        <v>65.95</v>
+      </c>
+      <c r="O235" s="20">
+        <f t="shared" si="29"/>
+        <v>275</v>
+      </c>
+      <c r="P235" s="20">
+        <f t="shared" si="29"/>
+        <v>27.5</v>
+      </c>
+      <c r="Q235" s="21"/>
+      <c r="R235" s="17">
+        <v>0</v>
+      </c>
+      <c r="S235" s="23">
+        <f>SUM(S211:S234)</f>
+        <v>1630</v>
+      </c>
+    </row>
+    <row r="236" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Q236" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="237" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Q237" s="7">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="243" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="F243" s="26" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="244" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="245" spans="1:19" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A245" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B245" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C245" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D245" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E245" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="M245" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="N245" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="O245" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="P245" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q245" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="R245" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="S245" s="22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="246" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A246" s="25">
+        <v>0</v>
+      </c>
+      <c r="B246" s="25">
+        <v>0</v>
+      </c>
+      <c r="C246" s="25">
+        <v>30</v>
+      </c>
+      <c r="D246" s="7">
+        <f>B246-C246</f>
+        <v>-30</v>
+      </c>
+      <c r="E246" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="M246" s="7">
+        <v>0</v>
+      </c>
+      <c r="N246" s="25">
+        <f xml:space="preserve"> M246*E246</f>
+        <v>0</v>
+      </c>
+      <c r="O246" s="7">
+        <v>30</v>
+      </c>
+      <c r="P246" s="25">
+        <f>O246*$J$145</f>
+        <v>3</v>
+      </c>
+      <c r="Q246" s="24"/>
+      <c r="R246" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A247" s="25">
+        <v>1</v>
+      </c>
+      <c r="B247" s="25">
+        <v>0</v>
+      </c>
+      <c r="C247" s="25">
+        <v>30</v>
+      </c>
+      <c r="D247" s="7">
+        <f t="shared" ref="D247:D269" si="30">B247-C247</f>
+        <v>-30</v>
+      </c>
+      <c r="E247" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="G247" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="M247" s="7">
+        <v>0</v>
+      </c>
+      <c r="N247" s="25">
+        <f t="shared" ref="N247:N269" si="31" xml:space="preserve"> M247*E247</f>
+        <v>0</v>
+      </c>
+      <c r="O247" s="7">
+        <v>30</v>
+      </c>
+      <c r="P247" s="25">
+        <f t="shared" ref="P247:P269" si="32">O247*$J$145</f>
+        <v>3</v>
+      </c>
+      <c r="Q247" s="24"/>
+      <c r="R247" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A248" s="25">
+        <v>2</v>
+      </c>
+      <c r="B248" s="25">
+        <v>0</v>
+      </c>
+      <c r="C248" s="25">
+        <v>30</v>
+      </c>
+      <c r="D248" s="7">
+        <f t="shared" si="30"/>
+        <v>-30</v>
+      </c>
+      <c r="E248" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="G248" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="J248" s="15">
+        <v>150</v>
+      </c>
+      <c r="K248" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="M248" s="7">
+        <v>0</v>
+      </c>
+      <c r="N248" s="25">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="O248" s="7">
+        <v>30</v>
+      </c>
+      <c r="P248" s="25">
+        <f t="shared" si="32"/>
+        <v>3</v>
+      </c>
+      <c r="R248" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A249" s="25">
+        <v>3</v>
+      </c>
+      <c r="B249" s="25">
+        <v>0</v>
+      </c>
+      <c r="C249" s="25">
+        <v>30</v>
+      </c>
+      <c r="D249" s="7">
+        <f t="shared" si="30"/>
+        <v>-30</v>
+      </c>
+      <c r="E249" s="7">
+        <v>0.11</v>
+      </c>
+      <c r="M249" s="7">
+        <v>0</v>
+      </c>
+      <c r="N249" s="25">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="O249" s="7">
+        <v>30</v>
+      </c>
+      <c r="P249" s="25">
+        <f t="shared" si="32"/>
+        <v>3</v>
+      </c>
+      <c r="R249" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A250" s="25">
+        <v>4</v>
+      </c>
+      <c r="B250" s="25">
+        <v>5</v>
+      </c>
+      <c r="C250" s="25">
+        <v>30</v>
+      </c>
+      <c r="D250" s="7">
+        <f t="shared" si="30"/>
+        <v>-25</v>
+      </c>
+      <c r="E250" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="G250" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="J250" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="K250" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="M250" s="7">
+        <v>0</v>
+      </c>
+      <c r="N250" s="25">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="O250" s="7">
+        <v>25</v>
+      </c>
+      <c r="P250" s="25">
+        <f t="shared" si="32"/>
+        <v>2.5</v>
+      </c>
+      <c r="R250" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A251" s="25">
+        <v>5</v>
+      </c>
+      <c r="B251" s="25">
+        <v>40</v>
+      </c>
+      <c r="C251" s="25">
+        <v>30</v>
+      </c>
+      <c r="D251" s="7">
+        <f t="shared" si="30"/>
+        <v>10</v>
+      </c>
+      <c r="E251" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="M251" s="7">
+        <v>10</v>
+      </c>
+      <c r="N251" s="25">
+        <f t="shared" si="31"/>
+        <v>1</v>
+      </c>
+      <c r="O251" s="7">
+        <v>0</v>
+      </c>
+      <c r="P251" s="25">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="R251" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A252" s="25">
+        <v>6</v>
+      </c>
+      <c r="B252" s="25">
+        <v>120</v>
+      </c>
+      <c r="C252" s="25">
+        <v>30</v>
+      </c>
+      <c r="D252" s="7">
+        <f t="shared" si="30"/>
+        <v>90</v>
+      </c>
+      <c r="E252" s="7">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="M252" s="7">
+        <v>90</v>
+      </c>
+      <c r="N252" s="25">
+        <f t="shared" si="31"/>
+        <v>4.05</v>
+      </c>
+      <c r="O252" s="7">
+        <v>0</v>
+      </c>
+      <c r="P252" s="25">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="R252" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A253" s="25">
+        <v>7</v>
+      </c>
+      <c r="B253" s="25">
+        <v>220</v>
+      </c>
+      <c r="C253" s="25">
+        <v>30</v>
+      </c>
+      <c r="D253" s="7">
+        <f t="shared" si="30"/>
+        <v>190</v>
+      </c>
+      <c r="E253" s="7">
+        <v>0.08</v>
+      </c>
+      <c r="M253" s="7">
+        <v>150</v>
+      </c>
+      <c r="N253" s="25">
+        <f t="shared" si="31"/>
+        <v>12</v>
+      </c>
+      <c r="O253" s="7">
+        <v>0</v>
+      </c>
+      <c r="P253" s="25">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="R253" s="7">
+        <v>0</v>
+      </c>
+      <c r="S253" s="7">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="254" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A254" s="25">
+        <v>8</v>
+      </c>
+      <c r="B254" s="25">
+        <v>200</v>
+      </c>
+      <c r="C254" s="25">
+        <v>30</v>
+      </c>
+      <c r="D254" s="7">
+        <f t="shared" si="30"/>
+        <v>170</v>
+      </c>
+      <c r="E254" s="7">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M254" s="7">
+        <v>150</v>
+      </c>
+      <c r="N254" s="25">
+        <f t="shared" si="31"/>
+        <v>10.500000000000002</v>
+      </c>
+      <c r="O254" s="7">
+        <v>0</v>
+      </c>
+      <c r="P254" s="25">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="R254" s="7">
+        <v>0</v>
+      </c>
+      <c r="S254" s="7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="255" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A255" s="25">
+        <v>9</v>
+      </c>
+      <c r="B255" s="25">
+        <v>480</v>
+      </c>
+      <c r="C255" s="25">
+        <v>30</v>
+      </c>
+      <c r="D255" s="7">
+        <f t="shared" si="30"/>
+        <v>450</v>
+      </c>
+      <c r="E255" s="7">
+        <v>0.03</v>
+      </c>
+      <c r="M255" s="7">
+        <v>150</v>
+      </c>
+      <c r="N255" s="25">
+        <f t="shared" si="31"/>
+        <v>4.5</v>
+      </c>
+      <c r="O255" s="7">
+        <v>0</v>
+      </c>
+      <c r="P255" s="25">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="R255" s="7">
+        <v>0</v>
+      </c>
+      <c r="S255" s="7">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="256" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A256" s="25">
+        <v>10</v>
+      </c>
+      <c r="B256" s="25">
+        <v>500</v>
+      </c>
+      <c r="C256" s="25">
+        <v>30</v>
+      </c>
+      <c r="D256" s="7">
+        <f t="shared" si="30"/>
+        <v>470</v>
+      </c>
+      <c r="E256" s="7">
+        <v>-0.01</v>
+      </c>
+      <c r="G256" s="16"/>
+      <c r="M256" s="7">
+        <v>0</v>
+      </c>
+      <c r="N256" s="25">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="O256" s="7">
+        <v>0</v>
+      </c>
+      <c r="P256" s="25">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="R256" s="7">
+        <v>0</v>
+      </c>
+      <c r="S256" s="7">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="257" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A257" s="25">
+        <v>11</v>
+      </c>
+      <c r="B257" s="25">
+        <v>500</v>
+      </c>
+      <c r="C257" s="25">
+        <v>30</v>
+      </c>
+      <c r="D257" s="7">
+        <f t="shared" si="30"/>
+        <v>470</v>
+      </c>
+      <c r="E257" s="7">
+        <v>-0.02</v>
+      </c>
+      <c r="M257" s="7">
+        <v>0</v>
+      </c>
+      <c r="N257" s="25">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="O257" s="7">
+        <v>0</v>
+      </c>
+      <c r="P257" s="25">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="R257" s="7">
+        <v>0</v>
+      </c>
+      <c r="S257" s="7">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="258" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A258" s="25">
+        <v>12</v>
+      </c>
+      <c r="B258" s="25">
+        <v>160</v>
+      </c>
+      <c r="C258" s="25">
+        <v>30</v>
+      </c>
+      <c r="D258" s="7">
+        <f t="shared" si="30"/>
+        <v>130</v>
+      </c>
+      <c r="E258" s="7">
+        <v>0</v>
+      </c>
+      <c r="M258" s="7">
+        <v>130</v>
+      </c>
+      <c r="N258" s="25">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="O258" s="7">
+        <v>0</v>
+      </c>
+      <c r="P258" s="25">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="R258" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A259" s="25">
+        <v>13</v>
+      </c>
+      <c r="B259" s="25">
+        <v>500</v>
+      </c>
+      <c r="C259" s="25">
+        <v>30</v>
+      </c>
+      <c r="D259" s="7">
+        <f t="shared" si="30"/>
+        <v>470</v>
+      </c>
+      <c r="E259" s="7">
+        <v>0</v>
+      </c>
+      <c r="M259" s="7">
+        <v>150</v>
+      </c>
+      <c r="N259" s="25">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="O259" s="7">
+        <v>0</v>
+      </c>
+      <c r="P259" s="25">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="R259" s="7">
+        <v>0</v>
+      </c>
+      <c r="S259" s="7">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="260" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A260" s="25">
+        <v>14</v>
+      </c>
+      <c r="B260" s="25">
+        <v>480</v>
+      </c>
+      <c r="C260" s="25">
+        <v>30</v>
+      </c>
+      <c r="D260" s="7">
+        <f t="shared" si="30"/>
+        <v>450</v>
+      </c>
+      <c r="E260" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="M260" s="7">
+        <v>150</v>
+      </c>
+      <c r="N260" s="25">
+        <f t="shared" si="31"/>
+        <v>1.5</v>
+      </c>
+      <c r="O260" s="7">
+        <v>0</v>
+      </c>
+      <c r="P260" s="25">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="R260" s="7">
+        <v>0</v>
+      </c>
+      <c r="S260" s="7">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="261" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A261" s="25">
+        <v>15</v>
+      </c>
+      <c r="B261" s="25">
+        <v>150</v>
+      </c>
+      <c r="C261" s="25">
+        <v>30</v>
+      </c>
+      <c r="D261" s="7">
+        <f t="shared" si="30"/>
+        <v>120</v>
+      </c>
+      <c r="E261" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="M261" s="7">
+        <v>120</v>
+      </c>
+      <c r="N261" s="25">
+        <f t="shared" si="31"/>
+        <v>2.4</v>
+      </c>
+      <c r="O261" s="7">
+        <v>0</v>
+      </c>
+      <c r="P261" s="25">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="R261" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A262" s="25">
+        <v>16</v>
+      </c>
+      <c r="B262" s="25">
+        <v>140</v>
+      </c>
+      <c r="C262" s="25">
+        <v>30</v>
+      </c>
+      <c r="D262" s="7">
+        <f t="shared" si="30"/>
+        <v>110</v>
+      </c>
+      <c r="E262" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="G262" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="I262" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="J262" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="M262" s="7">
+        <v>110</v>
+      </c>
+      <c r="N262" s="25">
+        <f t="shared" si="31"/>
+        <v>11</v>
+      </c>
+      <c r="O262" s="7">
+        <v>0</v>
+      </c>
+      <c r="P262" s="25">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="R262" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A263" s="25">
+        <v>17</v>
+      </c>
+      <c r="B263" s="25">
+        <v>190</v>
+      </c>
+      <c r="C263" s="25">
+        <v>30</v>
+      </c>
+      <c r="D263" s="7">
+        <f t="shared" si="30"/>
+        <v>160</v>
+      </c>
+      <c r="E263" s="7">
+        <v>0.11</v>
+      </c>
+      <c r="M263" s="7">
+        <v>150</v>
+      </c>
+      <c r="N263" s="25">
+        <f t="shared" si="31"/>
+        <v>16.5</v>
+      </c>
+      <c r="O263" s="7">
+        <v>0</v>
+      </c>
+      <c r="P263" s="25">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="R263" s="7">
+        <v>0</v>
+      </c>
+      <c r="S263" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="264" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A264" s="25">
+        <v>18</v>
+      </c>
+      <c r="B264" s="25">
+        <v>80</v>
+      </c>
+      <c r="C264" s="25">
+        <v>30</v>
+      </c>
+      <c r="D264" s="7">
+        <f t="shared" si="30"/>
+        <v>50</v>
+      </c>
+      <c r="E264" s="7">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="M264" s="7">
+        <v>50</v>
+      </c>
+      <c r="N264" s="25">
+        <f t="shared" si="31"/>
+        <v>7.0000000000000009</v>
+      </c>
+      <c r="O264" s="7">
+        <v>0</v>
+      </c>
+      <c r="P264" s="25">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="R264" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A265" s="25">
+        <v>19</v>
+      </c>
+      <c r="B265" s="25">
+        <v>20</v>
+      </c>
+      <c r="C265" s="25">
+        <v>30</v>
+      </c>
+      <c r="D265" s="7">
+        <f t="shared" si="30"/>
+        <v>-10</v>
+      </c>
+      <c r="E265" s="7">
+        <v>0.15</v>
+      </c>
+      <c r="M265" s="7">
+        <v>0</v>
+      </c>
+      <c r="N265" s="25">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="O265" s="7">
+        <v>10</v>
+      </c>
+      <c r="P265" s="25">
+        <f t="shared" si="32"/>
+        <v>1</v>
+      </c>
+      <c r="Q265" s="24"/>
+      <c r="R265" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A266" s="25">
+        <v>20</v>
+      </c>
+      <c r="B266" s="25">
+        <v>0</v>
+      </c>
+      <c r="C266" s="25">
+        <v>30</v>
+      </c>
+      <c r="D266" s="7">
+        <f t="shared" si="30"/>
+        <v>-30</v>
+      </c>
+      <c r="E266" s="7">
+        <v>0.09</v>
+      </c>
+      <c r="M266" s="7">
+        <v>0</v>
+      </c>
+      <c r="N266" s="25">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="O266" s="7">
+        <v>30</v>
+      </c>
+      <c r="P266" s="25">
+        <f t="shared" si="32"/>
+        <v>3</v>
+      </c>
+      <c r="Q266" s="24"/>
+      <c r="R266" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A267" s="25">
+        <v>21</v>
+      </c>
+      <c r="B267" s="25">
+        <v>0</v>
+      </c>
+      <c r="C267" s="25">
+        <v>30</v>
+      </c>
+      <c r="D267" s="7">
+        <f t="shared" si="30"/>
+        <v>-30</v>
+      </c>
+      <c r="E267" s="7">
+        <v>0.16</v>
+      </c>
+      <c r="M267" s="7">
+        <v>0</v>
+      </c>
+      <c r="N267" s="25">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="O267" s="7">
+        <v>30</v>
+      </c>
+      <c r="P267" s="25">
+        <f t="shared" si="32"/>
+        <v>3</v>
+      </c>
+      <c r="Q267" s="24"/>
+      <c r="R267" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A268" s="25">
+        <v>22</v>
+      </c>
+      <c r="B268" s="25">
+        <v>0</v>
+      </c>
+      <c r="C268" s="25">
+        <v>30</v>
+      </c>
+      <c r="D268" s="7">
+        <f t="shared" si="30"/>
+        <v>-30</v>
+      </c>
+      <c r="E268" s="7">
+        <v>0.15</v>
+      </c>
+      <c r="M268" s="7">
+        <v>0</v>
+      </c>
+      <c r="N268" s="25">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="O268" s="7">
+        <v>30</v>
+      </c>
+      <c r="P268" s="25">
+        <f t="shared" si="32"/>
+        <v>3</v>
+      </c>
+      <c r="Q268" s="28"/>
+      <c r="R268" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A269" s="25">
+        <v>23</v>
+      </c>
+      <c r="B269" s="25">
+        <v>0</v>
+      </c>
+      <c r="C269" s="25">
+        <v>30</v>
+      </c>
+      <c r="D269" s="7">
+        <f t="shared" si="30"/>
+        <v>-30</v>
+      </c>
+      <c r="E269" s="7">
+        <v>0.13</v>
+      </c>
+      <c r="M269" s="7">
+        <v>0</v>
+      </c>
+      <c r="N269" s="25">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="O269" s="7">
+        <v>30</v>
+      </c>
+      <c r="P269" s="25">
+        <f t="shared" si="32"/>
+        <v>3</v>
+      </c>
+      <c r="R269" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M270" s="20">
+        <f>SUM(M246:M269)</f>
+        <v>1410</v>
+      </c>
+      <c r="N270" s="20">
+        <f t="shared" ref="N270:P270" si="33">SUM(N246:N269)</f>
+        <v>70.45</v>
+      </c>
+      <c r="O270" s="20">
+        <f t="shared" si="33"/>
+        <v>275</v>
+      </c>
+      <c r="P270" s="20">
+        <f t="shared" si="33"/>
+        <v>27.5</v>
+      </c>
+      <c r="Q270" s="21"/>
+      <c r="R270" s="17">
+        <v>0</v>
+      </c>
+      <c r="S270" s="23">
+        <f>SUM(S246:S269)</f>
+        <v>1930</v>
+      </c>
+    </row>
+    <row r="271" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Q271" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="272" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Q272" s="7">
+        <v>510</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/PvPlantPlanner/Docs/UnitTestsExamples.xlsx
+++ b/PvPlantPlanner/Docs/UnitTestsExamples.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nikola.koprivica\Documents\0_MyDoc\PvPlantPlanner\PvPlantPlanner\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76B8A639-A7DD-4CA3-84D3-759CA5584ECB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31DF4E57-D5C4-442C-923C-7EACE59B756B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15270" activeTab="1" xr2:uid="{CC43E566-94BC-4A10-953F-51F79849A741}"/>
+    <workbookView xWindow="-19310" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{CC43E566-94BC-4A10-953F-51F79849A741}"/>
   </bookViews>
   <sheets>
     <sheet name="Charging" sheetId="2" r:id="rId1"/>
@@ -427,7 +427,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -443,6 +443,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -520,7 +526,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -604,6 +610,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -945,14 +963,14 @@
       <selection activeCell="M161" sqref="M161"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="8" width="9.140625" style="7"/>
+    <col min="2" max="2" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="9.109375" style="7"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B2" s="9" t="s">
         <v>15</v>
       </c>
@@ -960,7 +978,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D4" s="1" t="s">
         <v>0</v>
       </c>
@@ -976,7 +994,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
@@ -995,7 +1013,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="10">
         <v>60</v>
       </c>
@@ -1003,13 +1021,13 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
     </row>
-    <row r="8" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="1" t="s">
         <v>8</v>
       </c>
@@ -1018,7 +1036,7 @@
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
     </row>
-    <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="10">
         <v>20</v>
       </c>
@@ -1040,7 +1058,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D10" s="1" t="s">
         <v>2</v>
       </c>
@@ -1056,7 +1074,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="11"/>
       <c r="B12" s="12"/>
       <c r="C12" s="11"/>
@@ -1068,7 +1086,7 @@
       <c r="I12" s="11"/>
       <c r="J12" s="11"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B14" s="9" t="s">
         <v>15</v>
       </c>
@@ -1076,7 +1094,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D16" s="1" t="s">
         <v>0</v>
       </c>
@@ -1092,7 +1110,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="1" t="s">
         <v>7</v>
       </c>
@@ -1111,7 +1129,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="10">
         <v>130</v>
       </c>
@@ -1119,13 +1137,13 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
     </row>
-    <row r="20" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="1" t="s">
         <v>8</v>
       </c>
@@ -1134,7 +1152,7 @@
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
     </row>
-    <row r="21" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B21" s="10">
         <v>20</v>
       </c>
@@ -1156,7 +1174,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D22" s="1" t="s">
         <v>2</v>
       </c>
@@ -1172,7 +1190,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="11"/>
       <c r="B24" s="12"/>
       <c r="C24" s="11"/>
@@ -1184,7 +1202,7 @@
       <c r="I24" s="11"/>
       <c r="J24" s="11"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B26" s="9" t="s">
         <v>15</v>
       </c>
@@ -1192,7 +1210,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D28" s="1" t="s">
         <v>0</v>
       </c>
@@ -1208,7 +1226,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B29" s="1" t="s">
         <v>7</v>
       </c>
@@ -1227,7 +1245,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B30" s="10">
         <v>35</v>
       </c>
@@ -1235,13 +1253,13 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
       <c r="G31" s="5"/>
       <c r="H31" s="5"/>
     </row>
-    <row r="32" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B32" s="1" t="s">
         <v>8</v>
       </c>
@@ -1250,7 +1268,7 @@
       <c r="G32" s="5"/>
       <c r="H32" s="5"/>
     </row>
-    <row r="33" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B33" s="10">
         <v>0</v>
       </c>
@@ -1272,7 +1290,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D34" s="1" t="s">
         <v>2</v>
       </c>
@@ -1288,7 +1306,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="11"/>
       <c r="B36" s="12"/>
       <c r="C36" s="11"/>
@@ -1300,7 +1318,7 @@
       <c r="I36" s="11"/>
       <c r="J36" s="11"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B38" s="9" t="s">
         <v>15</v>
       </c>
@@ -1308,7 +1326,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D40" s="1" t="s">
         <v>0</v>
       </c>
@@ -1324,7 +1342,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B41" s="1" t="s">
         <v>7</v>
       </c>
@@ -1343,7 +1361,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B42" s="10">
         <v>30</v>
       </c>
@@ -1351,13 +1369,13 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
       <c r="G43" s="5"/>
       <c r="H43" s="5"/>
     </row>
-    <row r="44" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B44" s="1" t="s">
         <v>8</v>
       </c>
@@ -1366,7 +1384,7 @@
       <c r="G44" s="5"/>
       <c r="H44" s="5"/>
     </row>
-    <row r="45" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B45" s="10">
         <v>10</v>
       </c>
@@ -1388,7 +1406,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D46" s="1" t="s">
         <v>2</v>
       </c>
@@ -1404,7 +1422,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="11"/>
       <c r="B48" s="12"/>
       <c r="C48" s="11"/>
@@ -1416,7 +1434,7 @@
       <c r="I48" s="11"/>
       <c r="J48" s="11"/>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B50" s="9" t="s">
         <v>15</v>
       </c>
@@ -1424,7 +1442,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D52" s="1" t="s">
         <v>0</v>
       </c>
@@ -1440,7 +1458,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B53" s="1" t="s">
         <v>7</v>
       </c>
@@ -1459,7 +1477,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B54" s="10">
         <v>40</v>
       </c>
@@ -1467,13 +1485,13 @@
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
       <c r="G55" s="5"/>
       <c r="H55" s="5"/>
     </row>
-    <row r="56" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B56" s="1" t="s">
         <v>8</v>
       </c>
@@ -1482,7 +1500,7 @@
       <c r="G56" s="5"/>
       <c r="H56" s="5"/>
     </row>
-    <row r="57" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B57" s="10">
         <v>40</v>
       </c>
@@ -1504,7 +1522,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D58" s="1" t="s">
         <v>2</v>
       </c>
@@ -1520,7 +1538,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="11"/>
       <c r="B60" s="12"/>
       <c r="C60" s="11"/>
@@ -1532,7 +1550,7 @@
       <c r="I60" s="11"/>
       <c r="J60" s="11"/>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B62" s="9" t="s">
         <v>15</v>
       </c>
@@ -1540,7 +1558,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D64" s="1" t="s">
         <v>0</v>
       </c>
@@ -1556,7 +1574,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B65" s="1" t="s">
         <v>7</v>
       </c>
@@ -1575,7 +1593,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B66" s="10">
         <v>35</v>
       </c>
@@ -1583,13 +1601,13 @@
         <v>9</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E67" s="2"/>
       <c r="F67" s="2"/>
       <c r="G67" s="5"/>
       <c r="H67" s="5"/>
     </row>
-    <row r="68" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B68" s="1" t="s">
         <v>8</v>
       </c>
@@ -1598,7 +1616,7 @@
       <c r="G68" s="5"/>
       <c r="H68" s="5"/>
     </row>
-    <row r="69" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B69" s="10">
         <v>20</v>
       </c>
@@ -1620,7 +1638,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="70" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D70" s="1" t="s">
         <v>2</v>
       </c>
@@ -1636,7 +1654,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="72" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="11"/>
       <c r="B72" s="12"/>
       <c r="C72" s="11"/>
@@ -1648,7 +1666,7 @@
       <c r="I72" s="11"/>
       <c r="J72" s="11"/>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B74" s="9" t="s">
         <v>15</v>
       </c>
@@ -1656,7 +1674,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D76" s="1" t="s">
         <v>0</v>
       </c>
@@ -1676,7 +1694,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="77" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B77" s="1" t="s">
         <v>7</v>
       </c>
@@ -1699,7 +1717,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="78" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B78" s="10">
         <v>40</v>
       </c>
@@ -1707,13 +1725,13 @@
         <v>9</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E79" s="2"/>
       <c r="F79" s="2"/>
       <c r="G79" s="5"/>
       <c r="H79" s="5"/>
     </row>
-    <row r="80" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B80" s="1" t="s">
         <v>8</v>
       </c>
@@ -1722,7 +1740,7 @@
       <c r="G80" s="5"/>
       <c r="H80" s="5"/>
     </row>
-    <row r="81" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B81" s="10">
         <v>40</v>
       </c>
@@ -1748,7 +1766,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="82" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D82" s="1" t="s">
         <v>2</v>
       </c>
@@ -1768,7 +1786,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="84" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="11"/>
       <c r="B84" s="12"/>
       <c r="C84" s="11"/>
@@ -1780,7 +1798,7 @@
       <c r="I84" s="11"/>
       <c r="J84" s="11"/>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B86" s="9" t="s">
         <v>15</v>
       </c>
@@ -1788,7 +1806,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D88" s="1" t="s">
         <v>0</v>
       </c>
@@ -1808,7 +1826,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="89" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B89" s="1" t="s">
         <v>7</v>
       </c>
@@ -1831,7 +1849,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="90" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B90" s="10">
         <v>120</v>
       </c>
@@ -1839,13 +1857,13 @@
         <v>9</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E91" s="2"/>
       <c r="F91" s="2"/>
       <c r="G91" s="5"/>
       <c r="H91" s="5"/>
     </row>
-    <row r="92" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B92" s="1" t="s">
         <v>8</v>
       </c>
@@ -1854,7 +1872,7 @@
       <c r="G92" s="5"/>
       <c r="H92" s="5"/>
     </row>
-    <row r="93" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B93" s="10">
         <v>60</v>
       </c>
@@ -1880,7 +1898,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="94" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D94" s="1" t="s">
         <v>2</v>
       </c>
@@ -1900,7 +1918,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="96" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A96" s="11"/>
       <c r="B96" s="12"/>
       <c r="C96" s="11"/>
@@ -1912,7 +1930,7 @@
       <c r="I96" s="11"/>
       <c r="J96" s="11"/>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B98" s="9" t="s">
         <v>15</v>
       </c>
@@ -1920,7 +1938,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D100" s="1" t="s">
         <v>0</v>
       </c>
@@ -1940,7 +1958,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="101" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B101" s="1" t="s">
         <v>7</v>
       </c>
@@ -1963,7 +1981,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="102" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B102" s="10">
         <v>50</v>
       </c>
@@ -1971,13 +1989,13 @@
         <v>9</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E103" s="2"/>
       <c r="F103" s="2"/>
       <c r="G103" s="5"/>
       <c r="H103" s="5"/>
     </row>
-    <row r="104" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B104" s="1" t="s">
         <v>8</v>
       </c>
@@ -1986,7 +2004,7 @@
       <c r="G104" s="5"/>
       <c r="H104" s="5"/>
     </row>
-    <row r="105" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B105" s="10">
         <v>50</v>
       </c>
@@ -2012,7 +2030,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="106" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D106" s="1" t="s">
         <v>2</v>
       </c>
@@ -2032,7 +2050,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="108" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A108" s="11"/>
       <c r="B108" s="12"/>
       <c r="C108" s="11"/>
@@ -2044,7 +2062,7 @@
       <c r="I108" s="11"/>
       <c r="J108" s="11"/>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B110" s="9" t="s">
         <v>15</v>
       </c>
@@ -2052,7 +2070,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D112" s="1" t="s">
         <v>0</v>
       </c>
@@ -2068,7 +2086,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="113" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B113" s="1" t="s">
         <v>7</v>
       </c>
@@ -2087,7 +2105,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="114" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B114" s="10">
         <v>60</v>
       </c>
@@ -2095,13 +2113,13 @@
         <v>9</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E115" s="2"/>
       <c r="F115" s="2"/>
       <c r="G115" s="5"/>
       <c r="H115" s="5"/>
     </row>
-    <row r="116" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B116" s="1" t="s">
         <v>8</v>
       </c>
@@ -2110,7 +2128,7 @@
       <c r="G116" s="5"/>
       <c r="H116" s="5"/>
     </row>
-    <row r="117" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B117" s="10">
         <v>30</v>
       </c>
@@ -2132,7 +2150,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="118" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D118" s="1" t="s">
         <v>2</v>
       </c>
@@ -2148,7 +2166,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="120" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A120" s="11"/>
       <c r="B120" s="12"/>
       <c r="C120" s="11"/>
@@ -2160,7 +2178,7 @@
       <c r="I120" s="11"/>
       <c r="J120" s="11"/>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B122" s="9" t="s">
         <v>15</v>
       </c>
@@ -2168,7 +2186,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D124" s="1" t="s">
         <v>0</v>
       </c>
@@ -2188,7 +2206,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="125" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B125" s="1" t="s">
         <v>7</v>
       </c>
@@ -2211,7 +2229,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="126" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B126" s="10">
         <v>100</v>
       </c>
@@ -2219,13 +2237,13 @@
         <v>9</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E127" s="2"/>
       <c r="F127" s="2"/>
       <c r="G127" s="5"/>
       <c r="H127" s="5"/>
     </row>
-    <row r="128" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B128" s="1" t="s">
         <v>8</v>
       </c>
@@ -2234,7 +2252,7 @@
       <c r="G128" s="5"/>
       <c r="H128" s="5"/>
     </row>
-    <row r="129" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B129" s="10">
         <v>40</v>
       </c>
@@ -2258,7 +2276,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="130" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D130" s="1" t="s">
         <v>2</v>
       </c>
@@ -2278,7 +2296,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="132" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A132" s="11"/>
       <c r="B132" s="12"/>
       <c r="C132" s="11"/>
@@ -2290,7 +2308,7 @@
       <c r="I132" s="11"/>
       <c r="J132" s="11"/>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B134" s="9" t="s">
         <v>15</v>
       </c>
@@ -2298,7 +2316,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D136" s="1" t="s">
         <v>0</v>
       </c>
@@ -2318,7 +2336,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="137" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B137" s="1" t="s">
         <v>7</v>
       </c>
@@ -2341,7 +2359,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="138" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B138" s="10">
         <v>70</v>
       </c>
@@ -2349,13 +2367,13 @@
         <v>9</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E139" s="2"/>
       <c r="F139" s="2"/>
       <c r="G139" s="5"/>
       <c r="H139" s="5"/>
     </row>
-    <row r="140" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B140" s="1" t="s">
         <v>8</v>
       </c>
@@ -2364,7 +2382,7 @@
       <c r="G140" s="5"/>
       <c r="H140" s="5"/>
     </row>
-    <row r="141" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B141" s="10">
         <v>25</v>
       </c>
@@ -2388,7 +2406,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="142" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D142" s="1" t="s">
         <v>2</v>
       </c>
@@ -2408,7 +2426,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="144" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A144" s="11"/>
       <c r="B144" s="12"/>
       <c r="C144" s="11"/>
@@ -2420,7 +2438,7 @@
       <c r="I144" s="11"/>
       <c r="J144" s="11"/>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B146" s="9" t="s">
         <v>15</v>
       </c>
@@ -2428,7 +2446,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D148" s="1" t="s">
         <v>0</v>
       </c>
@@ -2448,7 +2466,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="149" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B149" s="1" t="s">
         <v>7</v>
       </c>
@@ -2471,7 +2489,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="150" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B150" s="10">
         <v>30</v>
       </c>
@@ -2479,13 +2497,13 @@
         <v>9</v>
       </c>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E151" s="2"/>
       <c r="F151" s="2"/>
       <c r="G151" s="5"/>
       <c r="H151" s="5"/>
     </row>
-    <row r="152" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B152" s="1" t="s">
         <v>8</v>
       </c>
@@ -2494,7 +2512,7 @@
       <c r="G152" s="5"/>
       <c r="H152" s="5"/>
     </row>
-    <row r="153" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B153" s="10">
         <v>30</v>
       </c>
@@ -2518,7 +2536,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="154" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D154" s="1" t="s">
         <v>2</v>
       </c>
@@ -2538,7 +2556,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="156" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A156" s="11"/>
       <c r="B156" s="12"/>
       <c r="C156" s="11"/>
@@ -2550,7 +2568,7 @@
       <c r="I156" s="11"/>
       <c r="J156" s="11"/>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B158" s="9" t="s">
         <v>15</v>
       </c>
@@ -2558,7 +2576,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D160" s="1" t="s">
         <v>0</v>
       </c>
@@ -2578,7 +2596,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="161" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B161" s="1" t="s">
         <v>7</v>
       </c>
@@ -2601,7 +2619,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="162" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B162" s="10">
         <v>30</v>
       </c>
@@ -2609,13 +2627,13 @@
         <v>9</v>
       </c>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E163" s="2"/>
       <c r="F163" s="2"/>
       <c r="G163" s="5"/>
       <c r="H163" s="5"/>
     </row>
-    <row r="164" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B164" s="1" t="s">
         <v>8</v>
       </c>
@@ -2624,7 +2642,7 @@
       <c r="G164" s="5"/>
       <c r="H164" s="5"/>
     </row>
-    <row r="165" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B165" s="10">
         <v>25</v>
       </c>
@@ -2648,7 +2666,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="166" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D166" s="1" t="s">
         <v>2</v>
       </c>
@@ -2668,7 +2686,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="168" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A168" s="11"/>
       <c r="B168" s="12"/>
       <c r="C168" s="11"/>
@@ -2690,33 +2708,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3004405F-278A-41B0-B16A-948CDB79AC5D}">
   <dimension ref="A1:S272"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A240" workbookViewId="0">
-      <selection activeCell="M257" sqref="M257"/>
+    <sheetView tabSelected="1" topLeftCell="B175" workbookViewId="0">
+      <selection activeCell="M175" sqref="M175"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.140625" style="25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.109375" style="25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" style="25" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" style="25" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="7"/>
-    <col min="5" max="5" width="10.42578125" style="7" customWidth="1"/>
-    <col min="6" max="7" width="9.140625" style="15"/>
-    <col min="8" max="8" width="11.42578125" style="15" customWidth="1"/>
-    <col min="9" max="12" width="9.140625" style="15"/>
-    <col min="13" max="16" width="9.140625" style="7"/>
-    <col min="17" max="17" width="9.5703125" style="7" customWidth="1"/>
-    <col min="19" max="19" width="9.140625" style="7"/>
-    <col min="20" max="16384" width="9.140625" style="15"/>
+    <col min="3" max="3" width="11.33203125" style="25" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" style="7"/>
+    <col min="5" max="5" width="10.44140625" style="7" customWidth="1"/>
+    <col min="6" max="7" width="9.109375" style="15"/>
+    <col min="8" max="8" width="11.44140625" style="15" customWidth="1"/>
+    <col min="9" max="12" width="9.109375" style="15"/>
+    <col min="13" max="16" width="9.109375" style="7"/>
+    <col min="17" max="17" width="9.5546875" style="7" customWidth="1"/>
+    <col min="18" max="18" width="8.88671875"/>
+    <col min="19" max="19" width="9.109375" style="7"/>
+    <col min="20" max="16384" width="9.109375" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="E1" s="26" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:18" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:18" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="25" t="s">
         <v>24</v>
       </c>
@@ -2748,7 +2767,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="25">
         <v>0</v>
       </c>
@@ -2780,7 +2799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="25">
         <v>1</v>
       </c>
@@ -2815,7 +2834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="25">
         <v>2</v>
       </c>
@@ -2856,7 +2875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="25">
         <v>3</v>
       </c>
@@ -2888,7 +2907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="25">
         <v>4</v>
       </c>
@@ -2929,7 +2948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="25">
         <v>5</v>
       </c>
@@ -2961,7 +2980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="25">
         <v>6</v>
       </c>
@@ -2993,7 +3012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="25">
         <v>7</v>
       </c>
@@ -3025,7 +3044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="25">
         <v>8</v>
       </c>
@@ -3057,7 +3076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" s="25">
         <v>9</v>
       </c>
@@ -3089,7 +3108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="25">
         <v>10</v>
       </c>
@@ -3124,7 +3143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" s="25">
         <v>11</v>
       </c>
@@ -3165,7 +3184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" s="25">
         <v>12</v>
       </c>
@@ -3206,7 +3225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" s="25">
         <v>13</v>
       </c>
@@ -3247,7 +3266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18" s="25">
         <v>14</v>
       </c>
@@ -3279,7 +3298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19" s="25">
         <v>15</v>
       </c>
@@ -3311,7 +3330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20" s="25">
         <v>16</v>
       </c>
@@ -3343,7 +3362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21" s="25">
         <v>17</v>
       </c>
@@ -3375,7 +3394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A22" s="25">
         <v>18</v>
       </c>
@@ -3407,7 +3426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A23" s="25">
         <v>19</v>
       </c>
@@ -3439,7 +3458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A24" s="25">
         <v>20</v>
       </c>
@@ -3471,7 +3490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A25" s="25">
         <v>21</v>
       </c>
@@ -3503,7 +3522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A26" s="25">
         <v>22</v>
       </c>
@@ -3535,7 +3554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="25">
         <v>23</v>
       </c>
@@ -3567,7 +3586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="M28" s="20">
         <f>SUM(M4:M27)</f>
         <v>280</v>
@@ -3590,13 +3609,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
       <c r="E33" s="26" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="34" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="35" spans="1:19" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="35" spans="1:19" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="25" t="s">
         <v>24</v>
       </c>
@@ -3631,7 +3650,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A36" s="25">
         <v>0</v>
       </c>
@@ -3663,7 +3682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A37" s="25">
         <v>1</v>
       </c>
@@ -3698,7 +3717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A38" s="25">
         <v>2</v>
       </c>
@@ -3739,7 +3758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A39" s="25">
         <v>3</v>
       </c>
@@ -3771,7 +3790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A40" s="25">
         <v>4</v>
       </c>
@@ -3812,7 +3831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A41" s="25">
         <v>5</v>
       </c>
@@ -3844,7 +3863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A42" s="25">
         <v>6</v>
       </c>
@@ -3876,7 +3895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A43" s="25">
         <v>7</v>
       </c>
@@ -3908,7 +3927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A44" s="25">
         <v>8</v>
       </c>
@@ -3940,7 +3959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A45" s="25">
         <v>9</v>
       </c>
@@ -3975,7 +3994,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A46" s="25">
         <v>10</v>
       </c>
@@ -4016,7 +4035,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A47" s="25">
         <v>11</v>
       </c>
@@ -4063,7 +4082,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A48" s="25">
         <v>12</v>
       </c>
@@ -4107,7 +4126,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A49" s="25">
         <v>13</v>
       </c>
@@ -4151,7 +4170,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A50" s="25">
         <v>14</v>
       </c>
@@ -4186,7 +4205,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A51" s="25">
         <v>15</v>
       </c>
@@ -4221,7 +4240,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A52" s="25">
         <v>16</v>
       </c>
@@ -4256,7 +4275,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A53" s="25">
         <v>17</v>
       </c>
@@ -4291,7 +4310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A54" s="25">
         <v>18</v>
       </c>
@@ -4323,7 +4342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A55" s="25">
         <v>19</v>
       </c>
@@ -4355,7 +4374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A56" s="25">
         <v>20</v>
       </c>
@@ -4387,7 +4406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A57" s="25">
         <v>21</v>
       </c>
@@ -4419,7 +4438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A58" s="25">
         <v>22</v>
       </c>
@@ -4451,7 +4470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="25">
         <v>23</v>
       </c>
@@ -4483,7 +4502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="M60" s="20">
         <f>SUM(M36:M59)</f>
         <v>1360</v>
@@ -4509,23 +4528,23 @@
         <v>200</v>
       </c>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.3">
       <c r="Q61" s="7" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.3">
       <c r="Q62" s="7">
         <v>100</v>
       </c>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:19" x14ac:dyDescent="0.3">
       <c r="E68" s="26" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="69" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="70" spans="1:19" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="70" spans="1:19" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="25" t="s">
         <v>24</v>
       </c>
@@ -4560,7 +4579,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A71" s="25">
         <v>0</v>
       </c>
@@ -4592,7 +4611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A72" s="25">
         <v>1</v>
       </c>
@@ -4627,7 +4646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A73" s="25">
         <v>2</v>
       </c>
@@ -4668,7 +4687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A74" s="25">
         <v>3</v>
       </c>
@@ -4700,7 +4719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A75" s="25">
         <v>4</v>
       </c>
@@ -4741,7 +4760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A76" s="25">
         <v>5</v>
       </c>
@@ -4773,7 +4792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A77" s="25">
         <v>6</v>
       </c>
@@ -4805,7 +4824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A78" s="25">
         <v>7</v>
       </c>
@@ -4837,7 +4856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A79" s="25">
         <v>8</v>
       </c>
@@ -4869,7 +4888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A80" s="25">
         <v>9</v>
       </c>
@@ -4904,7 +4923,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A81" s="25">
         <v>10</v>
       </c>
@@ -4942,7 +4961,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A82" s="25">
         <v>11</v>
       </c>
@@ -4989,7 +5008,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A83" s="25">
         <v>12</v>
       </c>
@@ -5039,7 +5058,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A84" s="25">
         <v>13</v>
       </c>
@@ -5083,7 +5102,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A85" s="25">
         <v>14</v>
       </c>
@@ -5118,7 +5137,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A86" s="25">
         <v>15</v>
       </c>
@@ -5153,7 +5172,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A87" s="25">
         <v>16</v>
       </c>
@@ -5188,7 +5207,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A88" s="25">
         <v>17</v>
       </c>
@@ -5223,7 +5242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A89" s="25">
         <v>18</v>
       </c>
@@ -5255,7 +5274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A90" s="25">
         <v>19</v>
       </c>
@@ -5287,7 +5306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A91" s="25">
         <v>20</v>
       </c>
@@ -5319,7 +5338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A92" s="25">
         <v>21</v>
       </c>
@@ -5351,7 +5370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A93" s="25">
         <v>22</v>
       </c>
@@ -5383,7 +5402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="25">
         <v>23</v>
       </c>
@@ -5415,7 +5434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="M95" s="20">
         <f>SUM(M71:M94)</f>
         <v>1460</v>
@@ -5441,23 +5460,23 @@
         <v>100</v>
       </c>
     </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:19" x14ac:dyDescent="0.3">
       <c r="Q96" s="7" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:19" x14ac:dyDescent="0.3">
       <c r="Q97" s="7">
         <v>200</v>
       </c>
     </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:19" x14ac:dyDescent="0.3">
       <c r="E103" s="26" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="104" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="105" spans="1:19" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="105" spans="1:19" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A105" s="25" t="s">
         <v>24</v>
       </c>
@@ -5495,7 +5514,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A106" s="25">
         <v>0</v>
       </c>
@@ -5530,7 +5549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A107" s="25">
         <v>1</v>
       </c>
@@ -5568,7 +5587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A108" s="25">
         <v>2</v>
       </c>
@@ -5612,7 +5631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A109" s="25">
         <v>3</v>
       </c>
@@ -5647,7 +5666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A110" s="25">
         <v>4</v>
       </c>
@@ -5691,7 +5710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A111" s="25">
         <v>5</v>
       </c>
@@ -5726,7 +5745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A112" s="25">
         <v>6</v>
       </c>
@@ -5761,7 +5780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A113" s="25">
         <v>7</v>
       </c>
@@ -5796,7 +5815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A114" s="25">
         <v>8</v>
       </c>
@@ -5831,7 +5850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A115" s="25">
         <v>9</v>
       </c>
@@ -5869,7 +5888,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="116" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A116" s="25">
         <v>10</v>
       </c>
@@ -5910,7 +5929,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="117" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A117" s="25">
         <v>11</v>
       </c>
@@ -5963,7 +5982,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="118" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A118" s="25">
         <v>12</v>
       </c>
@@ -6013,7 +6032,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="119" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A119" s="25">
         <v>13</v>
       </c>
@@ -6060,7 +6079,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="120" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A120" s="25">
         <v>14</v>
       </c>
@@ -6098,7 +6117,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="121" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A121" s="25">
         <v>15</v>
       </c>
@@ -6133,7 +6152,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="122" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A122" s="25">
         <v>16</v>
       </c>
@@ -6177,7 +6196,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="123" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A123" s="25">
         <v>17</v>
       </c>
@@ -6224,7 +6243,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="124" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A124" s="25">
         <v>18</v>
       </c>
@@ -6262,7 +6281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A125" s="25">
         <v>19</v>
       </c>
@@ -6297,7 +6316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A126" s="25">
         <v>20</v>
       </c>
@@ -6332,7 +6351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A127" s="25">
         <v>21</v>
       </c>
@@ -6367,7 +6386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A128" s="25">
         <v>22</v>
       </c>
@@ -6402,7 +6421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A129" s="25">
         <v>23</v>
       </c>
@@ -6437,7 +6456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="M130" s="20">
         <f>SUM(M106:M129)</f>
         <v>1400</v>
@@ -6463,23 +6482,23 @@
         <v>140</v>
       </c>
     </row>
-    <row r="131" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:19" x14ac:dyDescent="0.3">
       <c r="Q131" s="7" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="132" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:19" x14ac:dyDescent="0.3">
       <c r="Q132" s="7">
         <v>180</v>
       </c>
     </row>
-    <row r="138" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:19" x14ac:dyDescent="0.3">
       <c r="E138" s="26" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="139" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="140" spans="1:19" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="140" spans="1:19" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A140" s="25" t="s">
         <v>24</v>
       </c>
@@ -6517,7 +6536,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="141" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A141" s="25">
         <v>0</v>
       </c>
@@ -6534,28 +6553,28 @@
       <c r="E141" s="7">
         <v>0.12</v>
       </c>
-      <c r="M141" s="7">
+      <c r="M141" s="31">
         <v>150</v>
       </c>
-      <c r="N141" s="25">
+      <c r="N141" s="32">
         <f xml:space="preserve"> M141*E141</f>
         <v>18</v>
       </c>
-      <c r="O141" s="7">
-        <v>0</v>
-      </c>
-      <c r="P141" s="25">
+      <c r="O141" s="31">
+        <v>0</v>
+      </c>
+      <c r="P141" s="32">
         <f>O141*$J$145</f>
         <v>0</v>
       </c>
-      <c r="Q141" s="24" t="s">
+      <c r="Q141" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="R141" s="7">
+      <c r="R141" s="31">
         <v>120</v>
       </c>
     </row>
-    <row r="142" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A142" s="25">
         <v>1</v>
       </c>
@@ -6575,28 +6594,28 @@
       <c r="G142" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="M142" s="7">
+      <c r="M142" s="31">
         <v>90</v>
       </c>
-      <c r="N142" s="25">
+      <c r="N142" s="32">
         <f t="shared" ref="N142:N164" si="19" xml:space="preserve"> M142*E142</f>
         <v>9</v>
       </c>
-      <c r="O142" s="7">
-        <v>0</v>
-      </c>
-      <c r="P142" s="25">
+      <c r="O142" s="31">
+        <v>0</v>
+      </c>
+      <c r="P142" s="32">
         <f t="shared" ref="P142:P164" si="20">O142*$J$145</f>
         <v>0</v>
       </c>
-      <c r="Q142" s="24" t="s">
+      <c r="Q142" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="R142" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="R142" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A143" s="25">
         <v>2</v>
       </c>
@@ -6640,7 +6659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A144" s="25">
         <v>3</v>
       </c>
@@ -6675,7 +6694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A145" s="25">
         <v>4</v>
       </c>
@@ -6719,7 +6738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A146" s="25">
         <v>5</v>
       </c>
@@ -6754,7 +6773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A147" s="25">
         <v>6</v>
       </c>
@@ -6789,7 +6808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A148" s="25">
         <v>7</v>
       </c>
@@ -6827,7 +6846,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="149" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A149" s="25">
         <v>8</v>
       </c>
@@ -6865,7 +6884,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="150" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A150" s="25">
         <v>9</v>
       </c>
@@ -6906,7 +6925,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="151" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A151" s="25">
         <v>10</v>
       </c>
@@ -6947,7 +6966,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="152" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A152" s="25">
         <v>11</v>
       </c>
@@ -6997,7 +7016,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="153" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A153" s="25">
         <v>12</v>
       </c>
@@ -7044,7 +7063,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="154" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A154" s="25">
         <v>13</v>
       </c>
@@ -7061,13 +7080,14 @@
       <c r="E154" s="7">
         <v>0</v>
       </c>
-      <c r="G154" s="15" t="s">
+      <c r="G154" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="I154" s="15">
+      <c r="H154" s="30"/>
+      <c r="I154" s="30">
         <v>300</v>
       </c>
-      <c r="J154" s="15" t="s">
+      <c r="J154" s="30" t="s">
         <v>9</v>
       </c>
       <c r="M154" s="7">
@@ -7091,7 +7111,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="155" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A155" s="25">
         <v>14</v>
       </c>
@@ -7129,7 +7149,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="156" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A156" s="25">
         <v>15</v>
       </c>
@@ -7167,7 +7187,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="157" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A157" s="25">
         <v>16</v>
       </c>
@@ -7214,7 +7234,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="158" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A158" s="25">
         <v>17</v>
       </c>
@@ -7258,7 +7278,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="159" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A159" s="25">
         <v>18</v>
       </c>
@@ -7296,7 +7316,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="160" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A160" s="25">
         <v>19</v>
       </c>
@@ -7334,7 +7354,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="161" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A161" s="25">
         <v>20</v>
       </c>
@@ -7372,7 +7392,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="162" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A162" s="25">
         <v>21</v>
       </c>
@@ -7410,7 +7430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A163" s="25">
         <v>22</v>
       </c>
@@ -7445,7 +7465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A164" s="25">
         <v>23</v>
       </c>
@@ -7480,7 +7500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="M165" s="20">
         <f>SUM(M141:M164)</f>
         <v>2450</v>
@@ -7506,23 +7526,23 @@
         <v>1660</v>
       </c>
     </row>
-    <row r="166" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:19" x14ac:dyDescent="0.3">
       <c r="Q166" s="7" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="167" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:19" x14ac:dyDescent="0.3">
       <c r="Q167" s="7">
         <v>670</v>
       </c>
     </row>
-    <row r="173" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:19" x14ac:dyDescent="0.3">
       <c r="E173" s="26" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="174" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="175" spans="1:19" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="175" spans="1:19" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A175" s="25" t="s">
         <v>24</v>
       </c>
@@ -7560,7 +7580,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="176" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A176" s="25">
         <v>0</v>
       </c>
@@ -7577,28 +7597,28 @@
       <c r="E176" s="7">
         <v>0.12</v>
       </c>
-      <c r="M176" s="7">
+      <c r="M176" s="31">
         <v>70</v>
       </c>
-      <c r="N176" s="25">
+      <c r="N176" s="32">
         <f xml:space="preserve"> M176*E176</f>
         <v>8.4</v>
       </c>
-      <c r="O176" s="7">
-        <v>0</v>
-      </c>
-      <c r="P176" s="25">
+      <c r="O176" s="31">
+        <v>0</v>
+      </c>
+      <c r="P176" s="32">
         <f>O176*$J$145</f>
         <v>0</v>
       </c>
-      <c r="Q176" s="24" t="s">
+      <c r="Q176" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="R176" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="R176" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A177" s="25">
         <v>1</v>
       </c>
@@ -7637,7 +7657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A178" s="25">
         <v>2</v>
       </c>
@@ -7681,7 +7701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A179" s="25">
         <v>3</v>
       </c>
@@ -7716,7 +7736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A180" s="25">
         <v>4</v>
       </c>
@@ -7760,7 +7780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A181" s="25">
         <v>5</v>
       </c>
@@ -7795,7 +7815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A182" s="25">
         <v>6</v>
       </c>
@@ -7833,7 +7853,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="183" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A183" s="25">
         <v>7</v>
       </c>
@@ -7871,7 +7891,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="184" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A184" s="25">
         <v>8</v>
       </c>
@@ -7909,7 +7929,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="185" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A185" s="25">
         <v>9</v>
       </c>
@@ -7950,7 +7970,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="186" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A186" s="25">
         <v>10</v>
       </c>
@@ -7994,7 +8014,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="187" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A187" s="25">
         <v>11</v>
       </c>
@@ -8044,7 +8064,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="188" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A188" s="25">
         <v>12</v>
       </c>
@@ -8091,7 +8111,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="189" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A189" s="25">
         <v>13</v>
       </c>
@@ -8108,13 +8128,14 @@
       <c r="E189" s="7">
         <v>0</v>
       </c>
-      <c r="G189" s="15" t="s">
+      <c r="G189" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="I189" s="15">
+      <c r="H189" s="30"/>
+      <c r="I189" s="30">
         <v>100</v>
       </c>
-      <c r="J189" s="15" t="s">
+      <c r="J189" s="30" t="s">
         <v>9</v>
       </c>
       <c r="M189" s="7">
@@ -8138,7 +8159,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="190" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A190" s="25">
         <v>14</v>
       </c>
@@ -8176,7 +8197,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="191" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A191" s="25">
         <v>15</v>
       </c>
@@ -8211,7 +8232,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="192" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A192" s="25">
         <v>16</v>
       </c>
@@ -8258,7 +8279,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="193" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A193" s="25">
         <v>17</v>
       </c>
@@ -8305,7 +8326,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="194" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A194" s="25">
         <v>18</v>
       </c>
@@ -8343,7 +8364,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="195" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A195" s="25">
         <v>19</v>
       </c>
@@ -8381,7 +8402,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="196" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A196" s="25">
         <v>20</v>
       </c>
@@ -8417,7 +8438,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="197" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A197" s="25">
         <v>21</v>
       </c>
@@ -8455,7 +8476,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="198" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A198" s="25">
         <v>22</v>
       </c>
@@ -8491,7 +8512,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="199" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A199" s="25">
         <v>23</v>
       </c>
@@ -8526,7 +8547,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="200" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="M200" s="20">
         <f>SUM(M176:M199)</f>
         <v>1830</v>
@@ -8552,23 +8573,23 @@
         <v>1510</v>
       </c>
     </row>
-    <row r="201" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:19" x14ac:dyDescent="0.3">
       <c r="Q201" s="7" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="202" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:19" x14ac:dyDescent="0.3">
       <c r="Q202" s="7">
         <v>510</v>
       </c>
     </row>
-    <row r="208" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:19" x14ac:dyDescent="0.3">
       <c r="F208" s="26" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="209" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="210" spans="1:19" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="210" spans="1:19" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A210" s="25" t="s">
         <v>24</v>
       </c>
@@ -8606,7 +8627,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="211" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A211" s="25">
         <v>0</v>
       </c>
@@ -8642,7 +8663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A212" s="25">
         <v>1</v>
       </c>
@@ -8681,7 +8702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A213" s="25">
         <v>2</v>
       </c>
@@ -8725,7 +8746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A214" s="25">
         <v>3</v>
       </c>
@@ -8760,7 +8781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A215" s="25">
         <v>4</v>
       </c>
@@ -8804,7 +8825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A216" s="25">
         <v>5</v>
       </c>
@@ -8839,7 +8860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A217" s="25">
         <v>6</v>
       </c>
@@ -8874,7 +8895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A218" s="25">
         <v>7</v>
       </c>
@@ -8912,7 +8933,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="219" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A219" s="25">
         <v>8</v>
       </c>
@@ -8950,7 +8971,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="220" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A220" s="25">
         <v>9</v>
       </c>
@@ -8988,7 +9009,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="221" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A221" s="25">
         <v>10</v>
       </c>
@@ -9027,7 +9048,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="222" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A222" s="25">
         <v>11</v>
       </c>
@@ -9065,7 +9086,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="223" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A223" s="25">
         <v>12</v>
       </c>
@@ -9100,7 +9121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A224" s="25">
         <v>13</v>
       </c>
@@ -9138,7 +9159,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="225" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A225" s="25">
         <v>14</v>
       </c>
@@ -9176,7 +9197,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="226" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A226" s="25">
         <v>15</v>
       </c>
@@ -9211,7 +9232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A227" s="25">
         <v>16</v>
       </c>
@@ -9255,7 +9276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A228" s="25">
         <v>17</v>
       </c>
@@ -9293,7 +9314,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="229" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A229" s="25">
         <v>18</v>
       </c>
@@ -9328,7 +9349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A230" s="25">
         <v>19</v>
       </c>
@@ -9364,7 +9385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A231" s="25">
         <v>20</v>
       </c>
@@ -9400,7 +9421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A232" s="25">
         <v>21</v>
       </c>
@@ -9436,7 +9457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A233" s="25">
         <v>22</v>
       </c>
@@ -9472,7 +9493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A234" s="25">
         <v>23</v>
       </c>
@@ -9507,7 +9528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="M235" s="20">
         <f>SUM(M211:M234)</f>
         <v>1710</v>
@@ -9533,23 +9554,23 @@
         <v>1630</v>
       </c>
     </row>
-    <row r="236" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:19" x14ac:dyDescent="0.3">
       <c r="Q236" s="7" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="237" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:19" x14ac:dyDescent="0.3">
       <c r="Q237" s="7">
         <v>510</v>
       </c>
     </row>
-    <row r="243" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:19" x14ac:dyDescent="0.3">
       <c r="F243" s="26" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="244" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="245" spans="1:19" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="245" spans="1:19" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A245" s="25" t="s">
         <v>24</v>
       </c>
@@ -9587,7 +9608,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="246" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A246" s="25">
         <v>0</v>
       </c>
@@ -9623,7 +9644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A247" s="25">
         <v>1</v>
       </c>
@@ -9662,7 +9683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A248" s="25">
         <v>2</v>
       </c>
@@ -9706,7 +9727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A249" s="25">
         <v>3</v>
       </c>
@@ -9741,7 +9762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A250" s="25">
         <v>4</v>
       </c>
@@ -9785,7 +9806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A251" s="25">
         <v>5</v>
       </c>
@@ -9820,7 +9841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A252" s="25">
         <v>6</v>
       </c>
@@ -9855,7 +9876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A253" s="25">
         <v>7</v>
       </c>
@@ -9893,7 +9914,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="254" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A254" s="25">
         <v>8</v>
       </c>
@@ -9931,7 +9952,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="255" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A255" s="25">
         <v>9</v>
       </c>
@@ -9969,7 +9990,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="256" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A256" s="25">
         <v>10</v>
       </c>
@@ -10008,7 +10029,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="257" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A257" s="25">
         <v>11</v>
       </c>
@@ -10046,7 +10067,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="258" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A258" s="25">
         <v>12</v>
       </c>
@@ -10081,7 +10102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A259" s="25">
         <v>13</v>
       </c>
@@ -10119,7 +10140,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="260" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A260" s="25">
         <v>14</v>
       </c>
@@ -10157,7 +10178,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="261" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A261" s="25">
         <v>15</v>
       </c>
@@ -10192,7 +10213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A262" s="25">
         <v>16</v>
       </c>
@@ -10236,7 +10257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A263" s="25">
         <v>17</v>
       </c>
@@ -10274,7 +10295,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="264" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A264" s="25">
         <v>18</v>
       </c>
@@ -10309,7 +10330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A265" s="25">
         <v>19</v>
       </c>
@@ -10345,7 +10366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A266" s="25">
         <v>20</v>
       </c>
@@ -10381,7 +10402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A267" s="25">
         <v>21</v>
       </c>
@@ -10417,7 +10438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A268" s="25">
         <v>22</v>
       </c>
@@ -10453,7 +10474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A269" s="25">
         <v>23</v>
       </c>
@@ -10488,7 +10509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="M270" s="20">
         <f>SUM(M246:M269)</f>
         <v>1410</v>
@@ -10514,12 +10535,12 @@
         <v>1930</v>
       </c>
     </row>
-    <row r="271" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:19" x14ac:dyDescent="0.3">
       <c r="Q271" s="7" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="272" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:19" x14ac:dyDescent="0.3">
       <c r="Q272" s="7">
         <v>510</v>
       </c>

--- a/PvPlantPlanner/Docs/UnitTestsExamples.xlsx
+++ b/PvPlantPlanner/Docs/UnitTestsExamples.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nikola.koprivica\Documents\0_MyDoc\PvPlantPlanner\PvPlantPlanner\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31DF4E57-D5C4-442C-923C-7EACE59B756B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B3BA65F-0A74-4DFF-9FBB-A59D84E672E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19310" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{CC43E566-94BC-4A10-953F-51F79849A741}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15270" activeTab="1" xr2:uid="{CC43E566-94BC-4A10-953F-51F79849A741}"/>
   </bookViews>
   <sheets>
     <sheet name="Charging" sheetId="2" r:id="rId1"/>
@@ -526,7 +526,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -623,6 +623,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -963,14 +964,14 @@
       <selection activeCell="M161" sqref="M161"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="8" width="9.109375" style="7"/>
+    <col min="2" max="2" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B2" s="9" t="s">
         <v>15</v>
       </c>
@@ -978,7 +979,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D4" s="1" t="s">
         <v>0</v>
       </c>
@@ -994,7 +995,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
@@ -1013,7 +1014,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="10">
         <v>60</v>
       </c>
@@ -1021,13 +1022,13 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
     </row>
-    <row r="8" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
         <v>8</v>
       </c>
@@ -1036,7 +1037,7 @@
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
     </row>
-    <row r="9" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="10">
         <v>20</v>
       </c>
@@ -1058,7 +1059,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D10" s="1" t="s">
         <v>2</v>
       </c>
@@ -1074,7 +1075,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="11"/>
       <c r="B12" s="12"/>
       <c r="C12" s="11"/>
@@ -1086,7 +1087,7 @@
       <c r="I12" s="11"/>
       <c r="J12" s="11"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B14" s="9" t="s">
         <v>15</v>
       </c>
@@ -1094,7 +1095,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D16" s="1" t="s">
         <v>0</v>
       </c>
@@ -1110,7 +1111,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="1" t="s">
         <v>7</v>
       </c>
@@ -1129,7 +1130,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="10">
         <v>130</v>
       </c>
@@ -1137,13 +1138,13 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
     </row>
-    <row r="20" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="1" t="s">
         <v>8</v>
       </c>
@@ -1152,7 +1153,7 @@
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
     </row>
-    <row r="21" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="10">
         <v>20</v>
       </c>
@@ -1174,7 +1175,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D22" s="1" t="s">
         <v>2</v>
       </c>
@@ -1190,7 +1191,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="11"/>
       <c r="B24" s="12"/>
       <c r="C24" s="11"/>
@@ -1202,7 +1203,7 @@
       <c r="I24" s="11"/>
       <c r="J24" s="11"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B26" s="9" t="s">
         <v>15</v>
       </c>
@@ -1210,7 +1211,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D28" s="1" t="s">
         <v>0</v>
       </c>
@@ -1226,7 +1227,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="1" t="s">
         <v>7</v>
       </c>
@@ -1245,7 +1246,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B30" s="10">
         <v>35</v>
       </c>
@@ -1253,13 +1254,13 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
       <c r="G31" s="5"/>
       <c r="H31" s="5"/>
     </row>
-    <row r="32" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="1" t="s">
         <v>8</v>
       </c>
@@ -1268,7 +1269,7 @@
       <c r="G32" s="5"/>
       <c r="H32" s="5"/>
     </row>
-    <row r="33" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="10">
         <v>0</v>
       </c>
@@ -1290,7 +1291,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D34" s="1" t="s">
         <v>2</v>
       </c>
@@ -1306,7 +1307,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="11"/>
       <c r="B36" s="12"/>
       <c r="C36" s="11"/>
@@ -1318,7 +1319,7 @@
       <c r="I36" s="11"/>
       <c r="J36" s="11"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B38" s="9" t="s">
         <v>15</v>
       </c>
@@ -1326,7 +1327,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D40" s="1" t="s">
         <v>0</v>
       </c>
@@ -1342,7 +1343,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B41" s="1" t="s">
         <v>7</v>
       </c>
@@ -1361,7 +1362,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B42" s="10">
         <v>30</v>
       </c>
@@ -1369,13 +1370,13 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
       <c r="G43" s="5"/>
       <c r="H43" s="5"/>
     </row>
-    <row r="44" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B44" s="1" t="s">
         <v>8</v>
       </c>
@@ -1384,7 +1385,7 @@
       <c r="G44" s="5"/>
       <c r="H44" s="5"/>
     </row>
-    <row r="45" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B45" s="10">
         <v>10</v>
       </c>
@@ -1406,7 +1407,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D46" s="1" t="s">
         <v>2</v>
       </c>
@@ -1422,7 +1423,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="11"/>
       <c r="B48" s="12"/>
       <c r="C48" s="11"/>
@@ -1434,7 +1435,7 @@
       <c r="I48" s="11"/>
       <c r="J48" s="11"/>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B50" s="9" t="s">
         <v>15</v>
       </c>
@@ -1442,7 +1443,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D52" s="1" t="s">
         <v>0</v>
       </c>
@@ -1458,7 +1459,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B53" s="1" t="s">
         <v>7</v>
       </c>
@@ -1477,7 +1478,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B54" s="10">
         <v>40</v>
       </c>
@@ -1485,13 +1486,13 @@
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
       <c r="G55" s="5"/>
       <c r="H55" s="5"/>
     </row>
-    <row r="56" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B56" s="1" t="s">
         <v>8</v>
       </c>
@@ -1500,7 +1501,7 @@
       <c r="G56" s="5"/>
       <c r="H56" s="5"/>
     </row>
-    <row r="57" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B57" s="10">
         <v>40</v>
       </c>
@@ -1522,7 +1523,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="1" t="s">
         <v>2</v>
       </c>
@@ -1538,7 +1539,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="11"/>
       <c r="B60" s="12"/>
       <c r="C60" s="11"/>
@@ -1550,7 +1551,7 @@
       <c r="I60" s="11"/>
       <c r="J60" s="11"/>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B62" s="9" t="s">
         <v>15</v>
       </c>
@@ -1558,7 +1559,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D64" s="1" t="s">
         <v>0</v>
       </c>
@@ -1574,7 +1575,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B65" s="1" t="s">
         <v>7</v>
       </c>
@@ -1593,7 +1594,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B66" s="10">
         <v>35</v>
       </c>
@@ -1601,13 +1602,13 @@
         <v>9</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E67" s="2"/>
       <c r="F67" s="2"/>
       <c r="G67" s="5"/>
       <c r="H67" s="5"/>
     </row>
-    <row r="68" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B68" s="1" t="s">
         <v>8</v>
       </c>
@@ -1616,7 +1617,7 @@
       <c r="G68" s="5"/>
       <c r="H68" s="5"/>
     </row>
-    <row r="69" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B69" s="10">
         <v>20</v>
       </c>
@@ -1638,7 +1639,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="70" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D70" s="1" t="s">
         <v>2</v>
       </c>
@@ -1654,7 +1655,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="72" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="11"/>
       <c r="B72" s="12"/>
       <c r="C72" s="11"/>
@@ -1666,7 +1667,7 @@
       <c r="I72" s="11"/>
       <c r="J72" s="11"/>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B74" s="9" t="s">
         <v>15</v>
       </c>
@@ -1674,7 +1675,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D76" s="1" t="s">
         <v>0</v>
       </c>
@@ -1694,7 +1695,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="77" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B77" s="1" t="s">
         <v>7</v>
       </c>
@@ -1717,7 +1718,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="78" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B78" s="10">
         <v>40</v>
       </c>
@@ -1725,13 +1726,13 @@
         <v>9</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E79" s="2"/>
       <c r="F79" s="2"/>
       <c r="G79" s="5"/>
       <c r="H79" s="5"/>
     </row>
-    <row r="80" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B80" s="1" t="s">
         <v>8</v>
       </c>
@@ -1740,7 +1741,7 @@
       <c r="G80" s="5"/>
       <c r="H80" s="5"/>
     </row>
-    <row r="81" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B81" s="10">
         <v>40</v>
       </c>
@@ -1766,7 +1767,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="82" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D82" s="1" t="s">
         <v>2</v>
       </c>
@@ -1786,7 +1787,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="84" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="11"/>
       <c r="B84" s="12"/>
       <c r="C84" s="11"/>
@@ -1798,7 +1799,7 @@
       <c r="I84" s="11"/>
       <c r="J84" s="11"/>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B86" s="9" t="s">
         <v>15</v>
       </c>
@@ -1806,7 +1807,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D88" s="1" t="s">
         <v>0</v>
       </c>
@@ -1826,7 +1827,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="89" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B89" s="1" t="s">
         <v>7</v>
       </c>
@@ -1849,7 +1850,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="90" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B90" s="10">
         <v>120</v>
       </c>
@@ -1857,13 +1858,13 @@
         <v>9</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E91" s="2"/>
       <c r="F91" s="2"/>
       <c r="G91" s="5"/>
       <c r="H91" s="5"/>
     </row>
-    <row r="92" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B92" s="1" t="s">
         <v>8</v>
       </c>
@@ -1872,7 +1873,7 @@
       <c r="G92" s="5"/>
       <c r="H92" s="5"/>
     </row>
-    <row r="93" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B93" s="10">
         <v>60</v>
       </c>
@@ -1898,7 +1899,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="94" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D94" s="1" t="s">
         <v>2</v>
       </c>
@@ -1918,7 +1919,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="96" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="11"/>
       <c r="B96" s="12"/>
       <c r="C96" s="11"/>
@@ -1930,7 +1931,7 @@
       <c r="I96" s="11"/>
       <c r="J96" s="11"/>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B98" s="9" t="s">
         <v>15</v>
       </c>
@@ -1938,7 +1939,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D100" s="1" t="s">
         <v>0</v>
       </c>
@@ -1958,7 +1959,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="101" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B101" s="1" t="s">
         <v>7</v>
       </c>
@@ -1981,7 +1982,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="102" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B102" s="10">
         <v>50</v>
       </c>
@@ -1989,13 +1990,13 @@
         <v>9</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E103" s="2"/>
       <c r="F103" s="2"/>
       <c r="G103" s="5"/>
       <c r="H103" s="5"/>
     </row>
-    <row r="104" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B104" s="1" t="s">
         <v>8</v>
       </c>
@@ -2004,7 +2005,7 @@
       <c r="G104" s="5"/>
       <c r="H104" s="5"/>
     </row>
-    <row r="105" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B105" s="10">
         <v>50</v>
       </c>
@@ -2030,7 +2031,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="106" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D106" s="1" t="s">
         <v>2</v>
       </c>
@@ -2050,7 +2051,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="108" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="11"/>
       <c r="B108" s="12"/>
       <c r="C108" s="11"/>
@@ -2062,7 +2063,7 @@
       <c r="I108" s="11"/>
       <c r="J108" s="11"/>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B110" s="9" t="s">
         <v>15</v>
       </c>
@@ -2070,7 +2071,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D112" s="1" t="s">
         <v>0</v>
       </c>
@@ -2086,7 +2087,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="113" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B113" s="1" t="s">
         <v>7</v>
       </c>
@@ -2105,7 +2106,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="114" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B114" s="10">
         <v>60</v>
       </c>
@@ -2113,13 +2114,13 @@
         <v>9</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E115" s="2"/>
       <c r="F115" s="2"/>
       <c r="G115" s="5"/>
       <c r="H115" s="5"/>
     </row>
-    <row r="116" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B116" s="1" t="s">
         <v>8</v>
       </c>
@@ -2128,7 +2129,7 @@
       <c r="G116" s="5"/>
       <c r="H116" s="5"/>
     </row>
-    <row r="117" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B117" s="10">
         <v>30</v>
       </c>
@@ -2150,7 +2151,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="118" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D118" s="1" t="s">
         <v>2</v>
       </c>
@@ -2166,7 +2167,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="120" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="11"/>
       <c r="B120" s="12"/>
       <c r="C120" s="11"/>
@@ -2178,7 +2179,7 @@
       <c r="I120" s="11"/>
       <c r="J120" s="11"/>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B122" s="9" t="s">
         <v>15</v>
       </c>
@@ -2186,7 +2187,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D124" s="1" t="s">
         <v>0</v>
       </c>
@@ -2206,7 +2207,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="125" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B125" s="1" t="s">
         <v>7</v>
       </c>
@@ -2229,7 +2230,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="126" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B126" s="10">
         <v>100</v>
       </c>
@@ -2237,13 +2238,13 @@
         <v>9</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E127" s="2"/>
       <c r="F127" s="2"/>
       <c r="G127" s="5"/>
       <c r="H127" s="5"/>
     </row>
-    <row r="128" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B128" s="1" t="s">
         <v>8</v>
       </c>
@@ -2252,7 +2253,7 @@
       <c r="G128" s="5"/>
       <c r="H128" s="5"/>
     </row>
-    <row r="129" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B129" s="10">
         <v>40</v>
       </c>
@@ -2276,7 +2277,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="130" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D130" s="1" t="s">
         <v>2</v>
       </c>
@@ -2296,7 +2297,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="132" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" s="11"/>
       <c r="B132" s="12"/>
       <c r="C132" s="11"/>
@@ -2308,7 +2309,7 @@
       <c r="I132" s="11"/>
       <c r="J132" s="11"/>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B134" s="9" t="s">
         <v>15</v>
       </c>
@@ -2316,7 +2317,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D136" s="1" t="s">
         <v>0</v>
       </c>
@@ -2336,7 +2337,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="137" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B137" s="1" t="s">
         <v>7</v>
       </c>
@@ -2359,7 +2360,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="138" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B138" s="10">
         <v>70</v>
       </c>
@@ -2367,13 +2368,13 @@
         <v>9</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E139" s="2"/>
       <c r="F139" s="2"/>
       <c r="G139" s="5"/>
       <c r="H139" s="5"/>
     </row>
-    <row r="140" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B140" s="1" t="s">
         <v>8</v>
       </c>
@@ -2382,7 +2383,7 @@
       <c r="G140" s="5"/>
       <c r="H140" s="5"/>
     </row>
-    <row r="141" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B141" s="10">
         <v>25</v>
       </c>
@@ -2406,7 +2407,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="142" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D142" s="1" t="s">
         <v>2</v>
       </c>
@@ -2426,7 +2427,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="144" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A144" s="11"/>
       <c r="B144" s="12"/>
       <c r="C144" s="11"/>
@@ -2438,7 +2439,7 @@
       <c r="I144" s="11"/>
       <c r="J144" s="11"/>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B146" s="9" t="s">
         <v>15</v>
       </c>
@@ -2446,7 +2447,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D148" s="1" t="s">
         <v>0</v>
       </c>
@@ -2466,7 +2467,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="149" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B149" s="1" t="s">
         <v>7</v>
       </c>
@@ -2489,7 +2490,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="150" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B150" s="10">
         <v>30</v>
       </c>
@@ -2497,13 +2498,13 @@
         <v>9</v>
       </c>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E151" s="2"/>
       <c r="F151" s="2"/>
       <c r="G151" s="5"/>
       <c r="H151" s="5"/>
     </row>
-    <row r="152" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B152" s="1" t="s">
         <v>8</v>
       </c>
@@ -2512,7 +2513,7 @@
       <c r="G152" s="5"/>
       <c r="H152" s="5"/>
     </row>
-    <row r="153" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B153" s="10">
         <v>30</v>
       </c>
@@ -2536,7 +2537,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="154" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D154" s="1" t="s">
         <v>2</v>
       </c>
@@ -2556,7 +2557,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="156" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A156" s="11"/>
       <c r="B156" s="12"/>
       <c r="C156" s="11"/>
@@ -2568,7 +2569,7 @@
       <c r="I156" s="11"/>
       <c r="J156" s="11"/>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B158" s="9" t="s">
         <v>15</v>
       </c>
@@ -2576,7 +2577,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D160" s="1" t="s">
         <v>0</v>
       </c>
@@ -2596,7 +2597,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="161" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B161" s="1" t="s">
         <v>7</v>
       </c>
@@ -2619,7 +2620,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="162" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B162" s="10">
         <v>30</v>
       </c>
@@ -2627,13 +2628,13 @@
         <v>9</v>
       </c>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E163" s="2"/>
       <c r="F163" s="2"/>
       <c r="G163" s="5"/>
       <c r="H163" s="5"/>
     </row>
-    <row r="164" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B164" s="1" t="s">
         <v>8</v>
       </c>
@@ -2642,7 +2643,7 @@
       <c r="G164" s="5"/>
       <c r="H164" s="5"/>
     </row>
-    <row r="165" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B165" s="10">
         <v>25</v>
       </c>
@@ -2666,7 +2667,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="166" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D166" s="1" t="s">
         <v>2</v>
       </c>
@@ -2686,7 +2687,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="168" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A168" s="11"/>
       <c r="B168" s="12"/>
       <c r="C168" s="11"/>
@@ -2708,34 +2709,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3004405F-278A-41B0-B16A-948CDB79AC5D}">
   <dimension ref="A1:S272"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B175" workbookViewId="0">
-      <selection activeCell="M175" sqref="M175"/>
+    <sheetView tabSelected="1" topLeftCell="A175" workbookViewId="0">
+      <selection activeCell="N203" sqref="N203"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.140625" style="25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" style="25" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" style="25" customWidth="1"/>
-    <col min="4" max="4" width="9.109375" style="7"/>
-    <col min="5" max="5" width="10.44140625" style="7" customWidth="1"/>
-    <col min="6" max="7" width="9.109375" style="15"/>
-    <col min="8" max="8" width="11.44140625" style="15" customWidth="1"/>
-    <col min="9" max="12" width="9.109375" style="15"/>
-    <col min="13" max="16" width="9.109375" style="7"/>
-    <col min="17" max="17" width="9.5546875" style="7" customWidth="1"/>
-    <col min="18" max="18" width="8.88671875"/>
-    <col min="19" max="19" width="9.109375" style="7"/>
-    <col min="20" max="16384" width="9.109375" style="15"/>
+    <col min="3" max="3" width="11.28515625" style="25" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="7"/>
+    <col min="5" max="5" width="10.42578125" style="7" customWidth="1"/>
+    <col min="6" max="7" width="9.140625" style="15"/>
+    <col min="8" max="8" width="11.42578125" style="15" customWidth="1"/>
+    <col min="9" max="12" width="9.140625" style="15"/>
+    <col min="13" max="16" width="9.140625" style="7"/>
+    <col min="17" max="17" width="9.5703125" style="7" customWidth="1"/>
+    <col min="18" max="18" width="8.85546875"/>
+    <col min="19" max="19" width="9.140625" style="7"/>
+    <col min="20" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E1" s="26" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:18" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:18" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="25" t="s">
         <v>24</v>
       </c>
@@ -2767,7 +2768,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="25">
         <v>0</v>
       </c>
@@ -2799,7 +2800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="25">
         <v>1</v>
       </c>
@@ -2834,7 +2835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="25">
         <v>2</v>
       </c>
@@ -2875,7 +2876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="25">
         <v>3</v>
       </c>
@@ -2907,7 +2908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="25">
         <v>4</v>
       </c>
@@ -2948,7 +2949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="25">
         <v>5</v>
       </c>
@@ -2980,7 +2981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="25">
         <v>6</v>
       </c>
@@ -3012,7 +3013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="25">
         <v>7</v>
       </c>
@@ -3044,7 +3045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="25">
         <v>8</v>
       </c>
@@ -3076,7 +3077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="25">
         <v>9</v>
       </c>
@@ -3108,7 +3109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="25">
         <v>10</v>
       </c>
@@ -3143,7 +3144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="25">
         <v>11</v>
       </c>
@@ -3184,7 +3185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="25">
         <v>12</v>
       </c>
@@ -3225,7 +3226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="25">
         <v>13</v>
       </c>
@@ -3266,7 +3267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="25">
         <v>14</v>
       </c>
@@ -3298,7 +3299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="25">
         <v>15</v>
       </c>
@@ -3330,7 +3331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="25">
         <v>16</v>
       </c>
@@ -3362,7 +3363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="25">
         <v>17</v>
       </c>
@@ -3394,7 +3395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="25">
         <v>18</v>
       </c>
@@ -3426,7 +3427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="25">
         <v>19</v>
       </c>
@@ -3458,7 +3459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="25">
         <v>20</v>
       </c>
@@ -3490,7 +3491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="25">
         <v>21</v>
       </c>
@@ -3522,7 +3523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="25">
         <v>22</v>
       </c>
@@ -3554,7 +3555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="25">
         <v>23</v>
       </c>
@@ -3586,7 +3587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M28" s="20">
         <f>SUM(M4:M27)</f>
         <v>280</v>
@@ -3609,13 +3610,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="E33" s="26" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="34" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="35" spans="1:19" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="35" spans="1:19" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="25" t="s">
         <v>24</v>
       </c>
@@ -3650,7 +3651,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" s="25">
         <v>0</v>
       </c>
@@ -3682,7 +3683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" s="25">
         <v>1</v>
       </c>
@@ -3717,7 +3718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="25">
         <v>2</v>
       </c>
@@ -3758,7 +3759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" s="25">
         <v>3</v>
       </c>
@@ -3790,7 +3791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" s="25">
         <v>4</v>
       </c>
@@ -3831,7 +3832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" s="25">
         <v>5</v>
       </c>
@@ -3863,7 +3864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" s="25">
         <v>6</v>
       </c>
@@ -3895,7 +3896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" s="25">
         <v>7</v>
       </c>
@@ -3927,7 +3928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" s="25">
         <v>8</v>
       </c>
@@ -3959,7 +3960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" s="25">
         <v>9</v>
       </c>
@@ -3994,7 +3995,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" s="25">
         <v>10</v>
       </c>
@@ -4035,7 +4036,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" s="25">
         <v>11</v>
       </c>
@@ -4082,7 +4083,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" s="25">
         <v>12</v>
       </c>
@@ -4126,7 +4127,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49" s="25">
         <v>13</v>
       </c>
@@ -4170,7 +4171,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50" s="25">
         <v>14</v>
       </c>
@@ -4205,7 +4206,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51" s="25">
         <v>15</v>
       </c>
@@ -4240,7 +4241,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52" s="25">
         <v>16</v>
       </c>
@@ -4275,7 +4276,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A53" s="25">
         <v>17</v>
       </c>
@@ -4310,7 +4311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54" s="25">
         <v>18</v>
       </c>
@@ -4342,7 +4343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A55" s="25">
         <v>19</v>
       </c>
@@ -4374,7 +4375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56" s="25">
         <v>20</v>
       </c>
@@ -4406,7 +4407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A57" s="25">
         <v>21</v>
       </c>
@@ -4438,7 +4439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A58" s="25">
         <v>22</v>
       </c>
@@ -4470,7 +4471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="25">
         <v>23</v>
       </c>
@@ -4502,7 +4503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M60" s="20">
         <f>SUM(M36:M59)</f>
         <v>1360</v>
@@ -4528,23 +4529,23 @@
         <v>200</v>
       </c>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
       <c r="Q61" s="7" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
       <c r="Q62" s="7">
         <v>100</v>
       </c>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
       <c r="E68" s="26" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="69" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="70" spans="1:19" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="70" spans="1:19" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="25" t="s">
         <v>24</v>
       </c>
@@ -4579,7 +4580,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A71" s="25">
         <v>0</v>
       </c>
@@ -4611,7 +4612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A72" s="25">
         <v>1</v>
       </c>
@@ -4646,7 +4647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A73" s="25">
         <v>2</v>
       </c>
@@ -4687,7 +4688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A74" s="25">
         <v>3</v>
       </c>
@@ -4719,7 +4720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A75" s="25">
         <v>4</v>
       </c>
@@ -4760,7 +4761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A76" s="25">
         <v>5</v>
       </c>
@@ -4792,7 +4793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A77" s="25">
         <v>6</v>
       </c>
@@ -4824,7 +4825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A78" s="25">
         <v>7</v>
       </c>
@@ -4856,7 +4857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A79" s="25">
         <v>8</v>
       </c>
@@ -4888,7 +4889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A80" s="25">
         <v>9</v>
       </c>
@@ -4923,7 +4924,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A81" s="25">
         <v>10</v>
       </c>
@@ -4961,7 +4962,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A82" s="25">
         <v>11</v>
       </c>
@@ -5008,7 +5009,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A83" s="25">
         <v>12</v>
       </c>
@@ -5058,7 +5059,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A84" s="25">
         <v>13</v>
       </c>
@@ -5102,7 +5103,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A85" s="25">
         <v>14</v>
       </c>
@@ -5137,7 +5138,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A86" s="25">
         <v>15</v>
       </c>
@@ -5172,7 +5173,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A87" s="25">
         <v>16</v>
       </c>
@@ -5207,7 +5208,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A88" s="25">
         <v>17</v>
       </c>
@@ -5242,7 +5243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A89" s="25">
         <v>18</v>
       </c>
@@ -5274,7 +5275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A90" s="25">
         <v>19</v>
       </c>
@@ -5306,7 +5307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A91" s="25">
         <v>20</v>
       </c>
@@ -5338,7 +5339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A92" s="25">
         <v>21</v>
       </c>
@@ -5370,7 +5371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A93" s="25">
         <v>22</v>
       </c>
@@ -5402,7 +5403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="25">
         <v>23</v>
       </c>
@@ -5434,7 +5435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M95" s="20">
         <f>SUM(M71:M94)</f>
         <v>1460</v>
@@ -5460,23 +5461,23 @@
         <v>100</v>
       </c>
     </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
       <c r="Q96" s="7" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
       <c r="Q97" s="7">
         <v>200</v>
       </c>
     </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:19" x14ac:dyDescent="0.25">
       <c r="E103" s="26" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="104" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="105" spans="1:19" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="105" spans="1:19" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="25" t="s">
         <v>24</v>
       </c>
@@ -5514,7 +5515,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A106" s="25">
         <v>0</v>
       </c>
@@ -5549,7 +5550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A107" s="25">
         <v>1</v>
       </c>
@@ -5587,7 +5588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A108" s="25">
         <v>2</v>
       </c>
@@ -5631,7 +5632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A109" s="25">
         <v>3</v>
       </c>
@@ -5666,7 +5667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A110" s="25">
         <v>4</v>
       </c>
@@ -5710,7 +5711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A111" s="25">
         <v>5</v>
       </c>
@@ -5745,7 +5746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A112" s="25">
         <v>6</v>
       </c>
@@ -5780,7 +5781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A113" s="25">
         <v>7</v>
       </c>
@@ -5815,7 +5816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A114" s="25">
         <v>8</v>
       </c>
@@ -5850,7 +5851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A115" s="25">
         <v>9</v>
       </c>
@@ -5888,7 +5889,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="116" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A116" s="25">
         <v>10</v>
       </c>
@@ -5929,7 +5930,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="117" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A117" s="25">
         <v>11</v>
       </c>
@@ -5982,7 +5983,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="118" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A118" s="25">
         <v>12</v>
       </c>
@@ -6032,7 +6033,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="119" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A119" s="25">
         <v>13</v>
       </c>
@@ -6079,7 +6080,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="120" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A120" s="25">
         <v>14</v>
       </c>
@@ -6117,7 +6118,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="121" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A121" s="25">
         <v>15</v>
       </c>
@@ -6152,7 +6153,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="122" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A122" s="25">
         <v>16</v>
       </c>
@@ -6196,7 +6197,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="123" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A123" s="25">
         <v>17</v>
       </c>
@@ -6243,7 +6244,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="124" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A124" s="25">
         <v>18</v>
       </c>
@@ -6281,7 +6282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A125" s="25">
         <v>19</v>
       </c>
@@ -6316,7 +6317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A126" s="25">
         <v>20</v>
       </c>
@@ -6351,7 +6352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A127" s="25">
         <v>21</v>
       </c>
@@ -6386,7 +6387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A128" s="25">
         <v>22</v>
       </c>
@@ -6421,7 +6422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A129" s="25">
         <v>23</v>
       </c>
@@ -6456,7 +6457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M130" s="20">
         <f>SUM(M106:M129)</f>
         <v>1400</v>
@@ -6482,23 +6483,23 @@
         <v>140</v>
       </c>
     </row>
-    <row r="131" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:19" x14ac:dyDescent="0.25">
       <c r="Q131" s="7" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="132" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:19" x14ac:dyDescent="0.25">
       <c r="Q132" s="7">
         <v>180</v>
       </c>
     </row>
-    <row r="138" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:19" x14ac:dyDescent="0.25">
       <c r="E138" s="26" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="139" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="140" spans="1:19" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="140" spans="1:19" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A140" s="25" t="s">
         <v>24</v>
       </c>
@@ -6536,7 +6537,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="141" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A141" s="25">
         <v>0</v>
       </c>
@@ -6574,7 +6575,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="142" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A142" s="25">
         <v>1</v>
       </c>
@@ -6615,7 +6616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A143" s="25">
         <v>2</v>
       </c>
@@ -6659,7 +6660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A144" s="25">
         <v>3</v>
       </c>
@@ -6694,7 +6695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A145" s="25">
         <v>4</v>
       </c>
@@ -6738,7 +6739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A146" s="25">
         <v>5</v>
       </c>
@@ -6773,7 +6774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A147" s="25">
         <v>6</v>
       </c>
@@ -6808,7 +6809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A148" s="25">
         <v>7</v>
       </c>
@@ -6846,7 +6847,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="149" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A149" s="25">
         <v>8</v>
       </c>
@@ -6884,7 +6885,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="150" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A150" s="25">
         <v>9</v>
       </c>
@@ -6925,7 +6926,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="151" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A151" s="25">
         <v>10</v>
       </c>
@@ -6966,7 +6967,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="152" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A152" s="25">
         <v>11</v>
       </c>
@@ -7016,7 +7017,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="153" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A153" s="25">
         <v>12</v>
       </c>
@@ -7063,7 +7064,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="154" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A154" s="25">
         <v>13</v>
       </c>
@@ -7111,7 +7112,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="155" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A155" s="25">
         <v>14</v>
       </c>
@@ -7149,7 +7150,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="156" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A156" s="25">
         <v>15</v>
       </c>
@@ -7187,7 +7188,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="157" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A157" s="25">
         <v>16</v>
       </c>
@@ -7234,7 +7235,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="158" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A158" s="25">
         <v>17</v>
       </c>
@@ -7278,7 +7279,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="159" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A159" s="25">
         <v>18</v>
       </c>
@@ -7316,7 +7317,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="160" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A160" s="25">
         <v>19</v>
       </c>
@@ -7354,7 +7355,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="161" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A161" s="25">
         <v>20</v>
       </c>
@@ -7392,7 +7393,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="162" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A162" s="25">
         <v>21</v>
       </c>
@@ -7430,7 +7431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A163" s="25">
         <v>22</v>
       </c>
@@ -7465,7 +7466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A164" s="25">
         <v>23</v>
       </c>
@@ -7500,7 +7501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M165" s="20">
         <f>SUM(M141:M164)</f>
         <v>2450</v>
@@ -7526,23 +7527,23 @@
         <v>1660</v>
       </c>
     </row>
-    <row r="166" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:19" x14ac:dyDescent="0.25">
       <c r="Q166" s="7" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="167" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:19" x14ac:dyDescent="0.25">
       <c r="Q167" s="7">
         <v>670</v>
       </c>
     </row>
-    <row r="173" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:19" x14ac:dyDescent="0.25">
       <c r="E173" s="26" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="174" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="175" spans="1:19" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="175" spans="1:19" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A175" s="25" t="s">
         <v>24</v>
       </c>
@@ -7580,7 +7581,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="176" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A176" s="25">
         <v>0</v>
       </c>
@@ -7618,7 +7619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A177" s="25">
         <v>1</v>
       </c>
@@ -7657,7 +7658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A178" s="25">
         <v>2</v>
       </c>
@@ -7701,7 +7702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A179" s="25">
         <v>3</v>
       </c>
@@ -7736,7 +7737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A180" s="25">
         <v>4</v>
       </c>
@@ -7780,7 +7781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A181" s="25">
         <v>5</v>
       </c>
@@ -7815,7 +7816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A182" s="25">
         <v>6</v>
       </c>
@@ -7853,7 +7854,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="183" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A183" s="25">
         <v>7</v>
       </c>
@@ -7891,7 +7892,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="184" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A184" s="25">
         <v>8</v>
       </c>
@@ -7929,7 +7930,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="185" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A185" s="25">
         <v>9</v>
       </c>
@@ -7970,7 +7971,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="186" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A186" s="25">
         <v>10</v>
       </c>
@@ -8014,7 +8015,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="187" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A187" s="25">
         <v>11</v>
       </c>
@@ -8064,7 +8065,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="188" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A188" s="25">
         <v>12</v>
       </c>
@@ -8111,7 +8112,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="189" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A189" s="25">
         <v>13</v>
       </c>
@@ -8159,7 +8160,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="190" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A190" s="25">
         <v>14</v>
       </c>
@@ -8197,7 +8198,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="191" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A191" s="25">
         <v>15</v>
       </c>
@@ -8232,7 +8233,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="192" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A192" s="25">
         <v>16</v>
       </c>
@@ -8279,7 +8280,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="193" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A193" s="25">
         <v>17</v>
       </c>
@@ -8326,7 +8327,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="194" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A194" s="25">
         <v>18</v>
       </c>
@@ -8364,7 +8365,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="195" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A195" s="25">
         <v>19</v>
       </c>
@@ -8402,7 +8403,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="196" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A196" s="25">
         <v>20</v>
       </c>
@@ -8438,7 +8439,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="197" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A197" s="25">
         <v>21</v>
       </c>
@@ -8476,7 +8477,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="198" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A198" s="25">
         <v>22</v>
       </c>
@@ -8512,7 +8513,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="199" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A199" s="25">
         <v>23</v>
       </c>
@@ -8547,7 +8548,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="200" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M200" s="20">
         <f>SUM(M176:M199)</f>
         <v>1830</v>
@@ -8573,23 +8574,64 @@
         <v>1510</v>
       </c>
     </row>
-    <row r="201" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:19" x14ac:dyDescent="0.25">
       <c r="Q201" s="7" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="202" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:19" x14ac:dyDescent="0.25">
       <c r="Q202" s="7">
         <v>510</v>
       </c>
     </row>
-    <row r="208" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A203" s="32">
+        <v>24</v>
+      </c>
+      <c r="B203" s="32">
+        <v>30</v>
+      </c>
+      <c r="C203" s="32">
+        <v>30</v>
+      </c>
+      <c r="D203" s="31">
+        <v>0</v>
+      </c>
+      <c r="E203" s="31">
+        <v>0.1</v>
+      </c>
+      <c r="F203" s="30"/>
+      <c r="G203" s="30"/>
+      <c r="H203" s="30"/>
+      <c r="I203" s="30"/>
+      <c r="J203" s="30"/>
+      <c r="K203" s="30"/>
+      <c r="L203" s="30"/>
+      <c r="M203" s="31">
+        <v>30</v>
+      </c>
+      <c r="N203" s="31">
+        <v>3</v>
+      </c>
+      <c r="O203" s="31">
+        <v>0</v>
+      </c>
+      <c r="P203" s="31">
+        <v>0</v>
+      </c>
+      <c r="Q203" s="31">
+        <v>-30</v>
+      </c>
+      <c r="R203" s="34"/>
+      <c r="S203" s="31"/>
+    </row>
+    <row r="208" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F208" s="26" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="209" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="210" spans="1:19" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="210" spans="1:19" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A210" s="25" t="s">
         <v>24</v>
       </c>
@@ -8627,7 +8669,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="211" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A211" s="25">
         <v>0</v>
       </c>
@@ -8663,7 +8705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A212" s="25">
         <v>1</v>
       </c>
@@ -8702,7 +8744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A213" s="25">
         <v>2</v>
       </c>
@@ -8746,7 +8788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A214" s="25">
         <v>3</v>
       </c>
@@ -8781,7 +8823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A215" s="25">
         <v>4</v>
       </c>
@@ -8825,7 +8867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A216" s="25">
         <v>5</v>
       </c>
@@ -8860,7 +8902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A217" s="25">
         <v>6</v>
       </c>
@@ -8895,7 +8937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A218" s="25">
         <v>7</v>
       </c>
@@ -8933,7 +8975,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="219" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A219" s="25">
         <v>8</v>
       </c>
@@ -8971,7 +9013,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="220" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A220" s="25">
         <v>9</v>
       </c>
@@ -9009,7 +9051,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="221" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A221" s="25">
         <v>10</v>
       </c>
@@ -9048,7 +9090,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="222" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A222" s="25">
         <v>11</v>
       </c>
@@ -9086,7 +9128,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="223" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A223" s="25">
         <v>12</v>
       </c>
@@ -9121,7 +9163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A224" s="25">
         <v>13</v>
       </c>
@@ -9159,7 +9201,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="225" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A225" s="25">
         <v>14</v>
       </c>
@@ -9197,7 +9239,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="226" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A226" s="25">
         <v>15</v>
       </c>
@@ -9232,7 +9274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A227" s="25">
         <v>16</v>
       </c>
@@ -9276,7 +9318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A228" s="25">
         <v>17</v>
       </c>
@@ -9314,7 +9356,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="229" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A229" s="25">
         <v>18</v>
       </c>
@@ -9349,7 +9391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A230" s="25">
         <v>19</v>
       </c>
@@ -9385,7 +9427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A231" s="25">
         <v>20</v>
       </c>
@@ -9421,7 +9463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A232" s="25">
         <v>21</v>
       </c>
@@ -9457,7 +9499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A233" s="25">
         <v>22</v>
       </c>
@@ -9493,7 +9535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A234" s="25">
         <v>23</v>
       </c>
@@ -9528,7 +9570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M235" s="20">
         <f>SUM(M211:M234)</f>
         <v>1710</v>
@@ -9554,23 +9596,23 @@
         <v>1630</v>
       </c>
     </row>
-    <row r="236" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:19" x14ac:dyDescent="0.25">
       <c r="Q236" s="7" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="237" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:19" x14ac:dyDescent="0.25">
       <c r="Q237" s="7">
         <v>510</v>
       </c>
     </row>
-    <row r="243" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F243" s="26" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="244" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="245" spans="1:19" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="245" spans="1:19" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A245" s="25" t="s">
         <v>24</v>
       </c>
@@ -9608,7 +9650,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="246" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A246" s="25">
         <v>0</v>
       </c>
@@ -9644,7 +9686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A247" s="25">
         <v>1</v>
       </c>
@@ -9683,7 +9725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A248" s="25">
         <v>2</v>
       </c>
@@ -9727,7 +9769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A249" s="25">
         <v>3</v>
       </c>
@@ -9762,7 +9804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A250" s="25">
         <v>4</v>
       </c>
@@ -9806,7 +9848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A251" s="25">
         <v>5</v>
       </c>
@@ -9841,7 +9883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A252" s="25">
         <v>6</v>
       </c>
@@ -9876,7 +9918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A253" s="25">
         <v>7</v>
       </c>
@@ -9914,7 +9956,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="254" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A254" s="25">
         <v>8</v>
       </c>
@@ -9952,7 +9994,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="255" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A255" s="25">
         <v>9</v>
       </c>
@@ -9990,7 +10032,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="256" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A256" s="25">
         <v>10</v>
       </c>
@@ -10029,7 +10071,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="257" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A257" s="25">
         <v>11</v>
       </c>
@@ -10067,7 +10109,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="258" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A258" s="25">
         <v>12</v>
       </c>
@@ -10102,7 +10144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A259" s="25">
         <v>13</v>
       </c>
@@ -10140,7 +10182,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="260" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A260" s="25">
         <v>14</v>
       </c>
@@ -10178,7 +10220,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="261" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A261" s="25">
         <v>15</v>
       </c>
@@ -10213,7 +10255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A262" s="25">
         <v>16</v>
       </c>
@@ -10257,7 +10299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A263" s="25">
         <v>17</v>
       </c>
@@ -10295,7 +10337,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="264" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A264" s="25">
         <v>18</v>
       </c>
@@ -10330,7 +10372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A265" s="25">
         <v>19</v>
       </c>
@@ -10366,7 +10408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A266" s="25">
         <v>20</v>
       </c>
@@ -10402,7 +10444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A267" s="25">
         <v>21</v>
       </c>
@@ -10438,7 +10480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A268" s="25">
         <v>22</v>
       </c>
@@ -10474,7 +10516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A269" s="25">
         <v>23</v>
       </c>
@@ -10509,7 +10551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M270" s="20">
         <f>SUM(M246:M269)</f>
         <v>1410</v>
@@ -10535,12 +10577,12 @@
         <v>1930</v>
       </c>
     </row>
-    <row r="271" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:19" x14ac:dyDescent="0.25">
       <c r="Q271" s="7" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="272" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:19" x14ac:dyDescent="0.25">
       <c r="Q272" s="7">
         <v>510</v>
       </c>
